--- a/Attitude Loose/Attitude Loose/Templates/Workload Template.xlsx
+++ b/Attitude Loose/Attitude Loose/Templates/Workload Template.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\DataWarehouse\Workload Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\Attitude Loose\Attitude Loose\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Validations " sheetId="2" r:id="rId1"/>
     <sheet name="Admin Abstractions " sheetId="3" r:id="rId2"/>
-    <sheet name="Sci Abstractions " sheetId="4" r:id="rId3"/>
+    <sheet name="SciAbstraction" sheetId="4" r:id="rId3"/>
     <sheet name="Admin QCs " sheetId="5" r:id="rId4"/>
     <sheet name="Sci QCs " sheetId="7" r:id="rId5"/>
   </sheets>
@@ -22,8 +22,8 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="3" r:id="rId8"/>
-    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="732">
   <si>
     <t>Trial ID</t>
   </si>
@@ -2751,245 +2751,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="78">
     <dxf>
       <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
       <fill>
@@ -3178,6 +2940,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
     </dxf>
     <dxf>
@@ -3210,6 +2982,194 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
@@ -3387,6 +3347,16 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -22095,7 +22065,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="QC'er">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="QC'er">
   <location ref="V1:X19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
     <pivotField dataField="1" subtotalTop="0" showAll="0">
@@ -23430,7 +23400,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="QC'er">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="QC'er">
   <location ref="V1:X41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField dataField="1" subtotalTop="0" showAll="0">
@@ -24518,8 +24488,8 @@
     <tableColumn id="3" name="Submission#"/>
     <tableColumn id="4" name="Summary 4 Funding Category"/>
     <tableColumn id="5" name="Lead Organization"/>
-    <tableColumn id="6" name="Received Date" dataDxfId="80"/>
-    <tableColumn id="7" name="Accepted Date" dataDxfId="79"/>
+    <tableColumn id="6" name="Received Date" dataDxfId="77"/>
+    <tableColumn id="7" name="Accepted Date" dataDxfId="76"/>
     <tableColumn id="8" name="Validator"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -24527,28 +24497,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S108" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S108" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A1:S108"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Trial ID" dataDxfId="76"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="75"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="74"/>
-    <tableColumn id="4" name="Summary 4 Funding Category" dataDxfId="73"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="72"/>
-    <tableColumn id="6" name="Received Date" dataDxfId="71"/>
-    <tableColumn id="7" name="Accepted Date" dataDxfId="70"/>
-    <tableColumn id="8" name="Abstraction Date" dataDxfId="69"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="68"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="67"/>
-    <tableColumn id="11" name="On-Hold Reason" dataDxfId="66"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="65"/>
-    <tableColumn id="19" name="Additional Comments" dataDxfId="64"/>
-    <tableColumn id="13" name="Processing Status" dataDxfId="63"/>
-    <tableColumn id="14" name="Abstractor" dataDxfId="62"/>
-    <tableColumn id="15" name="Start Time" dataDxfId="61"/>
-    <tableColumn id="16" name="End Time" dataDxfId="60"/>
-    <tableColumn id="17" name="Comments" dataDxfId="59"/>
-    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="58">
+    <tableColumn id="1" name="Trial ID" dataDxfId="72"/>
+    <tableColumn id="2" name="Trial Type" dataDxfId="71"/>
+    <tableColumn id="3" name="Submission#" dataDxfId="70"/>
+    <tableColumn id="4" name="Summary 4 Funding Category" dataDxfId="69"/>
+    <tableColumn id="5" name="Lead Oganization" dataDxfId="68"/>
+    <tableColumn id="6" name="Received Date" dataDxfId="67"/>
+    <tableColumn id="7" name="Accepted Date" dataDxfId="66"/>
+    <tableColumn id="8" name="Abstraction Date" dataDxfId="65"/>
+    <tableColumn id="9" name="On-Hold Date" dataDxfId="64"/>
+    <tableColumn id="10" name="Off-Hold Date" dataDxfId="63"/>
+    <tableColumn id="11" name="On-Hold Reason" dataDxfId="62"/>
+    <tableColumn id="12" name="On-Hold Description" dataDxfId="61"/>
+    <tableColumn id="19" name="Additional Comments" dataDxfId="60"/>
+    <tableColumn id="13" name="Processing Status" dataDxfId="59"/>
+    <tableColumn id="14" name="Abstractor" dataDxfId="58"/>
+    <tableColumn id="15" name="Start Time" dataDxfId="57"/>
+    <tableColumn id="16" name="End Time" dataDxfId="56"/>
+    <tableColumn id="17" name="Comments" dataDxfId="55"/>
+    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="54">
       <calculatedColumnFormula>Table2[End Time]-Table2[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -24557,29 +24527,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:R2" insertRow="1" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:R2"/>
-  <tableColumns count="18">
-    <tableColumn id="1" name="Trial ID" dataDxfId="19"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="18"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="17"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="16"/>
-    <tableColumn id="6" name="Received Date" dataDxfId="15"/>
-    <tableColumn id="7" name="Accepted Date" dataDxfId="14"/>
-    <tableColumn id="8" name="Abstraction Date" dataDxfId="13"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="12"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="11"/>
-    <tableColumn id="11" name="On-Hold Reason" dataDxfId="10"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="9"/>
-    <tableColumn id="19" name="Additional Comments" dataDxfId="8"/>
-    <tableColumn id="13" name="Processing Status" dataDxfId="7"/>
-    <tableColumn id="14" name="Abstractor" dataDxfId="6"/>
-    <tableColumn id="15" name="Start Time" dataDxfId="5"/>
-    <tableColumn id="16" name="End Time" dataDxfId="4"/>
-    <tableColumn id="17" name="Comments" dataDxfId="3"/>
-    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O3" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="A1:O3"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Trial ID" dataDxfId="50"/>
+    <tableColumn id="2" name="Trial Type" dataDxfId="49"/>
+    <tableColumn id="3" name="Submission#" dataDxfId="48"/>
+    <tableColumn id="5" name="Lead Oganization" dataDxfId="47"/>
+    <tableColumn id="9" name="On-Hold Date" dataDxfId="46"/>
+    <tableColumn id="10" name="Off-Hold Date" dataDxfId="45"/>
+    <tableColumn id="11" name="On-Hold Reason" dataDxfId="44"/>
+    <tableColumn id="12" name="On-Hold Description" dataDxfId="43"/>
+    <tableColumn id="19" name="Additional Comments" dataDxfId="42"/>
+    <tableColumn id="13" name="Processing Status" dataDxfId="41"/>
+    <tableColumn id="14" name="Abstractor" dataDxfId="40"/>
+    <tableColumn id="15" name="Start Time" dataDxfId="39"/>
+    <tableColumn id="16" name="End Time" dataDxfId="38"/>
+    <tableColumn id="17" name="Comments" dataDxfId="37"/>
+    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="36"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -24592,21 +24559,21 @@
     <tableColumn id="3" name="Submission#"/>
     <tableColumn id="4" name="Summary 4 Funding Category"/>
     <tableColumn id="5" name="Lead Oganization"/>
-    <tableColumn id="6" name="Received Date" dataDxfId="57"/>
-    <tableColumn id="7" name="Abstraction Date" dataDxfId="56"/>
-    <tableColumn id="8" name="QC Date" dataDxfId="55"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="54"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="53"/>
+    <tableColumn id="6" name="Received Date" dataDxfId="33"/>
+    <tableColumn id="7" name="Abstraction Date" dataDxfId="32"/>
+    <tableColumn id="8" name="QC Date" dataDxfId="31"/>
+    <tableColumn id="9" name="On-Hold Date" dataDxfId="30"/>
+    <tableColumn id="10" name="Off-Hold Date" dataDxfId="29"/>
     <tableColumn id="11" name="On-Hold Reason"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="52"/>
-    <tableColumn id="20" name="Additional Comments" dataDxfId="51"/>
+    <tableColumn id="12" name="On-Hold Description" dataDxfId="28"/>
+    <tableColumn id="20" name="Additional Comments" dataDxfId="27"/>
     <tableColumn id="13" name="Processing Status"/>
     <tableColumn id="14" name="Abstractor"/>
     <tableColumn id="15" name="QCer"/>
-    <tableColumn id="16" name="Start Time" dataDxfId="50"/>
-    <tableColumn id="17" name="End Time" dataDxfId="49"/>
-    <tableColumn id="18" name="Comments" dataDxfId="48"/>
-    <tableColumn id="19" name="Processing Time (HH:MM:SS)" dataDxfId="47">
+    <tableColumn id="16" name="Start Time" dataDxfId="26"/>
+    <tableColumn id="17" name="End Time" dataDxfId="25"/>
+    <tableColumn id="18" name="Comments" dataDxfId="24"/>
+    <tableColumn id="19" name="Processing Time (HH:MM:SS)" dataDxfId="23">
       <calculatedColumnFormula>Table4[End Time]-Table4[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -24615,29 +24582,29 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:T183" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:T183" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:T183"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="Trial ID" dataDxfId="44"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="43"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="42"/>
-    <tableColumn id="4" name="Summary 4 Funding Category" dataDxfId="41"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="40"/>
-    <tableColumn id="6" name="Received Date" dataDxfId="39"/>
-    <tableColumn id="7" name="Abstraction Date" dataDxfId="38"/>
-    <tableColumn id="8" name="QC Date" dataDxfId="37"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="36"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="35"/>
-    <tableColumn id="11" name="On-Hold Reason" dataDxfId="34"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="33"/>
-    <tableColumn id="20" name="Additional Comments" dataDxfId="32"/>
-    <tableColumn id="13" name="Processing Status" dataDxfId="31"/>
-    <tableColumn id="14" name="Abstractor" dataDxfId="30"/>
-    <tableColumn id="15" name="QCer" dataDxfId="29"/>
-    <tableColumn id="16" name="Start Time" dataDxfId="28"/>
-    <tableColumn id="17" name="End Time" dataDxfId="27"/>
-    <tableColumn id="18" name="Comments" dataDxfId="26"/>
-    <tableColumn id="19" name="Processing Time (HH:MM:SS)" dataDxfId="25">
+    <tableColumn id="1" name="Trial ID" dataDxfId="19"/>
+    <tableColumn id="2" name="Trial Type" dataDxfId="18"/>
+    <tableColumn id="3" name="Submission#" dataDxfId="17"/>
+    <tableColumn id="4" name="Summary 4 Funding Category" dataDxfId="16"/>
+    <tableColumn id="5" name="Lead Oganization" dataDxfId="15"/>
+    <tableColumn id="6" name="Received Date" dataDxfId="14"/>
+    <tableColumn id="7" name="Abstraction Date" dataDxfId="13"/>
+    <tableColumn id="8" name="QC Date" dataDxfId="12"/>
+    <tableColumn id="9" name="On-Hold Date" dataDxfId="11"/>
+    <tableColumn id="10" name="Off-Hold Date" dataDxfId="10"/>
+    <tableColumn id="11" name="On-Hold Reason" dataDxfId="9"/>
+    <tableColumn id="12" name="On-Hold Description" dataDxfId="8"/>
+    <tableColumn id="20" name="Additional Comments" dataDxfId="7"/>
+    <tableColumn id="13" name="Processing Status" dataDxfId="6"/>
+    <tableColumn id="14" name="Abstractor" dataDxfId="5"/>
+    <tableColumn id="15" name="QCer" dataDxfId="4"/>
+    <tableColumn id="16" name="Start Time" dataDxfId="3"/>
+    <tableColumn id="17" name="End Time" dataDxfId="2"/>
+    <tableColumn id="18" name="Comments" dataDxfId="1"/>
+    <tableColumn id="19" name="Processing Time (HH:MM:SS)" dataDxfId="0">
       <calculatedColumnFormula>Table5[End Time]-Table5[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -24945,7 +24912,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
@@ -34635,7 +34602,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967293" r:id="rId2"/>
@@ -34648,26 +34615,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:V501"/>
+  <dimension ref="A1:S501"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="25.6328125" style="26"/>
     <col min="4" max="4" width="50.6328125" style="26" customWidth="1"/>
-    <col min="5" max="9" width="25.6328125" style="28"/>
-    <col min="10" max="11" width="50.6328125" style="26" customWidth="1"/>
-    <col min="12" max="13" width="25.6328125" style="26"/>
-    <col min="14" max="15" width="25.6328125" style="33"/>
-    <col min="16" max="16" width="25.6328125" style="26"/>
-    <col min="17" max="17" width="50.6328125" style="34" customWidth="1"/>
-    <col min="18" max="16384" width="25.6328125" style="26"/>
+    <col min="5" max="6" width="25.6328125" style="28"/>
+    <col min="7" max="8" width="50.6328125" style="26" customWidth="1"/>
+    <col min="9" max="10" width="25.6328125" style="26"/>
+    <col min="11" max="12" width="25.6328125" style="33"/>
+    <col min="13" max="13" width="25.6328125" style="26"/>
+    <col min="14" max="14" width="50.6328125" style="34" customWidth="1"/>
+    <col min="15" max="16384" width="25.6328125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -34681,6104 +34648,2743 @@
         <v>52</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="29" t="s">
         <v>55</v>
       </c>
+      <c r="G1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="J1" s="27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-    </row>
-    <row r="2" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="R3" s="34"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="R4" s="34"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-    </row>
-    <row r="5" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="R5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-    </row>
-    <row r="6" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="R6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-    </row>
-    <row r="7" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="R7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-    </row>
-    <row r="8" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-    </row>
-    <row r="9" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-    </row>
-    <row r="10" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-    </row>
-    <row r="11" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-    </row>
-    <row r="12" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="R12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-    </row>
-    <row r="13" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="R13" s="34"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-    </row>
-    <row r="14" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="R14" s="34"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-    </row>
-    <row r="15" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="R15" s="34"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-    </row>
-    <row r="16" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="R16" s="34"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-    </row>
-    <row r="17" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="R17" s="34"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-    </row>
-    <row r="18" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="R18" s="34"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-    </row>
-    <row r="19" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="R19" s="34"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-    </row>
-    <row r="20" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="R20" s="34"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-    </row>
-    <row r="21" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="R21" s="34"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-    </row>
-    <row r="22" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="R22" s="34"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-    </row>
-    <row r="23" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="R23" s="34"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-    </row>
-    <row r="24" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="R24" s="34"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-    </row>
-    <row r="25" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="R25" s="34"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-    </row>
-    <row r="26" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="R26" s="34"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-    </row>
-    <row r="27" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="R27" s="34"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-    </row>
-    <row r="28" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="R28" s="34"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-    </row>
-    <row r="29" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="R29" s="34"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-    </row>
-    <row r="30" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="R30" s="34"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-    </row>
-    <row r="31" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="R31" s="34"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-    </row>
-    <row r="32" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="R32" s="34"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-    </row>
-    <row r="33" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="R33" s="34"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-    </row>
-    <row r="34" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="R34" s="34"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-    </row>
-    <row r="35" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="R35" s="34"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-    </row>
-    <row r="36" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="R36" s="34"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-    </row>
-    <row r="37" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="R37" s="34"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-    </row>
-    <row r="38" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="R38" s="34"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-    </row>
-    <row r="39" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="R39" s="34"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-    </row>
-    <row r="40" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="R40" s="34"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-    </row>
-    <row r="41" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="R41" s="34"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-    </row>
-    <row r="42" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="R42" s="34"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-    </row>
-    <row r="43" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="R43" s="34"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-    </row>
-    <row r="44" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="R44" s="34"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-    </row>
-    <row r="45" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="R45" s="34"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-    </row>
-    <row r="46" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="R46" s="34"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-    </row>
-    <row r="47" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="R47" s="34"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-    </row>
-    <row r="48" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="R48" s="34"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-    </row>
-    <row r="49" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="R49" s="34"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-    </row>
-    <row r="50" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="R50" s="34"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-    </row>
-    <row r="51" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="R51" s="34"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-    </row>
-    <row r="52" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="R52" s="34"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-    </row>
-    <row r="53" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="R53" s="34"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-    </row>
-    <row r="54" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="R54" s="34"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-    </row>
-    <row r="55" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="R55" s="34"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-    </row>
-    <row r="56" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="R56" s="34"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-    </row>
-    <row r="57" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="R57" s="34"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-    </row>
-    <row r="58" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="R58" s="34"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-    </row>
-    <row r="59" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="R59" s="34"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-    </row>
-    <row r="60" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="R60" s="34"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-    </row>
-    <row r="61" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="R61" s="34"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-    </row>
-    <row r="62" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="R62" s="34"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-    </row>
-    <row r="63" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="R63" s="34"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-    </row>
-    <row r="64" spans="5:22" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="R64" s="34"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-    </row>
-    <row r="65" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="R65" s="34"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-    </row>
-    <row r="66" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="R66" s="34"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-    </row>
-    <row r="67" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="R67" s="34"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-    </row>
-    <row r="68" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="O68" s="33"/>
-      <c r="P68" s="33"/>
-      <c r="R68" s="34"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-    </row>
-    <row r="69" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
-      <c r="R69" s="34"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-    </row>
-    <row r="70" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="33"/>
-      <c r="R70" s="34"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-    </row>
-    <row r="71" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="33"/>
-      <c r="R71" s="34"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
-    </row>
-    <row r="72" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
-      <c r="R72" s="34"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="35"/>
-    </row>
-    <row r="73" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="33"/>
-      <c r="R73" s="34"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="35"/>
-    </row>
-    <row r="74" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33"/>
-      <c r="R74" s="34"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="35"/>
-    </row>
-    <row r="75" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="O75" s="33"/>
-      <c r="P75" s="33"/>
-      <c r="R75" s="34"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="35"/>
-    </row>
-    <row r="76" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="33"/>
-      <c r="R76" s="34"/>
-      <c r="T76" s="35"/>
-      <c r="U76" s="35"/>
-    </row>
-    <row r="77" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="33"/>
-      <c r="R77" s="34"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="35"/>
-    </row>
-    <row r="78" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="O78" s="33"/>
-      <c r="P78" s="33"/>
-      <c r="R78" s="34"/>
-      <c r="T78" s="35"/>
-      <c r="U78" s="35"/>
-    </row>
-    <row r="79" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="33"/>
-      <c r="R79" s="34"/>
-      <c r="T79" s="35"/>
-      <c r="U79" s="35"/>
-    </row>
-    <row r="80" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="33"/>
-      <c r="R80" s="34"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
-    </row>
-    <row r="81" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="33"/>
-      <c r="R81" s="34"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-    </row>
-    <row r="82" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="33"/>
-      <c r="R82" s="34"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-    </row>
-    <row r="83" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="33"/>
-      <c r="R83" s="34"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="35"/>
-    </row>
-    <row r="84" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="R84" s="34"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="35"/>
-    </row>
-    <row r="85" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="33"/>
-      <c r="R85" s="34"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="35"/>
-    </row>
-    <row r="86" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="R86" s="34"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-    </row>
-    <row r="87" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="R87" s="34"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="35"/>
-    </row>
-    <row r="88" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="R88" s="34"/>
-      <c r="T88" s="35"/>
-      <c r="U88" s="35"/>
-    </row>
-    <row r="89" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="33"/>
-      <c r="R89" s="34"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="35"/>
-    </row>
-    <row r="90" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="33"/>
-      <c r="R90" s="34"/>
-      <c r="T90" s="35"/>
-      <c r="U90" s="35"/>
-    </row>
-    <row r="91" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="O91" s="33"/>
-      <c r="P91" s="33"/>
-      <c r="R91" s="34"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
-    </row>
-    <row r="92" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="O92" s="33"/>
-      <c r="P92" s="33"/>
-      <c r="R92" s="34"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35"/>
-    </row>
-    <row r="93" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="O93" s="33"/>
-      <c r="P93" s="33"/>
-      <c r="R93" s="34"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-    </row>
-    <row r="94" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="O94" s="33"/>
-      <c r="P94" s="33"/>
-      <c r="R94" s="34"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="35"/>
-    </row>
-    <row r="95" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="O95" s="33"/>
-      <c r="P95" s="33"/>
-      <c r="R95" s="34"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="35"/>
-    </row>
-    <row r="96" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="O96" s="33"/>
-      <c r="P96" s="33"/>
-      <c r="R96" s="34"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="35"/>
-    </row>
-    <row r="97" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="O97" s="33"/>
-      <c r="P97" s="33"/>
-      <c r="R97" s="34"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="35"/>
-    </row>
-    <row r="98" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="O98" s="33"/>
-      <c r="P98" s="33"/>
-      <c r="R98" s="34"/>
-      <c r="T98" s="35"/>
-      <c r="U98" s="35"/>
-    </row>
-    <row r="99" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="O99" s="33"/>
-      <c r="P99" s="33"/>
-      <c r="R99" s="34"/>
-      <c r="T99" s="35"/>
-      <c r="U99" s="35"/>
-    </row>
-    <row r="100" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="O100" s="33"/>
-      <c r="P100" s="33"/>
-      <c r="R100" s="34"/>
-      <c r="T100" s="35"/>
-      <c r="U100" s="35"/>
-    </row>
-    <row r="101" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="O101" s="33"/>
-      <c r="P101" s="33"/>
-      <c r="R101" s="34"/>
-      <c r="T101" s="35"/>
-      <c r="U101" s="35"/>
-    </row>
-    <row r="102" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="O102" s="33"/>
-      <c r="P102" s="33"/>
-      <c r="R102" s="34"/>
-      <c r="T102" s="35"/>
-      <c r="U102" s="35"/>
-    </row>
-    <row r="103" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="O103" s="33"/>
-      <c r="P103" s="33"/>
-      <c r="R103" s="34"/>
-      <c r="T103" s="35"/>
-      <c r="U103" s="35"/>
-    </row>
-    <row r="104" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="O104" s="33"/>
-      <c r="P104" s="33"/>
-      <c r="R104" s="34"/>
-      <c r="T104" s="35"/>
-      <c r="U104" s="35"/>
-    </row>
-    <row r="105" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="O105" s="33"/>
-      <c r="P105" s="33"/>
-      <c r="R105" s="34"/>
-      <c r="T105" s="35"/>
-      <c r="U105" s="35"/>
-    </row>
-    <row r="106" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="O106" s="33"/>
-      <c r="P106" s="33"/>
-      <c r="R106" s="34"/>
-      <c r="T106" s="35"/>
-      <c r="U106" s="35"/>
-    </row>
-    <row r="107" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="O107" s="33"/>
-      <c r="P107" s="33"/>
-      <c r="R107" s="34"/>
-      <c r="T107" s="35"/>
-      <c r="U107" s="35"/>
-    </row>
-    <row r="108" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="O108" s="33"/>
-      <c r="P108" s="33"/>
-      <c r="R108" s="34"/>
-      <c r="T108" s="35"/>
-      <c r="U108" s="35"/>
-    </row>
-    <row r="109" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="O109" s="33"/>
-      <c r="P109" s="33"/>
-      <c r="R109" s="34"/>
-      <c r="T109" s="35"/>
-      <c r="U109" s="35"/>
-    </row>
-    <row r="110" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="O110" s="33"/>
-      <c r="P110" s="33"/>
-      <c r="R110" s="34"/>
-      <c r="T110" s="35"/>
-      <c r="U110" s="35"/>
-    </row>
-    <row r="111" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="O111" s="33"/>
-      <c r="P111" s="33"/>
-      <c r="R111" s="34"/>
-      <c r="T111" s="35"/>
-      <c r="U111" s="35"/>
-    </row>
-    <row r="112" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="O112" s="33"/>
-      <c r="P112" s="33"/>
-      <c r="R112" s="34"/>
-      <c r="T112" s="35"/>
-      <c r="U112" s="35"/>
-    </row>
-    <row r="113" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="O113" s="33"/>
-      <c r="P113" s="33"/>
-      <c r="R113" s="34"/>
-      <c r="T113" s="35"/>
-      <c r="U113" s="35"/>
-    </row>
-    <row r="114" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="O114" s="33"/>
-      <c r="P114" s="33"/>
-      <c r="R114" s="34"/>
-      <c r="T114" s="35"/>
-      <c r="U114" s="35"/>
-    </row>
-    <row r="115" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="O115" s="33"/>
-      <c r="P115" s="33"/>
-      <c r="R115" s="34"/>
-      <c r="T115" s="35"/>
-      <c r="U115" s="35"/>
-    </row>
-    <row r="116" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="O116" s="33"/>
-      <c r="P116" s="33"/>
-      <c r="R116" s="34"/>
-      <c r="T116" s="35"/>
-      <c r="U116" s="35"/>
-    </row>
-    <row r="117" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="O117" s="33"/>
-      <c r="P117" s="33"/>
-      <c r="R117" s="34"/>
-      <c r="T117" s="35"/>
-      <c r="U117" s="35"/>
-    </row>
-    <row r="118" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="O118" s="33"/>
-      <c r="P118" s="33"/>
-      <c r="R118" s="34"/>
-      <c r="T118" s="35"/>
-      <c r="U118" s="35"/>
-    </row>
-    <row r="119" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="28"/>
-      <c r="O119" s="33"/>
-      <c r="P119" s="33"/>
-      <c r="R119" s="34"/>
-      <c r="T119" s="35"/>
-      <c r="U119" s="35"/>
-    </row>
-    <row r="120" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="O120" s="33"/>
-      <c r="P120" s="33"/>
-      <c r="R120" s="34"/>
-      <c r="T120" s="35"/>
-      <c r="U120" s="35"/>
-    </row>
-    <row r="121" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="O121" s="33"/>
-      <c r="P121" s="33"/>
-      <c r="R121" s="34"/>
-      <c r="T121" s="35"/>
-      <c r="U121" s="35"/>
-    </row>
-    <row r="122" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="O122" s="33"/>
-      <c r="P122" s="33"/>
-      <c r="R122" s="34"/>
-      <c r="T122" s="35"/>
-      <c r="U122" s="35"/>
-    </row>
-    <row r="123" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="O123" s="33"/>
-      <c r="P123" s="33"/>
-      <c r="R123" s="34"/>
-      <c r="T123" s="35"/>
-      <c r="U123" s="35"/>
-    </row>
-    <row r="124" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
-      <c r="O124" s="33"/>
-      <c r="P124" s="33"/>
-      <c r="R124" s="34"/>
-      <c r="T124" s="35"/>
-      <c r="U124" s="35"/>
-    </row>
-    <row r="125" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="O125" s="33"/>
-      <c r="P125" s="33"/>
-      <c r="R125" s="34"/>
-      <c r="T125" s="35"/>
-      <c r="U125" s="35"/>
-    </row>
-    <row r="126" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="O126" s="33"/>
-      <c r="P126" s="33"/>
-      <c r="R126" s="34"/>
-      <c r="T126" s="35"/>
-      <c r="U126" s="35"/>
-    </row>
-    <row r="127" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="O127" s="33"/>
-      <c r="P127" s="33"/>
-      <c r="R127" s="34"/>
-      <c r="T127" s="35"/>
-      <c r="U127" s="35"/>
-    </row>
-    <row r="128" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="O128" s="33"/>
-      <c r="P128" s="33"/>
-      <c r="R128" s="34"/>
-      <c r="T128" s="35"/>
-      <c r="U128" s="35"/>
-    </row>
-    <row r="129" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="O129" s="33"/>
-      <c r="P129" s="33"/>
-      <c r="R129" s="34"/>
-      <c r="T129" s="35"/>
-      <c r="U129" s="35"/>
-    </row>
-    <row r="130" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="O130" s="33"/>
-      <c r="P130" s="33"/>
-      <c r="R130" s="34"/>
-      <c r="T130" s="35"/>
-      <c r="U130" s="35"/>
-    </row>
-    <row r="131" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28"/>
-      <c r="O131" s="33"/>
-      <c r="P131" s="33"/>
-      <c r="R131" s="34"/>
-      <c r="T131" s="35"/>
-      <c r="U131" s="35"/>
-    </row>
-    <row r="132" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="28"/>
-      <c r="I132" s="28"/>
-      <c r="O132" s="33"/>
-      <c r="P132" s="33"/>
-      <c r="R132" s="34"/>
-      <c r="T132" s="35"/>
-      <c r="U132" s="35"/>
-    </row>
-    <row r="133" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="O133" s="33"/>
-      <c r="P133" s="33"/>
-      <c r="R133" s="34"/>
-      <c r="T133" s="35"/>
-      <c r="U133" s="35"/>
-    </row>
-    <row r="134" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="O134" s="33"/>
-      <c r="P134" s="33"/>
-      <c r="R134" s="34"/>
-      <c r="T134" s="35"/>
-      <c r="U134" s="35"/>
-    </row>
-    <row r="135" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="O135" s="33"/>
-      <c r="P135" s="33"/>
-      <c r="R135" s="34"/>
-      <c r="T135" s="35"/>
-      <c r="U135" s="35"/>
-    </row>
-    <row r="136" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="O136" s="33"/>
-      <c r="P136" s="33"/>
-      <c r="R136" s="34"/>
-      <c r="T136" s="35"/>
-      <c r="U136" s="35"/>
-    </row>
-    <row r="137" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
-      <c r="O137" s="33"/>
-      <c r="P137" s="33"/>
-      <c r="R137" s="34"/>
-      <c r="T137" s="35"/>
-      <c r="U137" s="35"/>
-    </row>
-    <row r="138" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="28"/>
-      <c r="O138" s="33"/>
-      <c r="P138" s="33"/>
-      <c r="R138" s="34"/>
-      <c r="T138" s="35"/>
-      <c r="U138" s="35"/>
-    </row>
-    <row r="139" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="28"/>
-      <c r="O139" s="33"/>
-      <c r="P139" s="33"/>
-      <c r="R139" s="34"/>
-      <c r="T139" s="35"/>
-      <c r="U139" s="35"/>
-    </row>
-    <row r="140" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="O140" s="33"/>
-      <c r="P140" s="33"/>
-      <c r="R140" s="34"/>
-      <c r="T140" s="35"/>
-      <c r="U140" s="35"/>
-    </row>
-    <row r="141" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="O141" s="33"/>
-      <c r="P141" s="33"/>
-      <c r="R141" s="34"/>
-      <c r="T141" s="35"/>
-      <c r="U141" s="35"/>
-    </row>
-    <row r="142" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="28"/>
-      <c r="O142" s="33"/>
-      <c r="P142" s="33"/>
-      <c r="R142" s="34"/>
-      <c r="T142" s="35"/>
-      <c r="U142" s="35"/>
-    </row>
-    <row r="143" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="O143" s="33"/>
-      <c r="P143" s="33"/>
-      <c r="R143" s="34"/>
-      <c r="T143" s="35"/>
-      <c r="U143" s="35"/>
-    </row>
-    <row r="144" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="28"/>
-      <c r="O144" s="33"/>
-      <c r="P144" s="33"/>
-      <c r="R144" s="34"/>
-      <c r="T144" s="35"/>
-      <c r="U144" s="35"/>
-    </row>
-    <row r="145" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="O145" s="33"/>
-      <c r="P145" s="33"/>
-      <c r="R145" s="34"/>
-      <c r="T145" s="35"/>
-      <c r="U145" s="35"/>
-    </row>
-    <row r="146" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="O146" s="33"/>
-      <c r="P146" s="33"/>
-      <c r="R146" s="34"/>
-      <c r="T146" s="35"/>
-      <c r="U146" s="35"/>
-    </row>
-    <row r="147" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="28"/>
-      <c r="O147" s="33"/>
-      <c r="P147" s="33"/>
-      <c r="R147" s="34"/>
-      <c r="T147" s="35"/>
-      <c r="U147" s="35"/>
-    </row>
-    <row r="148" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="28"/>
-      <c r="O148" s="33"/>
-      <c r="P148" s="33"/>
-      <c r="R148" s="34"/>
-      <c r="T148" s="35"/>
-      <c r="U148" s="35"/>
-    </row>
-    <row r="149" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="O149" s="33"/>
-      <c r="P149" s="33"/>
-      <c r="R149" s="34"/>
-      <c r="T149" s="35"/>
-      <c r="U149" s="35"/>
-    </row>
-    <row r="150" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="O150" s="33"/>
-      <c r="P150" s="33"/>
-      <c r="R150" s="34"/>
-      <c r="T150" s="35"/>
-      <c r="U150" s="35"/>
-    </row>
-    <row r="151" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="28"/>
-      <c r="H151" s="28"/>
-      <c r="I151" s="28"/>
-      <c r="O151" s="33"/>
-      <c r="P151" s="33"/>
-      <c r="R151" s="34"/>
-      <c r="T151" s="35"/>
-      <c r="U151" s="35"/>
-    </row>
-    <row r="152" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E152" s="28"/>
-      <c r="F152" s="28"/>
-      <c r="G152" s="28"/>
-      <c r="H152" s="28"/>
-      <c r="I152" s="28"/>
-      <c r="O152" s="33"/>
-      <c r="P152" s="33"/>
-      <c r="R152" s="34"/>
-      <c r="T152" s="35"/>
-      <c r="U152" s="35"/>
-    </row>
-    <row r="153" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E153" s="28"/>
-      <c r="F153" s="28"/>
-      <c r="G153" s="28"/>
-      <c r="H153" s="28"/>
-      <c r="I153" s="28"/>
-      <c r="O153" s="33"/>
-      <c r="P153" s="33"/>
-      <c r="R153" s="34"/>
-      <c r="T153" s="35"/>
-      <c r="U153" s="35"/>
-    </row>
-    <row r="154" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E154" s="28"/>
-      <c r="F154" s="28"/>
-      <c r="G154" s="28"/>
-      <c r="H154" s="28"/>
-      <c r="I154" s="28"/>
-      <c r="O154" s="33"/>
-      <c r="P154" s="33"/>
-      <c r="R154" s="34"/>
-      <c r="T154" s="35"/>
-      <c r="U154" s="35"/>
-    </row>
-    <row r="155" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E155" s="28"/>
-      <c r="F155" s="28"/>
-      <c r="G155" s="28"/>
-      <c r="H155" s="28"/>
-      <c r="I155" s="28"/>
-      <c r="O155" s="33"/>
-      <c r="P155" s="33"/>
-      <c r="R155" s="34"/>
-      <c r="T155" s="35"/>
-      <c r="U155" s="35"/>
-    </row>
-    <row r="156" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E156" s="28"/>
-      <c r="F156" s="28"/>
-      <c r="G156" s="28"/>
-      <c r="H156" s="28"/>
-      <c r="I156" s="28"/>
-      <c r="O156" s="33"/>
-      <c r="P156" s="33"/>
-      <c r="R156" s="34"/>
-      <c r="T156" s="35"/>
-      <c r="U156" s="35"/>
-    </row>
-    <row r="157" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E157" s="28"/>
-      <c r="F157" s="28"/>
-      <c r="G157" s="28"/>
-      <c r="H157" s="28"/>
-      <c r="I157" s="28"/>
-      <c r="O157" s="33"/>
-      <c r="P157" s="33"/>
-      <c r="R157" s="34"/>
-      <c r="T157" s="35"/>
-      <c r="U157" s="35"/>
-    </row>
-    <row r="158" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E158" s="28"/>
-      <c r="F158" s="28"/>
-      <c r="G158" s="28"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="28"/>
-      <c r="O158" s="33"/>
-      <c r="P158" s="33"/>
-      <c r="R158" s="34"/>
-      <c r="T158" s="35"/>
-      <c r="U158" s="35"/>
-    </row>
-    <row r="159" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E159" s="28"/>
-      <c r="F159" s="28"/>
-      <c r="G159" s="28"/>
-      <c r="H159" s="28"/>
-      <c r="I159" s="28"/>
-      <c r="O159" s="33"/>
-      <c r="P159" s="33"/>
-      <c r="R159" s="34"/>
-      <c r="T159" s="35"/>
-      <c r="U159" s="35"/>
-    </row>
-    <row r="160" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E160" s="28"/>
-      <c r="F160" s="28"/>
-      <c r="G160" s="28"/>
-      <c r="H160" s="28"/>
-      <c r="I160" s="28"/>
-      <c r="O160" s="33"/>
-      <c r="P160" s="33"/>
-      <c r="R160" s="34"/>
-      <c r="T160" s="35"/>
-      <c r="U160" s="35"/>
-    </row>
-    <row r="161" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E161" s="28"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="28"/>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28"/>
-      <c r="O161" s="33"/>
-      <c r="P161" s="33"/>
-      <c r="R161" s="34"/>
-      <c r="T161" s="35"/>
-      <c r="U161" s="35"/>
-    </row>
-    <row r="162" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E162" s="28"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="28"/>
-      <c r="I162" s="28"/>
-      <c r="O162" s="33"/>
-      <c r="P162" s="33"/>
-      <c r="R162" s="34"/>
-      <c r="T162" s="35"/>
-      <c r="U162" s="35"/>
-    </row>
-    <row r="163" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E163" s="28"/>
-      <c r="F163" s="28"/>
-      <c r="G163" s="28"/>
-      <c r="H163" s="28"/>
-      <c r="I163" s="28"/>
-      <c r="O163" s="33"/>
-      <c r="P163" s="33"/>
-      <c r="R163" s="34"/>
-      <c r="T163" s="35"/>
-      <c r="U163" s="35"/>
-    </row>
-    <row r="164" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E164" s="28"/>
-      <c r="F164" s="28"/>
-      <c r="G164" s="28"/>
-      <c r="H164" s="28"/>
-      <c r="I164" s="28"/>
-      <c r="N164" s="33"/>
-      <c r="O164" s="33"/>
-      <c r="Q164" s="34"/>
-      <c r="T164" s="35"/>
-      <c r="U164" s="35"/>
-    </row>
-    <row r="165" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E165" s="28"/>
-      <c r="F165" s="28"/>
-      <c r="G165" s="28"/>
-      <c r="H165" s="28"/>
-      <c r="I165" s="28"/>
-      <c r="N165" s="33"/>
-      <c r="O165" s="33"/>
-      <c r="Q165" s="34"/>
-      <c r="T165" s="35"/>
-      <c r="U165" s="35"/>
-    </row>
-    <row r="166" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E166" s="28"/>
-      <c r="F166" s="28"/>
-      <c r="G166" s="28"/>
-      <c r="H166" s="28"/>
-      <c r="I166" s="28"/>
-      <c r="N166" s="33"/>
-      <c r="O166" s="33"/>
-      <c r="Q166" s="34"/>
-      <c r="T166" s="35"/>
-      <c r="U166" s="35"/>
-    </row>
-    <row r="167" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E167" s="28"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="28"/>
-      <c r="I167" s="28"/>
-      <c r="N167" s="33"/>
-      <c r="O167" s="33"/>
-      <c r="Q167" s="34"/>
-      <c r="T167" s="35"/>
-      <c r="U167" s="35"/>
-    </row>
-    <row r="168" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E168" s="28"/>
-      <c r="F168" s="28"/>
-      <c r="G168" s="28"/>
-      <c r="H168" s="28"/>
-      <c r="I168" s="28"/>
-      <c r="N168" s="33"/>
-      <c r="O168" s="33"/>
-      <c r="Q168" s="34"/>
-      <c r="T168" s="35"/>
-      <c r="U168" s="35"/>
-    </row>
-    <row r="169" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="28"/>
-      <c r="H169" s="28"/>
-      <c r="I169" s="28"/>
-      <c r="N169" s="33"/>
-      <c r="O169" s="33"/>
-      <c r="Q169" s="34"/>
-      <c r="T169" s="35"/>
-      <c r="U169" s="35"/>
-    </row>
-    <row r="170" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E170" s="28"/>
-      <c r="F170" s="28"/>
-      <c r="G170" s="28"/>
-      <c r="H170" s="28"/>
-      <c r="I170" s="28"/>
-      <c r="N170" s="33"/>
-      <c r="O170" s="33"/>
-      <c r="Q170" s="34"/>
-      <c r="T170" s="35"/>
-      <c r="U170" s="35"/>
-    </row>
-    <row r="171" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E171" s="28"/>
-      <c r="F171" s="28"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="28"/>
-      <c r="I171" s="28"/>
-      <c r="N171" s="33"/>
-      <c r="O171" s="33"/>
-      <c r="Q171" s="34"/>
-      <c r="T171" s="35"/>
-      <c r="U171" s="35"/>
-    </row>
-    <row r="172" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E172" s="28"/>
-      <c r="F172" s="28"/>
-      <c r="G172" s="28"/>
-      <c r="H172" s="28"/>
-      <c r="I172" s="28"/>
-      <c r="N172" s="33"/>
-      <c r="O172" s="33"/>
-      <c r="Q172" s="34"/>
-      <c r="T172" s="35"/>
-      <c r="U172" s="35"/>
-    </row>
-    <row r="173" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E173" s="28"/>
-      <c r="F173" s="28"/>
-      <c r="G173" s="28"/>
-      <c r="H173" s="28"/>
-      <c r="I173" s="28"/>
-      <c r="N173" s="33"/>
-      <c r="O173" s="33"/>
-      <c r="Q173" s="34"/>
-      <c r="T173" s="35"/>
-      <c r="U173" s="35"/>
-    </row>
-    <row r="174" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E174" s="28"/>
-      <c r="F174" s="28"/>
-      <c r="G174" s="28"/>
-      <c r="H174" s="28"/>
-      <c r="I174" s="28"/>
-      <c r="N174" s="33"/>
-      <c r="O174" s="33"/>
-      <c r="Q174" s="34"/>
-      <c r="T174" s="35"/>
-      <c r="U174" s="35"/>
-    </row>
-    <row r="175" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E175" s="28"/>
-      <c r="F175" s="28"/>
-      <c r="G175" s="28"/>
-      <c r="H175" s="28"/>
-      <c r="I175" s="28"/>
-      <c r="N175" s="33"/>
-      <c r="O175" s="33"/>
-      <c r="Q175" s="34"/>
-      <c r="T175" s="35"/>
-      <c r="U175" s="35"/>
-    </row>
-    <row r="176" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E176" s="28"/>
-      <c r="F176" s="28"/>
-      <c r="G176" s="28"/>
-      <c r="H176" s="28"/>
-      <c r="I176" s="28"/>
-      <c r="N176" s="33"/>
-      <c r="O176" s="33"/>
-      <c r="Q176" s="34"/>
-      <c r="T176" s="35"/>
-      <c r="U176" s="35"/>
-    </row>
-    <row r="177" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E177" s="28"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="28"/>
-      <c r="H177" s="28"/>
-      <c r="I177" s="28"/>
-      <c r="N177" s="33"/>
-      <c r="O177" s="33"/>
-      <c r="Q177" s="34"/>
-      <c r="T177" s="35"/>
-      <c r="U177" s="35"/>
-    </row>
-    <row r="178" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="28"/>
-      <c r="H178" s="28"/>
-      <c r="I178" s="28"/>
-      <c r="N178" s="33"/>
-      <c r="O178" s="33"/>
-      <c r="Q178" s="34"/>
-      <c r="T178" s="35"/>
-      <c r="U178" s="35"/>
-    </row>
-    <row r="179" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E179" s="28"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="28"/>
-      <c r="H179" s="28"/>
-      <c r="I179" s="28"/>
-      <c r="N179" s="33"/>
-      <c r="O179" s="33"/>
-      <c r="Q179" s="34"/>
-      <c r="T179" s="35"/>
-      <c r="U179" s="35"/>
-    </row>
-    <row r="180" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E180" s="28"/>
-      <c r="F180" s="28"/>
-      <c r="G180" s="28"/>
-      <c r="H180" s="28"/>
-      <c r="I180" s="28"/>
-      <c r="N180" s="33"/>
-      <c r="O180" s="33"/>
-      <c r="Q180" s="34"/>
-      <c r="T180" s="35"/>
-      <c r="U180" s="35"/>
-    </row>
-    <row r="181" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E181" s="28"/>
-      <c r="F181" s="28"/>
-      <c r="G181" s="28"/>
-      <c r="H181" s="28"/>
-      <c r="I181" s="28"/>
-      <c r="N181" s="33"/>
-      <c r="O181" s="33"/>
-      <c r="Q181" s="34"/>
-      <c r="T181" s="35"/>
-      <c r="U181" s="35"/>
-    </row>
-    <row r="182" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E182" s="28"/>
-      <c r="F182" s="28"/>
-      <c r="G182" s="28"/>
-      <c r="H182" s="28"/>
-      <c r="I182" s="28"/>
-      <c r="N182" s="33"/>
-      <c r="O182" s="33"/>
-      <c r="Q182" s="34"/>
-      <c r="T182" s="35"/>
-      <c r="U182" s="35"/>
-    </row>
-    <row r="183" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E183" s="28"/>
-      <c r="F183" s="28"/>
-      <c r="G183" s="28"/>
-      <c r="H183" s="28"/>
-      <c r="I183" s="28"/>
-      <c r="N183" s="33"/>
-      <c r="O183" s="33"/>
-      <c r="Q183" s="34"/>
-      <c r="T183" s="35"/>
-      <c r="U183" s="35"/>
-    </row>
-    <row r="184" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E184" s="28"/>
-      <c r="F184" s="28"/>
-      <c r="G184" s="28"/>
-      <c r="H184" s="28"/>
-      <c r="I184" s="28"/>
-      <c r="N184" s="33"/>
-      <c r="O184" s="33"/>
-      <c r="Q184" s="34"/>
-      <c r="T184" s="35"/>
-      <c r="U184" s="35"/>
-    </row>
-    <row r="185" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E185" s="28"/>
-      <c r="F185" s="28"/>
-      <c r="G185" s="28"/>
-      <c r="H185" s="28"/>
-      <c r="I185" s="28"/>
-      <c r="N185" s="33"/>
-      <c r="O185" s="33"/>
-      <c r="Q185" s="34"/>
-      <c r="T185" s="35"/>
-      <c r="U185" s="35"/>
-    </row>
-    <row r="186" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E186" s="28"/>
-      <c r="F186" s="28"/>
-      <c r="G186" s="28"/>
-      <c r="H186" s="28"/>
-      <c r="I186" s="28"/>
-      <c r="N186" s="33"/>
-      <c r="O186" s="33"/>
-      <c r="Q186" s="34"/>
-      <c r="T186" s="35"/>
-      <c r="U186" s="35"/>
-    </row>
-    <row r="187" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E187" s="28"/>
-      <c r="F187" s="28"/>
-      <c r="G187" s="28"/>
-      <c r="H187" s="28"/>
-      <c r="I187" s="28"/>
-      <c r="N187" s="33"/>
-      <c r="O187" s="33"/>
-      <c r="Q187" s="34"/>
-      <c r="T187" s="35"/>
-      <c r="U187" s="35"/>
-    </row>
-    <row r="188" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E188" s="28"/>
-      <c r="F188" s="28"/>
-      <c r="G188" s="28"/>
-      <c r="H188" s="28"/>
-      <c r="I188" s="28"/>
-      <c r="N188" s="33"/>
-      <c r="O188" s="33"/>
-      <c r="Q188" s="34"/>
-      <c r="T188" s="35"/>
-      <c r="U188" s="35"/>
-    </row>
-    <row r="189" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E189" s="28"/>
-      <c r="F189" s="28"/>
-      <c r="G189" s="28"/>
-      <c r="H189" s="28"/>
-      <c r="I189" s="28"/>
-      <c r="N189" s="33"/>
-      <c r="O189" s="33"/>
-      <c r="Q189" s="34"/>
-      <c r="T189" s="35"/>
-      <c r="U189" s="35"/>
-    </row>
-    <row r="190" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E190" s="28"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="28"/>
-      <c r="H190" s="28"/>
-      <c r="I190" s="28"/>
-      <c r="N190" s="33"/>
-      <c r="O190" s="33"/>
-      <c r="Q190" s="34"/>
-      <c r="T190" s="35"/>
-      <c r="U190" s="35"/>
-    </row>
-    <row r="191" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E191" s="28"/>
-      <c r="F191" s="28"/>
-      <c r="G191" s="28"/>
-      <c r="H191" s="28"/>
-      <c r="I191" s="28"/>
-      <c r="N191" s="33"/>
-      <c r="O191" s="33"/>
-      <c r="Q191" s="34"/>
-      <c r="T191" s="35"/>
-      <c r="U191" s="35"/>
-    </row>
-    <row r="192" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E192" s="28"/>
-      <c r="F192" s="28"/>
-      <c r="G192" s="28"/>
-      <c r="H192" s="28"/>
-      <c r="I192" s="28"/>
-      <c r="N192" s="33"/>
-      <c r="O192" s="33"/>
-      <c r="Q192" s="34"/>
-      <c r="T192" s="35"/>
-      <c r="U192" s="35"/>
-    </row>
-    <row r="193" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E193" s="28"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="28"/>
-      <c r="H193" s="28"/>
-      <c r="I193" s="28"/>
-      <c r="N193" s="33"/>
-      <c r="O193" s="33"/>
-      <c r="Q193" s="34"/>
-      <c r="T193" s="35"/>
-      <c r="U193" s="35"/>
-    </row>
-    <row r="194" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E194" s="28"/>
-      <c r="F194" s="28"/>
-      <c r="G194" s="28"/>
-      <c r="H194" s="28"/>
-      <c r="I194" s="28"/>
-      <c r="N194" s="33"/>
-      <c r="O194" s="33"/>
-      <c r="Q194" s="34"/>
-      <c r="T194" s="35"/>
-      <c r="U194" s="35"/>
-    </row>
-    <row r="195" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E195" s="28"/>
-      <c r="F195" s="28"/>
-      <c r="G195" s="28"/>
-      <c r="H195" s="28"/>
-      <c r="I195" s="28"/>
-      <c r="N195" s="33"/>
-      <c r="O195" s="33"/>
-      <c r="Q195" s="34"/>
-      <c r="T195" s="35"/>
-      <c r="U195" s="35"/>
-    </row>
-    <row r="196" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E196" s="28"/>
-      <c r="F196" s="28"/>
-      <c r="G196" s="28"/>
-      <c r="H196" s="28"/>
-      <c r="I196" s="28"/>
-      <c r="N196" s="33"/>
-      <c r="O196" s="33"/>
-      <c r="Q196" s="34"/>
-      <c r="T196" s="35"/>
-      <c r="U196" s="35"/>
-    </row>
-    <row r="197" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E197" s="28"/>
-      <c r="F197" s="28"/>
-      <c r="G197" s="28"/>
-      <c r="H197" s="28"/>
-      <c r="I197" s="28"/>
-      <c r="N197" s="33"/>
-      <c r="O197" s="33"/>
-      <c r="Q197" s="34"/>
-      <c r="T197" s="35"/>
-      <c r="U197" s="35"/>
-    </row>
-    <row r="198" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E198" s="28"/>
-      <c r="F198" s="28"/>
-      <c r="G198" s="28"/>
-      <c r="H198" s="28"/>
-      <c r="I198" s="28"/>
-      <c r="N198" s="33"/>
-      <c r="O198" s="33"/>
-      <c r="Q198" s="34"/>
-      <c r="T198" s="35"/>
-      <c r="U198" s="35"/>
-    </row>
-    <row r="199" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E199" s="28"/>
-      <c r="F199" s="28"/>
-      <c r="G199" s="28"/>
-      <c r="H199" s="28"/>
-      <c r="I199" s="28"/>
-      <c r="N199" s="33"/>
-      <c r="O199" s="33"/>
-      <c r="Q199" s="34"/>
-      <c r="T199" s="35"/>
-      <c r="U199" s="35"/>
-    </row>
-    <row r="200" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E200" s="28"/>
-      <c r="F200" s="28"/>
-      <c r="G200" s="28"/>
-      <c r="H200" s="28"/>
-      <c r="I200" s="28"/>
-      <c r="N200" s="33"/>
-      <c r="O200" s="33"/>
-      <c r="Q200" s="34"/>
-      <c r="T200" s="35"/>
-      <c r="U200" s="35"/>
-    </row>
-    <row r="201" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E201" s="28"/>
-      <c r="F201" s="28"/>
-      <c r="G201" s="28"/>
-      <c r="H201" s="28"/>
-      <c r="I201" s="28"/>
-      <c r="N201" s="33"/>
-      <c r="O201" s="33"/>
-      <c r="Q201" s="34"/>
-      <c r="T201" s="35"/>
-      <c r="U201" s="35"/>
-    </row>
-    <row r="202" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E202" s="28"/>
-      <c r="F202" s="28"/>
-      <c r="G202" s="28"/>
-      <c r="H202" s="28"/>
-      <c r="I202" s="28"/>
-      <c r="N202" s="33"/>
-      <c r="O202" s="33"/>
-      <c r="Q202" s="34"/>
-      <c r="T202" s="35"/>
-      <c r="U202" s="35"/>
-    </row>
-    <row r="203" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E203" s="28"/>
-      <c r="F203" s="28"/>
-      <c r="G203" s="28"/>
-      <c r="H203" s="28"/>
-      <c r="I203" s="28"/>
-      <c r="N203" s="33"/>
-      <c r="O203" s="33"/>
-      <c r="Q203" s="34"/>
-      <c r="T203" s="35"/>
-      <c r="U203" s="35"/>
-    </row>
-    <row r="204" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E204" s="28"/>
-      <c r="F204" s="28"/>
-      <c r="G204" s="28"/>
-      <c r="H204" s="28"/>
-      <c r="I204" s="28"/>
-      <c r="N204" s="33"/>
-      <c r="O204" s="33"/>
-      <c r="Q204" s="34"/>
-      <c r="T204" s="35"/>
-      <c r="U204" s="35"/>
-    </row>
-    <row r="205" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E205" s="28"/>
-      <c r="F205" s="28"/>
-      <c r="G205" s="28"/>
-      <c r="H205" s="28"/>
-      <c r="I205" s="28"/>
-      <c r="N205" s="33"/>
-      <c r="O205" s="33"/>
-      <c r="Q205" s="34"/>
-      <c r="T205" s="35"/>
-      <c r="U205" s="35"/>
-    </row>
-    <row r="206" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E206" s="28"/>
-      <c r="F206" s="28"/>
-      <c r="G206" s="28"/>
-      <c r="H206" s="28"/>
-      <c r="I206" s="28"/>
-      <c r="N206" s="33"/>
-      <c r="O206" s="33"/>
-      <c r="Q206" s="34"/>
-      <c r="T206" s="35"/>
-      <c r="U206" s="35"/>
-    </row>
-    <row r="207" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E207" s="28"/>
-      <c r="F207" s="28"/>
-      <c r="G207" s="28"/>
-      <c r="H207" s="28"/>
-      <c r="I207" s="28"/>
-      <c r="N207" s="33"/>
-      <c r="O207" s="33"/>
-      <c r="Q207" s="34"/>
-      <c r="T207" s="35"/>
-      <c r="U207" s="35"/>
-    </row>
-    <row r="208" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E208" s="28"/>
-      <c r="F208" s="28"/>
-      <c r="G208" s="28"/>
-      <c r="H208" s="28"/>
-      <c r="I208" s="28"/>
-      <c r="N208" s="33"/>
-      <c r="O208" s="33"/>
-      <c r="Q208" s="34"/>
-      <c r="T208" s="35"/>
-      <c r="U208" s="35"/>
-    </row>
-    <row r="209" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E209" s="28"/>
-      <c r="F209" s="28"/>
-      <c r="G209" s="28"/>
-      <c r="H209" s="28"/>
-      <c r="I209" s="28"/>
-      <c r="N209" s="33"/>
-      <c r="O209" s="33"/>
-      <c r="Q209" s="34"/>
-      <c r="T209" s="35"/>
-      <c r="U209" s="35"/>
-    </row>
-    <row r="210" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E210" s="28"/>
-      <c r="F210" s="28"/>
-      <c r="G210" s="28"/>
-      <c r="H210" s="28"/>
-      <c r="I210" s="28"/>
-      <c r="N210" s="33"/>
-      <c r="O210" s="33"/>
-      <c r="Q210" s="34"/>
-      <c r="T210" s="35"/>
-      <c r="U210" s="35"/>
-    </row>
-    <row r="211" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E211" s="28"/>
-      <c r="F211" s="28"/>
-      <c r="G211" s="28"/>
-      <c r="H211" s="28"/>
-      <c r="I211" s="28"/>
-      <c r="N211" s="33"/>
-      <c r="O211" s="33"/>
-      <c r="Q211" s="34"/>
-      <c r="T211" s="35"/>
-      <c r="U211" s="35"/>
-    </row>
-    <row r="212" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E212" s="28"/>
-      <c r="F212" s="28"/>
-      <c r="G212" s="28"/>
-      <c r="H212" s="28"/>
-      <c r="I212" s="28"/>
-      <c r="N212" s="33"/>
-      <c r="O212" s="33"/>
-      <c r="Q212" s="34"/>
-      <c r="T212" s="35"/>
-      <c r="U212" s="35"/>
-    </row>
-    <row r="213" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E213" s="28"/>
-      <c r="F213" s="28"/>
-      <c r="G213" s="28"/>
-      <c r="H213" s="28"/>
-      <c r="I213" s="28"/>
-      <c r="N213" s="33"/>
-      <c r="O213" s="33"/>
-      <c r="Q213" s="34"/>
-      <c r="T213" s="35"/>
-      <c r="U213" s="35"/>
-    </row>
-    <row r="214" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E214" s="28"/>
-      <c r="F214" s="28"/>
-      <c r="G214" s="28"/>
-      <c r="H214" s="28"/>
-      <c r="I214" s="28"/>
-      <c r="N214" s="33"/>
-      <c r="O214" s="33"/>
-      <c r="Q214" s="34"/>
-      <c r="T214" s="35"/>
-      <c r="U214" s="35"/>
-    </row>
-    <row r="215" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E215" s="28"/>
-      <c r="F215" s="28"/>
-      <c r="G215" s="28"/>
-      <c r="H215" s="28"/>
-      <c r="I215" s="28"/>
-      <c r="N215" s="33"/>
-      <c r="O215" s="33"/>
-      <c r="Q215" s="34"/>
-      <c r="T215" s="35"/>
-      <c r="U215" s="35"/>
-    </row>
-    <row r="216" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E216" s="28"/>
-      <c r="F216" s="28"/>
-      <c r="G216" s="28"/>
-      <c r="H216" s="28"/>
-      <c r="I216" s="28"/>
-      <c r="N216" s="33"/>
-      <c r="O216" s="33"/>
-      <c r="Q216" s="34"/>
-      <c r="T216" s="35"/>
-      <c r="U216" s="35"/>
-    </row>
-    <row r="217" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E217" s="28"/>
-      <c r="F217" s="28"/>
-      <c r="G217" s="28"/>
-      <c r="H217" s="28"/>
-      <c r="I217" s="28"/>
-      <c r="N217" s="33"/>
-      <c r="O217" s="33"/>
-      <c r="Q217" s="34"/>
-      <c r="T217" s="35"/>
-      <c r="U217" s="35"/>
-    </row>
-    <row r="218" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E218" s="28"/>
-      <c r="F218" s="28"/>
-      <c r="G218" s="28"/>
-      <c r="H218" s="28"/>
-      <c r="I218" s="28"/>
-      <c r="N218" s="33"/>
-      <c r="O218" s="33"/>
-      <c r="Q218" s="34"/>
-      <c r="T218" s="35"/>
-      <c r="U218" s="35"/>
-    </row>
-    <row r="219" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E219" s="28"/>
-      <c r="F219" s="28"/>
-      <c r="G219" s="28"/>
-      <c r="H219" s="28"/>
-      <c r="I219" s="28"/>
-      <c r="N219" s="33"/>
-      <c r="O219" s="33"/>
-      <c r="Q219" s="34"/>
-      <c r="T219" s="35"/>
-      <c r="U219" s="35"/>
-    </row>
-    <row r="220" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E220" s="28"/>
-      <c r="F220" s="28"/>
-      <c r="G220" s="28"/>
-      <c r="H220" s="28"/>
-      <c r="I220" s="28"/>
-      <c r="N220" s="33"/>
-      <c r="O220" s="33"/>
-      <c r="Q220" s="34"/>
-      <c r="T220" s="35"/>
-      <c r="U220" s="35"/>
-    </row>
-    <row r="221" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E221" s="28"/>
-      <c r="F221" s="28"/>
-      <c r="G221" s="28"/>
-      <c r="H221" s="28"/>
-      <c r="I221" s="28"/>
-      <c r="N221" s="33"/>
-      <c r="O221" s="33"/>
-      <c r="Q221" s="34"/>
-      <c r="T221" s="35"/>
-      <c r="U221" s="35"/>
-    </row>
-    <row r="222" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E222" s="28"/>
-      <c r="F222" s="28"/>
-      <c r="G222" s="28"/>
-      <c r="H222" s="28"/>
-      <c r="I222" s="28"/>
-      <c r="N222" s="33"/>
-      <c r="O222" s="33"/>
-      <c r="Q222" s="34"/>
-      <c r="T222" s="35"/>
-      <c r="U222" s="35"/>
-    </row>
-    <row r="223" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E223" s="28"/>
-      <c r="F223" s="28"/>
-      <c r="G223" s="28"/>
-      <c r="H223" s="28"/>
-      <c r="I223" s="28"/>
-      <c r="N223" s="33"/>
-      <c r="O223" s="33"/>
-      <c r="Q223" s="34"/>
-      <c r="T223" s="35"/>
-      <c r="U223" s="35"/>
-    </row>
-    <row r="224" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E224" s="28"/>
-      <c r="F224" s="28"/>
-      <c r="G224" s="28"/>
-      <c r="H224" s="28"/>
-      <c r="I224" s="28"/>
-      <c r="N224" s="33"/>
-      <c r="O224" s="33"/>
-      <c r="Q224" s="34"/>
-      <c r="T224" s="35"/>
-      <c r="U224" s="35"/>
-    </row>
-    <row r="225" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E225" s="28"/>
-      <c r="F225" s="28"/>
-      <c r="G225" s="28"/>
-      <c r="H225" s="28"/>
-      <c r="I225" s="28"/>
-      <c r="N225" s="33"/>
-      <c r="O225" s="33"/>
-      <c r="Q225" s="34"/>
-      <c r="T225" s="35"/>
-      <c r="U225" s="35"/>
-    </row>
-    <row r="226" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E226" s="28"/>
-      <c r="F226" s="28"/>
-      <c r="G226" s="28"/>
-      <c r="H226" s="28"/>
-      <c r="I226" s="28"/>
-      <c r="N226" s="33"/>
-      <c r="O226" s="33"/>
-      <c r="Q226" s="34"/>
-      <c r="T226" s="35"/>
-      <c r="U226" s="35"/>
-    </row>
-    <row r="227" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E227" s="28"/>
-      <c r="F227" s="28"/>
-      <c r="G227" s="28"/>
-      <c r="H227" s="28"/>
-      <c r="I227" s="28"/>
-      <c r="N227" s="33"/>
-      <c r="O227" s="33"/>
-      <c r="Q227" s="34"/>
-      <c r="T227" s="35"/>
-      <c r="U227" s="35"/>
-    </row>
-    <row r="228" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E228" s="28"/>
-      <c r="F228" s="28"/>
-      <c r="G228" s="28"/>
-      <c r="H228" s="28"/>
-      <c r="I228" s="28"/>
-      <c r="N228" s="33"/>
-      <c r="O228" s="33"/>
-      <c r="Q228" s="34"/>
-      <c r="T228" s="35"/>
-      <c r="U228" s="35"/>
-    </row>
-    <row r="229" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E229" s="28"/>
-      <c r="F229" s="28"/>
-      <c r="G229" s="28"/>
-      <c r="H229" s="28"/>
-      <c r="I229" s="28"/>
-      <c r="N229" s="33"/>
-      <c r="O229" s="33"/>
-      <c r="Q229" s="34"/>
-      <c r="T229" s="35"/>
-      <c r="U229" s="35"/>
-    </row>
-    <row r="230" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E230" s="28"/>
-      <c r="F230" s="28"/>
-      <c r="G230" s="28"/>
-      <c r="H230" s="28"/>
-      <c r="I230" s="28"/>
-      <c r="N230" s="33"/>
-      <c r="O230" s="33"/>
-      <c r="Q230" s="34"/>
-      <c r="T230" s="35"/>
-      <c r="U230" s="35"/>
-    </row>
-    <row r="231" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E231" s="28"/>
-      <c r="F231" s="28"/>
-      <c r="G231" s="28"/>
-      <c r="H231" s="28"/>
-      <c r="I231" s="28"/>
-      <c r="N231" s="33"/>
-      <c r="O231" s="33"/>
-      <c r="Q231" s="34"/>
-      <c r="T231" s="35"/>
-      <c r="U231" s="35"/>
-    </row>
-    <row r="232" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E232" s="28"/>
-      <c r="F232" s="28"/>
-      <c r="G232" s="28"/>
-      <c r="H232" s="28"/>
-      <c r="I232" s="28"/>
-      <c r="N232" s="33"/>
-      <c r="O232" s="33"/>
-      <c r="Q232" s="34"/>
-      <c r="T232" s="35"/>
-      <c r="U232" s="35"/>
-    </row>
-    <row r="233" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E233" s="28"/>
-      <c r="F233" s="28"/>
-      <c r="G233" s="28"/>
-      <c r="H233" s="28"/>
-      <c r="I233" s="28"/>
-      <c r="N233" s="33"/>
-      <c r="O233" s="33"/>
-      <c r="Q233" s="34"/>
-      <c r="T233" s="35"/>
-      <c r="U233" s="35"/>
-    </row>
-    <row r="234" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E234" s="28"/>
-      <c r="F234" s="28"/>
-      <c r="G234" s="28"/>
-      <c r="H234" s="28"/>
-      <c r="I234" s="28"/>
-      <c r="N234" s="33"/>
-      <c r="O234" s="33"/>
-      <c r="Q234" s="34"/>
-      <c r="T234" s="35"/>
-      <c r="U234" s="35"/>
-    </row>
-    <row r="235" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E235" s="28"/>
-      <c r="F235" s="28"/>
-      <c r="G235" s="28"/>
-      <c r="H235" s="28"/>
-      <c r="I235" s="28"/>
-      <c r="N235" s="33"/>
-      <c r="O235" s="33"/>
-      <c r="Q235" s="34"/>
-      <c r="T235" s="35"/>
-      <c r="U235" s="35"/>
-    </row>
-    <row r="236" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E236" s="28"/>
-      <c r="F236" s="28"/>
-      <c r="G236" s="28"/>
-      <c r="H236" s="28"/>
-      <c r="I236" s="28"/>
-      <c r="N236" s="33"/>
-      <c r="O236" s="33"/>
-      <c r="Q236" s="34"/>
-      <c r="T236" s="35"/>
-      <c r="U236" s="35"/>
-    </row>
-    <row r="237" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E237" s="28"/>
-      <c r="F237" s="28"/>
-      <c r="G237" s="28"/>
-      <c r="H237" s="28"/>
-      <c r="I237" s="28"/>
-      <c r="N237" s="33"/>
-      <c r="O237" s="33"/>
-      <c r="Q237" s="34"/>
-      <c r="T237" s="35"/>
-      <c r="U237" s="35"/>
-    </row>
-    <row r="238" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E238" s="28"/>
-      <c r="F238" s="28"/>
-      <c r="G238" s="28"/>
-      <c r="H238" s="28"/>
-      <c r="I238" s="28"/>
-      <c r="N238" s="33"/>
-      <c r="O238" s="33"/>
-      <c r="Q238" s="34"/>
-      <c r="T238" s="35"/>
-      <c r="U238" s="35"/>
-    </row>
-    <row r="239" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E239" s="28"/>
-      <c r="F239" s="28"/>
-      <c r="G239" s="28"/>
-      <c r="H239" s="28"/>
-      <c r="I239" s="28"/>
-      <c r="N239" s="33"/>
-      <c r="O239" s="33"/>
-      <c r="Q239" s="34"/>
-      <c r="T239" s="35"/>
-      <c r="U239" s="35"/>
-    </row>
-    <row r="240" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E240" s="28"/>
-      <c r="F240" s="28"/>
-      <c r="G240" s="28"/>
-      <c r="H240" s="28"/>
-      <c r="I240" s="28"/>
-      <c r="N240" s="33"/>
-      <c r="O240" s="33"/>
-      <c r="Q240" s="34"/>
-      <c r="T240" s="35"/>
-      <c r="U240" s="35"/>
-    </row>
-    <row r="241" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E241" s="28"/>
-      <c r="F241" s="28"/>
-      <c r="G241" s="28"/>
-      <c r="H241" s="28"/>
-      <c r="I241" s="28"/>
-      <c r="N241" s="33"/>
-      <c r="O241" s="33"/>
-      <c r="Q241" s="34"/>
-      <c r="T241" s="35"/>
-      <c r="U241" s="35"/>
-    </row>
-    <row r="242" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E242" s="28"/>
-      <c r="F242" s="28"/>
-      <c r="G242" s="28"/>
-      <c r="H242" s="28"/>
-      <c r="I242" s="28"/>
-      <c r="N242" s="33"/>
-      <c r="O242" s="33"/>
-      <c r="Q242" s="34"/>
-      <c r="T242" s="35"/>
-      <c r="U242" s="35"/>
-    </row>
-    <row r="243" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E243" s="28"/>
-      <c r="F243" s="28"/>
-      <c r="G243" s="28"/>
-      <c r="H243" s="28"/>
-      <c r="I243" s="28"/>
-      <c r="N243" s="33"/>
-      <c r="O243" s="33"/>
-      <c r="Q243" s="34"/>
-      <c r="T243" s="35"/>
-      <c r="U243" s="35"/>
-    </row>
-    <row r="244" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E244" s="28"/>
-      <c r="F244" s="28"/>
-      <c r="G244" s="28"/>
-      <c r="H244" s="28"/>
-      <c r="I244" s="28"/>
-      <c r="N244" s="33"/>
-      <c r="O244" s="33"/>
-      <c r="Q244" s="34"/>
-      <c r="T244" s="35"/>
-      <c r="U244" s="35"/>
-    </row>
-    <row r="245" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E245" s="28"/>
-      <c r="F245" s="28"/>
-      <c r="G245" s="28"/>
-      <c r="H245" s="28"/>
-      <c r="I245" s="28"/>
-      <c r="N245" s="33"/>
-      <c r="O245" s="33"/>
-      <c r="Q245" s="34"/>
-      <c r="T245" s="35"/>
-      <c r="U245" s="35"/>
-    </row>
-    <row r="246" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E246" s="28"/>
-      <c r="F246" s="28"/>
-      <c r="G246" s="28"/>
-      <c r="H246" s="28"/>
-      <c r="I246" s="28"/>
-      <c r="N246" s="33"/>
-      <c r="O246" s="33"/>
-      <c r="Q246" s="34"/>
-      <c r="T246" s="35"/>
-      <c r="U246" s="35"/>
-    </row>
-    <row r="247" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E247" s="28"/>
-      <c r="F247" s="28"/>
-      <c r="G247" s="28"/>
-      <c r="H247" s="28"/>
-      <c r="I247" s="28"/>
-      <c r="N247" s="33"/>
-      <c r="O247" s="33"/>
-      <c r="Q247" s="34"/>
-      <c r="T247" s="35"/>
-      <c r="U247" s="35"/>
-    </row>
-    <row r="248" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E248" s="28"/>
-      <c r="F248" s="28"/>
-      <c r="G248" s="28"/>
-      <c r="H248" s="28"/>
-      <c r="I248" s="28"/>
-      <c r="N248" s="33"/>
-      <c r="O248" s="33"/>
-      <c r="Q248" s="34"/>
-      <c r="T248" s="35"/>
-      <c r="U248" s="35"/>
-    </row>
-    <row r="249" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E249" s="28"/>
-      <c r="F249" s="28"/>
-      <c r="G249" s="28"/>
-      <c r="H249" s="28"/>
-      <c r="I249" s="28"/>
-      <c r="N249" s="33"/>
-      <c r="O249" s="33"/>
-      <c r="Q249" s="34"/>
-      <c r="T249" s="35"/>
-      <c r="U249" s="35"/>
-    </row>
-    <row r="250" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E250" s="28"/>
-      <c r="F250" s="28"/>
-      <c r="G250" s="28"/>
-      <c r="H250" s="28"/>
-      <c r="I250" s="28"/>
-      <c r="N250" s="33"/>
-      <c r="O250" s="33"/>
-      <c r="Q250" s="34"/>
-      <c r="T250" s="35"/>
-      <c r="U250" s="35"/>
-    </row>
-    <row r="251" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E251" s="28"/>
-      <c r="F251" s="28"/>
-      <c r="G251" s="28"/>
-      <c r="H251" s="28"/>
-      <c r="I251" s="28"/>
-      <c r="N251" s="33"/>
-      <c r="O251" s="33"/>
-      <c r="Q251" s="34"/>
-      <c r="T251" s="35"/>
-      <c r="U251" s="35"/>
-    </row>
-    <row r="252" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E252" s="28"/>
-      <c r="F252" s="28"/>
-      <c r="G252" s="28"/>
-      <c r="H252" s="28"/>
-      <c r="I252" s="28"/>
-      <c r="N252" s="33"/>
-      <c r="O252" s="33"/>
-      <c r="Q252" s="34"/>
-      <c r="T252" s="35"/>
-      <c r="U252" s="35"/>
-    </row>
-    <row r="253" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E253" s="28"/>
-      <c r="F253" s="28"/>
-      <c r="G253" s="28"/>
-      <c r="H253" s="28"/>
-      <c r="I253" s="28"/>
-      <c r="N253" s="33"/>
-      <c r="O253" s="33"/>
-      <c r="Q253" s="34"/>
-      <c r="T253" s="35"/>
-      <c r="U253" s="35"/>
-    </row>
-    <row r="254" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E254" s="28"/>
-      <c r="F254" s="28"/>
-      <c r="G254" s="28"/>
-      <c r="H254" s="28"/>
-      <c r="I254" s="28"/>
-      <c r="N254" s="33"/>
-      <c r="O254" s="33"/>
-      <c r="Q254" s="34"/>
-      <c r="T254" s="35"/>
-      <c r="U254" s="35"/>
-    </row>
-    <row r="255" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E255" s="28"/>
-      <c r="F255" s="28"/>
-      <c r="G255" s="28"/>
-      <c r="H255" s="28"/>
-      <c r="I255" s="28"/>
-      <c r="N255" s="33"/>
-      <c r="O255" s="33"/>
-      <c r="Q255" s="34"/>
-      <c r="T255" s="35"/>
-      <c r="U255" s="35"/>
-    </row>
-    <row r="256" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E256" s="28"/>
-      <c r="F256" s="28"/>
-      <c r="G256" s="28"/>
-      <c r="H256" s="28"/>
-      <c r="I256" s="28"/>
-      <c r="N256" s="33"/>
-      <c r="O256" s="33"/>
-      <c r="Q256" s="34"/>
-      <c r="T256" s="35"/>
-      <c r="U256" s="35"/>
-    </row>
-    <row r="257" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E257" s="28"/>
-      <c r="F257" s="28"/>
-      <c r="G257" s="28"/>
-      <c r="H257" s="28"/>
-      <c r="I257" s="28"/>
-      <c r="N257" s="33"/>
-      <c r="O257" s="33"/>
-      <c r="Q257" s="34"/>
-      <c r="T257" s="35"/>
-      <c r="U257" s="35"/>
-    </row>
-    <row r="258" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E258" s="28"/>
-      <c r="F258" s="28"/>
-      <c r="G258" s="28"/>
-      <c r="H258" s="28"/>
-      <c r="I258" s="28"/>
-      <c r="N258" s="33"/>
-      <c r="O258" s="33"/>
-      <c r="Q258" s="34"/>
-      <c r="T258" s="35"/>
-      <c r="U258" s="35"/>
-    </row>
-    <row r="259" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E259" s="28"/>
-      <c r="F259" s="28"/>
-      <c r="G259" s="28"/>
-      <c r="H259" s="28"/>
-      <c r="I259" s="28"/>
-      <c r="N259" s="33"/>
-      <c r="O259" s="33"/>
-      <c r="Q259" s="34"/>
-      <c r="T259" s="35"/>
-      <c r="U259" s="35"/>
-    </row>
-    <row r="260" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E260" s="28"/>
-      <c r="F260" s="28"/>
-      <c r="G260" s="28"/>
-      <c r="H260" s="28"/>
-      <c r="I260" s="28"/>
-      <c r="N260" s="33"/>
-      <c r="O260" s="33"/>
-      <c r="Q260" s="34"/>
-      <c r="T260" s="35"/>
-      <c r="U260" s="35"/>
-    </row>
-    <row r="261" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E261" s="28"/>
-      <c r="F261" s="28"/>
-      <c r="G261" s="28"/>
-      <c r="H261" s="28"/>
-      <c r="I261" s="28"/>
-      <c r="N261" s="33"/>
-      <c r="O261" s="33"/>
-      <c r="Q261" s="34"/>
-      <c r="T261" s="35"/>
-      <c r="U261" s="35"/>
-    </row>
-    <row r="262" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E262" s="28"/>
-      <c r="F262" s="28"/>
-      <c r="G262" s="28"/>
-      <c r="H262" s="28"/>
-      <c r="I262" s="28"/>
-      <c r="N262" s="33"/>
-      <c r="O262" s="33"/>
-      <c r="Q262" s="34"/>
-      <c r="T262" s="35"/>
-      <c r="U262" s="35"/>
-    </row>
-    <row r="263" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E263" s="28"/>
-      <c r="F263" s="28"/>
-      <c r="G263" s="28"/>
-      <c r="H263" s="28"/>
-      <c r="I263" s="28"/>
-      <c r="N263" s="33"/>
-      <c r="O263" s="33"/>
-      <c r="Q263" s="34"/>
-      <c r="T263" s="35"/>
-      <c r="U263" s="35"/>
-    </row>
-    <row r="264" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E264" s="28"/>
-      <c r="F264" s="28"/>
-      <c r="G264" s="28"/>
-      <c r="H264" s="28"/>
-      <c r="I264" s="28"/>
-      <c r="N264" s="33"/>
-      <c r="O264" s="33"/>
-      <c r="Q264" s="34"/>
-      <c r="T264" s="35"/>
-      <c r="U264" s="35"/>
-    </row>
-    <row r="265" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E265" s="28"/>
-      <c r="F265" s="28"/>
-      <c r="G265" s="28"/>
-      <c r="H265" s="28"/>
-      <c r="I265" s="28"/>
-      <c r="N265" s="33"/>
-      <c r="O265" s="33"/>
-      <c r="Q265" s="34"/>
-      <c r="T265" s="35"/>
-      <c r="U265" s="35"/>
-    </row>
-    <row r="266" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E266" s="28"/>
-      <c r="F266" s="28"/>
-      <c r="G266" s="28"/>
-      <c r="H266" s="28"/>
-      <c r="I266" s="28"/>
-      <c r="N266" s="33"/>
-      <c r="O266" s="33"/>
-      <c r="Q266" s="34"/>
-      <c r="T266" s="35"/>
-      <c r="U266" s="35"/>
-    </row>
-    <row r="267" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E267" s="28"/>
-      <c r="F267" s="28"/>
-      <c r="G267" s="28"/>
-      <c r="H267" s="28"/>
-      <c r="I267" s="28"/>
-      <c r="N267" s="33"/>
-      <c r="O267" s="33"/>
-      <c r="Q267" s="34"/>
-      <c r="T267" s="35"/>
-      <c r="U267" s="35"/>
-    </row>
-    <row r="268" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E268" s="28"/>
-      <c r="F268" s="28"/>
-      <c r="G268" s="28"/>
-      <c r="H268" s="28"/>
-      <c r="I268" s="28"/>
-      <c r="N268" s="33"/>
-      <c r="O268" s="33"/>
-      <c r="Q268" s="34"/>
-      <c r="T268" s="35"/>
-      <c r="U268" s="35"/>
-    </row>
-    <row r="269" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E269" s="28"/>
-      <c r="F269" s="28"/>
-      <c r="G269" s="28"/>
-      <c r="H269" s="28"/>
-      <c r="I269" s="28"/>
-      <c r="N269" s="33"/>
-      <c r="O269" s="33"/>
-      <c r="Q269" s="34"/>
-      <c r="T269" s="35"/>
-      <c r="U269" s="35"/>
-    </row>
-    <row r="270" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E270" s="28"/>
-      <c r="F270" s="28"/>
-      <c r="G270" s="28"/>
-      <c r="H270" s="28"/>
-      <c r="I270" s="28"/>
-      <c r="N270" s="33"/>
-      <c r="O270" s="33"/>
-      <c r="Q270" s="34"/>
-      <c r="T270" s="35"/>
-      <c r="U270" s="35"/>
-    </row>
-    <row r="271" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E271" s="28"/>
-      <c r="F271" s="28"/>
-      <c r="G271" s="28"/>
-      <c r="H271" s="28"/>
-      <c r="I271" s="28"/>
-      <c r="N271" s="33"/>
-      <c r="O271" s="33"/>
-      <c r="Q271" s="34"/>
-      <c r="T271" s="35"/>
-      <c r="U271" s="35"/>
-    </row>
-    <row r="272" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E272" s="28"/>
-      <c r="F272" s="28"/>
-      <c r="G272" s="28"/>
-      <c r="H272" s="28"/>
-      <c r="I272" s="28"/>
-      <c r="N272" s="33"/>
-      <c r="O272" s="33"/>
-      <c r="Q272" s="34"/>
-      <c r="T272" s="35"/>
-      <c r="U272" s="35"/>
-    </row>
-    <row r="273" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E273" s="28"/>
-      <c r="F273" s="28"/>
-      <c r="G273" s="28"/>
-      <c r="H273" s="28"/>
-      <c r="I273" s="28"/>
-      <c r="N273" s="33"/>
-      <c r="O273" s="33"/>
-      <c r="Q273" s="34"/>
-      <c r="T273" s="35"/>
-      <c r="U273" s="35"/>
-    </row>
-    <row r="274" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E274" s="28"/>
-      <c r="F274" s="28"/>
-      <c r="G274" s="28"/>
-      <c r="H274" s="28"/>
-      <c r="I274" s="28"/>
-      <c r="N274" s="33"/>
-      <c r="O274" s="33"/>
-      <c r="Q274" s="34"/>
-      <c r="T274" s="35"/>
-      <c r="U274" s="35"/>
-    </row>
-    <row r="275" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E275" s="28"/>
-      <c r="F275" s="28"/>
-      <c r="G275" s="28"/>
-      <c r="H275" s="28"/>
-      <c r="I275" s="28"/>
-      <c r="N275" s="33"/>
-      <c r="O275" s="33"/>
-      <c r="Q275" s="34"/>
-      <c r="T275" s="35"/>
-      <c r="U275" s="35"/>
-    </row>
-    <row r="276" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E276" s="28"/>
-      <c r="F276" s="28"/>
-      <c r="G276" s="28"/>
-      <c r="H276" s="28"/>
-      <c r="I276" s="28"/>
-      <c r="N276" s="33"/>
-      <c r="O276" s="33"/>
-      <c r="Q276" s="34"/>
-      <c r="T276" s="35"/>
-      <c r="U276" s="35"/>
-    </row>
-    <row r="277" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E277" s="28"/>
-      <c r="F277" s="28"/>
-      <c r="G277" s="28"/>
-      <c r="H277" s="28"/>
-      <c r="I277" s="28"/>
-      <c r="N277" s="33"/>
-      <c r="O277" s="33"/>
-      <c r="Q277" s="34"/>
-      <c r="T277" s="35"/>
-      <c r="U277" s="35"/>
-    </row>
-    <row r="278" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E278" s="28"/>
-      <c r="F278" s="28"/>
-      <c r="G278" s="28"/>
-      <c r="H278" s="28"/>
-      <c r="I278" s="28"/>
-      <c r="N278" s="33"/>
-      <c r="O278" s="33"/>
-      <c r="Q278" s="34"/>
-      <c r="T278" s="35"/>
-      <c r="U278" s="35"/>
-    </row>
-    <row r="279" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E279" s="28"/>
-      <c r="F279" s="28"/>
-      <c r="G279" s="28"/>
-      <c r="H279" s="28"/>
-      <c r="I279" s="28"/>
-      <c r="N279" s="33"/>
-      <c r="O279" s="33"/>
-      <c r="Q279" s="34"/>
-      <c r="T279" s="35"/>
-      <c r="U279" s="35"/>
-    </row>
-    <row r="280" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E280" s="28"/>
-      <c r="F280" s="28"/>
-      <c r="G280" s="28"/>
-      <c r="H280" s="28"/>
-      <c r="I280" s="28"/>
-      <c r="N280" s="33"/>
-      <c r="O280" s="33"/>
-      <c r="Q280" s="34"/>
-      <c r="T280" s="35"/>
-      <c r="U280" s="35"/>
-    </row>
-    <row r="281" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E281" s="28"/>
-      <c r="F281" s="28"/>
-      <c r="G281" s="28"/>
-      <c r="H281" s="28"/>
-      <c r="I281" s="28"/>
-      <c r="N281" s="33"/>
-      <c r="O281" s="33"/>
-      <c r="Q281" s="34"/>
-      <c r="T281" s="35"/>
-      <c r="U281" s="35"/>
-    </row>
-    <row r="282" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E282" s="28"/>
-      <c r="F282" s="28"/>
-      <c r="G282" s="28"/>
-      <c r="H282" s="28"/>
-      <c r="I282" s="28"/>
-      <c r="N282" s="33"/>
-      <c r="O282" s="33"/>
-      <c r="Q282" s="34"/>
-      <c r="T282" s="35"/>
-      <c r="U282" s="35"/>
-    </row>
-    <row r="283" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E283" s="28"/>
-      <c r="F283" s="28"/>
-      <c r="G283" s="28"/>
-      <c r="H283" s="28"/>
-      <c r="I283" s="28"/>
-      <c r="N283" s="33"/>
-      <c r="O283" s="33"/>
-      <c r="Q283" s="34"/>
-      <c r="T283" s="35"/>
-      <c r="U283" s="35"/>
-    </row>
-    <row r="284" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E284" s="28"/>
-      <c r="F284" s="28"/>
-      <c r="G284" s="28"/>
-      <c r="H284" s="28"/>
-      <c r="I284" s="28"/>
-      <c r="N284" s="33"/>
-      <c r="O284" s="33"/>
-      <c r="Q284" s="34"/>
-      <c r="T284" s="35"/>
-      <c r="U284" s="35"/>
-    </row>
-    <row r="285" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E285" s="28"/>
-      <c r="F285" s="28"/>
-      <c r="G285" s="28"/>
-      <c r="H285" s="28"/>
-      <c r="I285" s="28"/>
-      <c r="N285" s="33"/>
-      <c r="O285" s="33"/>
-      <c r="Q285" s="34"/>
-      <c r="T285" s="35"/>
-      <c r="U285" s="35"/>
-    </row>
-    <row r="286" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E286" s="28"/>
-      <c r="F286" s="28"/>
-      <c r="G286" s="28"/>
-      <c r="H286" s="28"/>
-      <c r="I286" s="28"/>
-      <c r="N286" s="33"/>
-      <c r="O286" s="33"/>
-      <c r="Q286" s="34"/>
-      <c r="T286" s="35"/>
-      <c r="U286" s="35"/>
-    </row>
-    <row r="287" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E287" s="28"/>
-      <c r="F287" s="28"/>
-      <c r="G287" s="28"/>
-      <c r="H287" s="28"/>
-      <c r="I287" s="28"/>
-      <c r="N287" s="33"/>
-      <c r="O287" s="33"/>
-      <c r="Q287" s="34"/>
-      <c r="T287" s="35"/>
-      <c r="U287" s="35"/>
-    </row>
-    <row r="288" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E288" s="28"/>
-      <c r="F288" s="28"/>
-      <c r="G288" s="28"/>
-      <c r="H288" s="28"/>
-      <c r="I288" s="28"/>
-      <c r="N288" s="33"/>
-      <c r="O288" s="33"/>
-      <c r="Q288" s="34"/>
-      <c r="T288" s="35"/>
-      <c r="U288" s="35"/>
-    </row>
-    <row r="289" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E289" s="28"/>
-      <c r="F289" s="28"/>
-      <c r="G289" s="28"/>
-      <c r="H289" s="28"/>
-      <c r="I289" s="28"/>
-      <c r="N289" s="33"/>
-      <c r="O289" s="33"/>
-      <c r="Q289" s="34"/>
-      <c r="T289" s="35"/>
-      <c r="U289" s="35"/>
-    </row>
-    <row r="290" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E290" s="28"/>
-      <c r="F290" s="28"/>
-      <c r="G290" s="28"/>
-      <c r="H290" s="28"/>
-      <c r="I290" s="28"/>
-      <c r="N290" s="33"/>
-      <c r="O290" s="33"/>
-      <c r="Q290" s="34"/>
-      <c r="T290" s="35"/>
-      <c r="U290" s="35"/>
-    </row>
-    <row r="291" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E291" s="28"/>
-      <c r="F291" s="28"/>
-      <c r="G291" s="28"/>
-      <c r="H291" s="28"/>
-      <c r="I291" s="28"/>
-      <c r="N291" s="33"/>
-      <c r="O291" s="33"/>
-      <c r="Q291" s="34"/>
-      <c r="T291" s="35"/>
-      <c r="U291" s="35"/>
-    </row>
-    <row r="292" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E292" s="28"/>
-      <c r="F292" s="28"/>
-      <c r="G292" s="28"/>
-      <c r="H292" s="28"/>
-      <c r="I292" s="28"/>
-      <c r="N292" s="33"/>
-      <c r="O292" s="33"/>
-      <c r="Q292" s="34"/>
-      <c r="T292" s="35"/>
-      <c r="U292" s="35"/>
-    </row>
-    <row r="293" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E293" s="28"/>
-      <c r="F293" s="28"/>
-      <c r="G293" s="28"/>
-      <c r="H293" s="28"/>
-      <c r="I293" s="28"/>
-      <c r="N293" s="33"/>
-      <c r="O293" s="33"/>
-      <c r="Q293" s="34"/>
-      <c r="T293" s="35"/>
-      <c r="U293" s="35"/>
-    </row>
-    <row r="294" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E294" s="28"/>
-      <c r="F294" s="28"/>
-      <c r="G294" s="28"/>
-      <c r="H294" s="28"/>
-      <c r="I294" s="28"/>
-      <c r="N294" s="33"/>
-      <c r="O294" s="33"/>
-      <c r="Q294" s="34"/>
-      <c r="T294" s="35"/>
-      <c r="U294" s="35"/>
-    </row>
-    <row r="295" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E295" s="28"/>
-      <c r="F295" s="28"/>
-      <c r="G295" s="28"/>
-      <c r="H295" s="28"/>
-      <c r="I295" s="28"/>
-      <c r="N295" s="33"/>
-      <c r="O295" s="33"/>
-      <c r="Q295" s="34"/>
-      <c r="T295" s="35"/>
-      <c r="U295" s="35"/>
-    </row>
-    <row r="296" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E296" s="28"/>
-      <c r="F296" s="28"/>
-      <c r="G296" s="28"/>
-      <c r="H296" s="28"/>
-      <c r="I296" s="28"/>
-      <c r="N296" s="33"/>
-      <c r="O296" s="33"/>
-      <c r="Q296" s="34"/>
-      <c r="T296" s="35"/>
-      <c r="U296" s="35"/>
-    </row>
-    <row r="297" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E297" s="28"/>
-      <c r="F297" s="28"/>
-      <c r="G297" s="28"/>
-      <c r="H297" s="28"/>
-      <c r="I297" s="28"/>
-      <c r="N297" s="33"/>
-      <c r="O297" s="33"/>
-      <c r="Q297" s="34"/>
-      <c r="T297" s="35"/>
-      <c r="U297" s="35"/>
-    </row>
-    <row r="298" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E298" s="28"/>
-      <c r="F298" s="28"/>
-      <c r="G298" s="28"/>
-      <c r="H298" s="28"/>
-      <c r="I298" s="28"/>
-      <c r="N298" s="33"/>
-      <c r="O298" s="33"/>
-      <c r="Q298" s="34"/>
-      <c r="T298" s="35"/>
-      <c r="U298" s="35"/>
-    </row>
-    <row r="299" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E299" s="28"/>
-      <c r="F299" s="28"/>
-      <c r="G299" s="28"/>
-      <c r="H299" s="28"/>
-      <c r="I299" s="28"/>
-      <c r="N299" s="33"/>
-      <c r="O299" s="33"/>
-      <c r="Q299" s="34"/>
-      <c r="T299" s="35"/>
-      <c r="U299" s="35"/>
-    </row>
-    <row r="300" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E300" s="28"/>
-      <c r="F300" s="28"/>
-      <c r="G300" s="28"/>
-      <c r="H300" s="28"/>
-      <c r="I300" s="28"/>
-      <c r="N300" s="33"/>
-      <c r="O300" s="33"/>
-      <c r="Q300" s="34"/>
-      <c r="T300" s="35"/>
-      <c r="U300" s="35"/>
-    </row>
-    <row r="301" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E301" s="28"/>
-      <c r="F301" s="28"/>
-      <c r="G301" s="28"/>
-      <c r="H301" s="28"/>
-      <c r="I301" s="28"/>
-      <c r="N301" s="33"/>
-      <c r="O301" s="33"/>
-      <c r="Q301" s="34"/>
-      <c r="T301" s="35"/>
-      <c r="U301" s="35"/>
-    </row>
-    <row r="302" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E302" s="28"/>
-      <c r="F302" s="28"/>
-      <c r="G302" s="28"/>
-      <c r="H302" s="28"/>
-      <c r="I302" s="28"/>
-      <c r="N302" s="33"/>
-      <c r="O302" s="33"/>
-      <c r="Q302" s="34"/>
-      <c r="T302" s="35"/>
-      <c r="U302" s="35"/>
-    </row>
-    <row r="303" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E303" s="28"/>
-      <c r="F303" s="28"/>
-      <c r="G303" s="28"/>
-      <c r="H303" s="28"/>
-      <c r="I303" s="28"/>
-      <c r="N303" s="33"/>
-      <c r="O303" s="33"/>
-      <c r="Q303" s="34"/>
-      <c r="T303" s="35"/>
-      <c r="U303" s="35"/>
-    </row>
-    <row r="304" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E304" s="28"/>
-      <c r="F304" s="28"/>
-      <c r="G304" s="28"/>
-      <c r="H304" s="28"/>
-      <c r="I304" s="28"/>
-      <c r="N304" s="33"/>
-      <c r="O304" s="33"/>
-      <c r="Q304" s="34"/>
-      <c r="T304" s="35"/>
-      <c r="U304" s="35"/>
-    </row>
-    <row r="305" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E305" s="28"/>
-      <c r="F305" s="28"/>
-      <c r="G305" s="28"/>
-      <c r="H305" s="28"/>
-      <c r="I305" s="28"/>
-      <c r="N305" s="33"/>
-      <c r="O305" s="33"/>
-      <c r="Q305" s="34"/>
-      <c r="T305" s="35"/>
-      <c r="U305" s="35"/>
-    </row>
-    <row r="306" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E306" s="28"/>
-      <c r="F306" s="28"/>
-      <c r="G306" s="28"/>
-      <c r="H306" s="28"/>
-      <c r="I306" s="28"/>
-      <c r="N306" s="33"/>
-      <c r="O306" s="33"/>
-      <c r="Q306" s="34"/>
-      <c r="T306" s="35"/>
-      <c r="U306" s="35"/>
-    </row>
-    <row r="307" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E307" s="28"/>
-      <c r="F307" s="28"/>
-      <c r="G307" s="28"/>
-      <c r="H307" s="28"/>
-      <c r="I307" s="28"/>
-      <c r="N307" s="33"/>
-      <c r="O307" s="33"/>
-      <c r="Q307" s="34"/>
-      <c r="T307" s="35"/>
-      <c r="U307" s="35"/>
-    </row>
-    <row r="308" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E308" s="28"/>
-      <c r="F308" s="28"/>
-      <c r="G308" s="28"/>
-      <c r="H308" s="28"/>
-      <c r="I308" s="28"/>
-      <c r="N308" s="33"/>
-      <c r="O308" s="33"/>
-      <c r="Q308" s="34"/>
-      <c r="T308" s="35"/>
-      <c r="U308" s="35"/>
-    </row>
-    <row r="309" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E309" s="28"/>
-      <c r="F309" s="28"/>
-      <c r="G309" s="28"/>
-      <c r="H309" s="28"/>
-      <c r="I309" s="28"/>
-      <c r="N309" s="33"/>
-      <c r="O309" s="33"/>
-      <c r="Q309" s="34"/>
-      <c r="T309" s="35"/>
-      <c r="U309" s="35"/>
-    </row>
-    <row r="310" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E310" s="28"/>
-      <c r="F310" s="28"/>
-      <c r="G310" s="28"/>
-      <c r="H310" s="28"/>
-      <c r="I310" s="28"/>
-      <c r="N310" s="33"/>
-      <c r="O310" s="33"/>
-      <c r="Q310" s="34"/>
-      <c r="T310" s="35"/>
-      <c r="U310" s="35"/>
-    </row>
-    <row r="311" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E311" s="28"/>
-      <c r="F311" s="28"/>
-      <c r="G311" s="28"/>
-      <c r="H311" s="28"/>
-      <c r="I311" s="28"/>
-      <c r="N311" s="33"/>
-      <c r="O311" s="33"/>
-      <c r="Q311" s="34"/>
-      <c r="T311" s="35"/>
-      <c r="U311" s="35"/>
-    </row>
-    <row r="312" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E312" s="28"/>
-      <c r="F312" s="28"/>
-      <c r="G312" s="28"/>
-      <c r="H312" s="28"/>
-      <c r="I312" s="28"/>
-      <c r="N312" s="33"/>
-      <c r="O312" s="33"/>
-      <c r="Q312" s="34"/>
-      <c r="T312" s="35"/>
-      <c r="U312" s="35"/>
-    </row>
-    <row r="313" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E313" s="28"/>
-      <c r="F313" s="28"/>
-      <c r="G313" s="28"/>
-      <c r="H313" s="28"/>
-      <c r="I313" s="28"/>
-      <c r="N313" s="33"/>
-      <c r="O313" s="33"/>
-      <c r="Q313" s="34"/>
-      <c r="T313" s="35"/>
-      <c r="U313" s="35"/>
-    </row>
-    <row r="314" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E314" s="28"/>
-      <c r="F314" s="28"/>
-      <c r="G314" s="28"/>
-      <c r="H314" s="28"/>
-      <c r="I314" s="28"/>
-      <c r="N314" s="33"/>
-      <c r="O314" s="33"/>
-      <c r="Q314" s="34"/>
-      <c r="T314" s="35"/>
-      <c r="U314" s="35"/>
-    </row>
-    <row r="315" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E315" s="28"/>
-      <c r="F315" s="28"/>
-      <c r="G315" s="28"/>
-      <c r="H315" s="28"/>
-      <c r="I315" s="28"/>
-      <c r="N315" s="33"/>
-      <c r="O315" s="33"/>
-      <c r="Q315" s="34"/>
-      <c r="T315" s="35"/>
-      <c r="U315" s="35"/>
-    </row>
-    <row r="316" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E316" s="28"/>
-      <c r="F316" s="28"/>
-      <c r="G316" s="28"/>
-      <c r="H316" s="28"/>
-      <c r="I316" s="28"/>
-      <c r="N316" s="33"/>
-      <c r="O316" s="33"/>
-      <c r="Q316" s="34"/>
-      <c r="T316" s="35"/>
-      <c r="U316" s="35"/>
-    </row>
-    <row r="317" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E317" s="28"/>
-      <c r="F317" s="28"/>
-      <c r="G317" s="28"/>
-      <c r="H317" s="28"/>
-      <c r="I317" s="28"/>
-      <c r="N317" s="33"/>
-      <c r="O317" s="33"/>
-      <c r="Q317" s="34"/>
-      <c r="T317" s="35"/>
-      <c r="U317" s="35"/>
-    </row>
-    <row r="318" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E318" s="28"/>
-      <c r="F318" s="28"/>
-      <c r="G318" s="28"/>
-      <c r="H318" s="28"/>
-      <c r="I318" s="28"/>
-      <c r="N318" s="33"/>
-      <c r="O318" s="33"/>
-      <c r="Q318" s="34"/>
-      <c r="T318" s="35"/>
-      <c r="U318" s="35"/>
-    </row>
-    <row r="319" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E319" s="28"/>
-      <c r="F319" s="28"/>
-      <c r="G319" s="28"/>
-      <c r="H319" s="28"/>
-      <c r="I319" s="28"/>
-      <c r="N319" s="33"/>
-      <c r="O319" s="33"/>
-      <c r="Q319" s="34"/>
-      <c r="T319" s="35"/>
-      <c r="U319" s="35"/>
-    </row>
-    <row r="320" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E320" s="28"/>
-      <c r="F320" s="28"/>
-      <c r="G320" s="28"/>
-      <c r="H320" s="28"/>
-      <c r="I320" s="28"/>
-      <c r="N320" s="33"/>
-      <c r="O320" s="33"/>
-      <c r="Q320" s="34"/>
-      <c r="T320" s="35"/>
-      <c r="U320" s="35"/>
-    </row>
-    <row r="321" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E321" s="28"/>
-      <c r="F321" s="28"/>
-      <c r="G321" s="28"/>
-      <c r="H321" s="28"/>
-      <c r="I321" s="28"/>
-      <c r="N321" s="33"/>
-      <c r="O321" s="33"/>
-      <c r="Q321" s="34"/>
-      <c r="T321" s="35"/>
-      <c r="U321" s="35"/>
-    </row>
-    <row r="322" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E322" s="28"/>
-      <c r="F322" s="28"/>
-      <c r="G322" s="28"/>
-      <c r="H322" s="28"/>
-      <c r="I322" s="28"/>
-      <c r="N322" s="33"/>
-      <c r="O322" s="33"/>
-      <c r="Q322" s="34"/>
-      <c r="T322" s="35"/>
-      <c r="U322" s="35"/>
-    </row>
-    <row r="323" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E323" s="28"/>
-      <c r="F323" s="28"/>
-      <c r="G323" s="28"/>
-      <c r="H323" s="28"/>
-      <c r="I323" s="28"/>
-      <c r="N323" s="33"/>
-      <c r="O323" s="33"/>
-      <c r="Q323" s="34"/>
-      <c r="T323" s="35"/>
-      <c r="U323" s="35"/>
-    </row>
-    <row r="324" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E324" s="28"/>
-      <c r="F324" s="28"/>
-      <c r="G324" s="28"/>
-      <c r="H324" s="28"/>
-      <c r="I324" s="28"/>
-      <c r="N324" s="33"/>
-      <c r="O324" s="33"/>
-      <c r="Q324" s="34"/>
-      <c r="T324" s="35"/>
-      <c r="U324" s="35"/>
-    </row>
-    <row r="325" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E325" s="28"/>
-      <c r="F325" s="28"/>
-      <c r="G325" s="28"/>
-      <c r="H325" s="28"/>
-      <c r="I325" s="28"/>
-      <c r="N325" s="33"/>
-      <c r="O325" s="33"/>
-      <c r="Q325" s="34"/>
-      <c r="T325" s="35"/>
-      <c r="U325" s="35"/>
-    </row>
-    <row r="326" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E326" s="28"/>
-      <c r="F326" s="28"/>
-      <c r="G326" s="28"/>
-      <c r="H326" s="28"/>
-      <c r="I326" s="28"/>
-      <c r="N326" s="33"/>
-      <c r="O326" s="33"/>
-      <c r="Q326" s="34"/>
-      <c r="T326" s="35"/>
-      <c r="U326" s="35"/>
-    </row>
-    <row r="327" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E327" s="28"/>
-      <c r="F327" s="28"/>
-      <c r="G327" s="28"/>
-      <c r="H327" s="28"/>
-      <c r="I327" s="28"/>
-      <c r="N327" s="33"/>
-      <c r="O327" s="33"/>
-      <c r="Q327" s="34"/>
-      <c r="T327" s="35"/>
-      <c r="U327" s="35"/>
-    </row>
-    <row r="328" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E328" s="28"/>
-      <c r="F328" s="28"/>
-      <c r="G328" s="28"/>
-      <c r="H328" s="28"/>
-      <c r="I328" s="28"/>
-      <c r="N328" s="33"/>
-      <c r="O328" s="33"/>
-      <c r="Q328" s="34"/>
-      <c r="T328" s="35"/>
-      <c r="U328" s="35"/>
-    </row>
-    <row r="329" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E329" s="28"/>
-      <c r="F329" s="28"/>
-      <c r="G329" s="28"/>
-      <c r="H329" s="28"/>
-      <c r="I329" s="28"/>
-      <c r="N329" s="33"/>
-      <c r="O329" s="33"/>
-      <c r="Q329" s="34"/>
-      <c r="T329" s="35"/>
-      <c r="U329" s="35"/>
-    </row>
-    <row r="330" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E330" s="28"/>
-      <c r="F330" s="28"/>
-      <c r="G330" s="28"/>
-      <c r="H330" s="28"/>
-      <c r="I330" s="28"/>
-      <c r="N330" s="33"/>
-      <c r="O330" s="33"/>
-      <c r="Q330" s="34"/>
-      <c r="T330" s="35"/>
-      <c r="U330" s="35"/>
-    </row>
-    <row r="331" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E331" s="28"/>
-      <c r="F331" s="28"/>
-      <c r="G331" s="28"/>
-      <c r="H331" s="28"/>
-      <c r="I331" s="28"/>
-      <c r="N331" s="33"/>
-      <c r="O331" s="33"/>
-      <c r="Q331" s="34"/>
-      <c r="T331" s="35"/>
-      <c r="U331" s="35"/>
-    </row>
-    <row r="332" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E332" s="28"/>
-      <c r="F332" s="28"/>
-      <c r="G332" s="28"/>
-      <c r="H332" s="28"/>
-      <c r="I332" s="28"/>
-      <c r="N332" s="33"/>
-      <c r="O332" s="33"/>
-      <c r="Q332" s="34"/>
-      <c r="T332" s="35"/>
-      <c r="U332" s="35"/>
-    </row>
-    <row r="333" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E333" s="28"/>
-      <c r="F333" s="28"/>
-      <c r="G333" s="28"/>
-      <c r="H333" s="28"/>
-      <c r="I333" s="28"/>
-      <c r="N333" s="33"/>
-      <c r="O333" s="33"/>
-      <c r="Q333" s="34"/>
-      <c r="T333" s="35"/>
-      <c r="U333" s="35"/>
-    </row>
-    <row r="334" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E334" s="28"/>
-      <c r="F334" s="28"/>
-      <c r="G334" s="28"/>
-      <c r="H334" s="28"/>
-      <c r="I334" s="28"/>
-      <c r="N334" s="33"/>
-      <c r="O334" s="33"/>
-      <c r="Q334" s="34"/>
-      <c r="T334" s="35"/>
-      <c r="U334" s="35"/>
-    </row>
-    <row r="335" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E335" s="28"/>
-      <c r="F335" s="28"/>
-      <c r="G335" s="28"/>
-      <c r="H335" s="28"/>
-      <c r="I335" s="28"/>
-      <c r="N335" s="33"/>
-      <c r="O335" s="33"/>
-      <c r="Q335" s="34"/>
-      <c r="T335" s="35"/>
-      <c r="U335" s="35"/>
-    </row>
-    <row r="336" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E336" s="28"/>
-      <c r="F336" s="28"/>
-      <c r="G336" s="28"/>
-      <c r="H336" s="28"/>
-      <c r="I336" s="28"/>
-      <c r="N336" s="33"/>
-      <c r="O336" s="33"/>
-      <c r="Q336" s="34"/>
-      <c r="T336" s="35"/>
-      <c r="U336" s="35"/>
-    </row>
-    <row r="337" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E337" s="28"/>
-      <c r="F337" s="28"/>
-      <c r="G337" s="28"/>
-      <c r="H337" s="28"/>
-      <c r="I337" s="28"/>
-      <c r="N337" s="33"/>
-      <c r="O337" s="33"/>
-      <c r="Q337" s="34"/>
-      <c r="T337" s="35"/>
-      <c r="U337" s="35"/>
-    </row>
-    <row r="338" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E338" s="28"/>
-      <c r="F338" s="28"/>
-      <c r="G338" s="28"/>
-      <c r="H338" s="28"/>
-      <c r="I338" s="28"/>
-      <c r="N338" s="33"/>
-      <c r="O338" s="33"/>
-      <c r="Q338" s="34"/>
-      <c r="T338" s="35"/>
-      <c r="U338" s="35"/>
-    </row>
-    <row r="339" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E339" s="28"/>
-      <c r="F339" s="28"/>
-      <c r="G339" s="28"/>
-      <c r="H339" s="28"/>
-      <c r="I339" s="28"/>
-      <c r="N339" s="33"/>
-      <c r="O339" s="33"/>
-      <c r="Q339" s="34"/>
-      <c r="T339" s="35"/>
-      <c r="U339" s="35"/>
-    </row>
-    <row r="340" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E340" s="28"/>
-      <c r="F340" s="28"/>
-      <c r="G340" s="28"/>
-      <c r="H340" s="28"/>
-      <c r="I340" s="28"/>
-      <c r="N340" s="33"/>
-      <c r="O340" s="33"/>
-      <c r="Q340" s="34"/>
-      <c r="T340" s="35"/>
-      <c r="U340" s="35"/>
-    </row>
-    <row r="341" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E341" s="28"/>
-      <c r="F341" s="28"/>
-      <c r="G341" s="28"/>
-      <c r="H341" s="28"/>
-      <c r="I341" s="28"/>
-      <c r="N341" s="33"/>
-      <c r="O341" s="33"/>
-      <c r="Q341" s="34"/>
-      <c r="T341" s="35"/>
-      <c r="U341" s="35"/>
-    </row>
-    <row r="342" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E342" s="28"/>
-      <c r="F342" s="28"/>
-      <c r="G342" s="28"/>
-      <c r="H342" s="28"/>
-      <c r="I342" s="28"/>
-      <c r="N342" s="33"/>
-      <c r="O342" s="33"/>
-      <c r="Q342" s="34"/>
-      <c r="T342" s="35"/>
-      <c r="U342" s="35"/>
-    </row>
-    <row r="343" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E343" s="28"/>
-      <c r="F343" s="28"/>
-      <c r="G343" s="28"/>
-      <c r="H343" s="28"/>
-      <c r="I343" s="28"/>
-      <c r="N343" s="33"/>
-      <c r="O343" s="33"/>
-      <c r="Q343" s="34"/>
-      <c r="T343" s="35"/>
-      <c r="U343" s="35"/>
-    </row>
-    <row r="344" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E344" s="28"/>
-      <c r="F344" s="28"/>
-      <c r="G344" s="28"/>
-      <c r="H344" s="28"/>
-      <c r="I344" s="28"/>
-      <c r="N344" s="33"/>
-      <c r="O344" s="33"/>
-      <c r="Q344" s="34"/>
-      <c r="T344" s="35"/>
-      <c r="U344" s="35"/>
-    </row>
-    <row r="345" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E345" s="28"/>
-      <c r="F345" s="28"/>
-      <c r="G345" s="28"/>
-      <c r="H345" s="28"/>
-      <c r="I345" s="28"/>
-      <c r="N345" s="33"/>
-      <c r="O345" s="33"/>
-      <c r="Q345" s="34"/>
-      <c r="T345" s="35"/>
-      <c r="U345" s="35"/>
-    </row>
-    <row r="346" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E346" s="28"/>
-      <c r="F346" s="28"/>
-      <c r="G346" s="28"/>
-      <c r="H346" s="28"/>
-      <c r="I346" s="28"/>
-      <c r="N346" s="33"/>
-      <c r="O346" s="33"/>
-      <c r="Q346" s="34"/>
-      <c r="T346" s="35"/>
-      <c r="U346" s="35"/>
-    </row>
-    <row r="347" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E347" s="28"/>
-      <c r="F347" s="28"/>
-      <c r="G347" s="28"/>
-      <c r="H347" s="28"/>
-      <c r="I347" s="28"/>
-      <c r="N347" s="33"/>
-      <c r="O347" s="33"/>
-      <c r="Q347" s="34"/>
-      <c r="T347" s="35"/>
-      <c r="U347" s="35"/>
-    </row>
-    <row r="348" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E348" s="28"/>
-      <c r="F348" s="28"/>
-      <c r="G348" s="28"/>
-      <c r="H348" s="28"/>
-      <c r="I348" s="28"/>
-      <c r="N348" s="33"/>
-      <c r="O348" s="33"/>
-      <c r="Q348" s="34"/>
-      <c r="T348" s="35"/>
-      <c r="U348" s="35"/>
-    </row>
-    <row r="349" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E349" s="28"/>
-      <c r="F349" s="28"/>
-      <c r="G349" s="28"/>
-      <c r="H349" s="28"/>
-      <c r="I349" s="28"/>
-      <c r="N349" s="33"/>
-      <c r="O349" s="33"/>
-      <c r="Q349" s="34"/>
-      <c r="T349" s="35"/>
-      <c r="U349" s="35"/>
-    </row>
-    <row r="350" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E350" s="28"/>
-      <c r="F350" s="28"/>
-      <c r="G350" s="28"/>
-      <c r="H350" s="28"/>
-      <c r="I350" s="28"/>
-      <c r="N350" s="33"/>
-      <c r="O350" s="33"/>
-      <c r="Q350" s="34"/>
-      <c r="T350" s="35"/>
-      <c r="U350" s="35"/>
-    </row>
-    <row r="351" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E351" s="28"/>
-      <c r="F351" s="28"/>
-      <c r="G351" s="28"/>
-      <c r="H351" s="28"/>
-      <c r="I351" s="28"/>
-      <c r="N351" s="33"/>
-      <c r="O351" s="33"/>
-      <c r="Q351" s="34"/>
-      <c r="T351" s="35"/>
-      <c r="U351" s="35"/>
-    </row>
-    <row r="352" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E352" s="28"/>
-      <c r="F352" s="28"/>
-      <c r="G352" s="28"/>
-      <c r="H352" s="28"/>
-      <c r="I352" s="28"/>
-      <c r="N352" s="33"/>
-      <c r="O352" s="33"/>
-      <c r="Q352" s="34"/>
-      <c r="T352" s="35"/>
-      <c r="U352" s="35"/>
-    </row>
-    <row r="353" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E353" s="28"/>
-      <c r="F353" s="28"/>
-      <c r="G353" s="28"/>
-      <c r="H353" s="28"/>
-      <c r="I353" s="28"/>
-      <c r="N353" s="33"/>
-      <c r="O353" s="33"/>
-      <c r="Q353" s="34"/>
-      <c r="T353" s="35"/>
-      <c r="U353" s="35"/>
-    </row>
-    <row r="354" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E354" s="28"/>
-      <c r="F354" s="28"/>
-      <c r="G354" s="28"/>
-      <c r="H354" s="28"/>
-      <c r="I354" s="28"/>
-      <c r="N354" s="33"/>
-      <c r="O354" s="33"/>
-      <c r="Q354" s="34"/>
-      <c r="T354" s="35"/>
-      <c r="U354" s="35"/>
-    </row>
-    <row r="355" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E355" s="28"/>
-      <c r="F355" s="28"/>
-      <c r="G355" s="28"/>
-      <c r="H355" s="28"/>
-      <c r="I355" s="28"/>
-      <c r="N355" s="33"/>
-      <c r="O355" s="33"/>
-      <c r="Q355" s="34"/>
-      <c r="T355" s="35"/>
-      <c r="U355" s="35"/>
-    </row>
-    <row r="356" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E356" s="28"/>
-      <c r="F356" s="28"/>
-      <c r="G356" s="28"/>
-      <c r="H356" s="28"/>
-      <c r="I356" s="28"/>
-      <c r="N356" s="33"/>
-      <c r="O356" s="33"/>
-      <c r="Q356" s="34"/>
-      <c r="T356" s="35"/>
-      <c r="U356" s="35"/>
-    </row>
-    <row r="357" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E357" s="28"/>
-      <c r="F357" s="28"/>
-      <c r="G357" s="28"/>
-      <c r="H357" s="28"/>
-      <c r="I357" s="28"/>
-      <c r="N357" s="33"/>
-      <c r="O357" s="33"/>
-      <c r="Q357" s="34"/>
-      <c r="T357" s="35"/>
-      <c r="U357" s="35"/>
-    </row>
-    <row r="358" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E358" s="28"/>
-      <c r="F358" s="28"/>
-      <c r="G358" s="28"/>
-      <c r="H358" s="28"/>
-      <c r="I358" s="28"/>
-      <c r="N358" s="33"/>
-      <c r="O358" s="33"/>
-      <c r="Q358" s="34"/>
-      <c r="T358" s="35"/>
-      <c r="U358" s="35"/>
-    </row>
-    <row r="359" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E359" s="28"/>
-      <c r="F359" s="28"/>
-      <c r="G359" s="28"/>
-      <c r="H359" s="28"/>
-      <c r="I359" s="28"/>
-      <c r="N359" s="33"/>
-      <c r="O359" s="33"/>
-      <c r="Q359" s="34"/>
-      <c r="T359" s="35"/>
-      <c r="U359" s="35"/>
-    </row>
-    <row r="360" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E360" s="28"/>
-      <c r="F360" s="28"/>
-      <c r="G360" s="28"/>
-      <c r="H360" s="28"/>
-      <c r="I360" s="28"/>
-      <c r="N360" s="33"/>
-      <c r="O360" s="33"/>
-      <c r="Q360" s="34"/>
-      <c r="T360" s="35"/>
-      <c r="U360" s="35"/>
-    </row>
-    <row r="361" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E361" s="28"/>
-      <c r="F361" s="28"/>
-      <c r="G361" s="28"/>
-      <c r="H361" s="28"/>
-      <c r="I361" s="28"/>
-      <c r="N361" s="33"/>
-      <c r="O361" s="33"/>
-      <c r="Q361" s="34"/>
-      <c r="T361" s="35"/>
-      <c r="U361" s="35"/>
-    </row>
-    <row r="362" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E362" s="28"/>
-      <c r="F362" s="28"/>
-      <c r="G362" s="28"/>
-      <c r="H362" s="28"/>
-      <c r="I362" s="28"/>
-      <c r="N362" s="33"/>
-      <c r="O362" s="33"/>
-      <c r="Q362" s="34"/>
-      <c r="T362" s="35"/>
-      <c r="U362" s="35"/>
-    </row>
-    <row r="363" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E363" s="28"/>
-      <c r="F363" s="28"/>
-      <c r="G363" s="28"/>
-      <c r="H363" s="28"/>
-      <c r="I363" s="28"/>
-      <c r="N363" s="33"/>
-      <c r="O363" s="33"/>
-      <c r="Q363" s="34"/>
-      <c r="T363" s="35"/>
-      <c r="U363" s="35"/>
-    </row>
-    <row r="364" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E364" s="28"/>
-      <c r="F364" s="28"/>
-      <c r="G364" s="28"/>
-      <c r="H364" s="28"/>
-      <c r="I364" s="28"/>
-      <c r="N364" s="33"/>
-      <c r="O364" s="33"/>
-      <c r="Q364" s="34"/>
-      <c r="T364" s="35"/>
-      <c r="U364" s="35"/>
-    </row>
-    <row r="365" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E365" s="28"/>
-      <c r="F365" s="28"/>
-      <c r="G365" s="28"/>
-      <c r="H365" s="28"/>
-      <c r="I365" s="28"/>
-      <c r="N365" s="33"/>
-      <c r="O365" s="33"/>
-      <c r="Q365" s="34"/>
-      <c r="T365" s="35"/>
-      <c r="U365" s="35"/>
-    </row>
-    <row r="366" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E366" s="28"/>
-      <c r="F366" s="28"/>
-      <c r="G366" s="28"/>
-      <c r="H366" s="28"/>
-      <c r="I366" s="28"/>
-      <c r="N366" s="33"/>
-      <c r="O366" s="33"/>
-      <c r="Q366" s="34"/>
-      <c r="T366" s="35"/>
-      <c r="U366" s="35"/>
-    </row>
-    <row r="367" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E367" s="28"/>
-      <c r="F367" s="28"/>
-      <c r="G367" s="28"/>
-      <c r="H367" s="28"/>
-      <c r="I367" s="28"/>
-      <c r="N367" s="33"/>
-      <c r="O367" s="33"/>
-      <c r="Q367" s="34"/>
-      <c r="T367" s="35"/>
-      <c r="U367" s="35"/>
-    </row>
-    <row r="368" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E368" s="28"/>
-      <c r="F368" s="28"/>
-      <c r="G368" s="28"/>
-      <c r="H368" s="28"/>
-      <c r="I368" s="28"/>
-      <c r="N368" s="33"/>
-      <c r="O368" s="33"/>
-      <c r="Q368" s="34"/>
-      <c r="T368" s="35"/>
-      <c r="U368" s="35"/>
-    </row>
-    <row r="369" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E369" s="28"/>
-      <c r="F369" s="28"/>
-      <c r="G369" s="28"/>
-      <c r="H369" s="28"/>
-      <c r="I369" s="28"/>
-      <c r="N369" s="33"/>
-      <c r="O369" s="33"/>
-      <c r="Q369" s="34"/>
-      <c r="T369" s="35"/>
-      <c r="U369" s="35"/>
-    </row>
-    <row r="370" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E370" s="28"/>
-      <c r="F370" s="28"/>
-      <c r="G370" s="28"/>
-      <c r="H370" s="28"/>
-      <c r="I370" s="28"/>
-      <c r="N370" s="33"/>
-      <c r="O370" s="33"/>
-      <c r="Q370" s="34"/>
-      <c r="T370" s="35"/>
-      <c r="U370" s="35"/>
-    </row>
-    <row r="371" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E371" s="28"/>
-      <c r="F371" s="28"/>
-      <c r="G371" s="28"/>
-      <c r="H371" s="28"/>
-      <c r="I371" s="28"/>
-      <c r="N371" s="33"/>
-      <c r="O371" s="33"/>
-      <c r="Q371" s="34"/>
-      <c r="T371" s="35"/>
-      <c r="U371" s="35"/>
-    </row>
-    <row r="372" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E372" s="28"/>
-      <c r="F372" s="28"/>
-      <c r="G372" s="28"/>
-      <c r="H372" s="28"/>
-      <c r="I372" s="28"/>
-      <c r="N372" s="33"/>
-      <c r="O372" s="33"/>
-      <c r="Q372" s="34"/>
-      <c r="T372" s="35"/>
-      <c r="U372" s="35"/>
-    </row>
-    <row r="373" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E373" s="28"/>
-      <c r="F373" s="28"/>
-      <c r="G373" s="28"/>
-      <c r="H373" s="28"/>
-      <c r="I373" s="28"/>
-      <c r="N373" s="33"/>
-      <c r="O373" s="33"/>
-      <c r="Q373" s="34"/>
-      <c r="T373" s="35"/>
-      <c r="U373" s="35"/>
-    </row>
-    <row r="374" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E374" s="28"/>
-      <c r="F374" s="28"/>
-      <c r="G374" s="28"/>
-      <c r="H374" s="28"/>
-      <c r="I374" s="28"/>
-      <c r="N374" s="33"/>
-      <c r="O374" s="33"/>
-      <c r="Q374" s="34"/>
-      <c r="T374" s="35"/>
-      <c r="U374" s="35"/>
-    </row>
-    <row r="375" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E375" s="28"/>
-      <c r="F375" s="28"/>
-      <c r="G375" s="28"/>
-      <c r="H375" s="28"/>
-      <c r="I375" s="28"/>
-      <c r="N375" s="33"/>
-      <c r="O375" s="33"/>
-      <c r="Q375" s="34"/>
-      <c r="T375" s="35"/>
-      <c r="U375" s="35"/>
-    </row>
-    <row r="376" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E376" s="28"/>
-      <c r="F376" s="28"/>
-      <c r="G376" s="28"/>
-      <c r="H376" s="28"/>
-      <c r="I376" s="28"/>
-      <c r="N376" s="33"/>
-      <c r="O376" s="33"/>
-      <c r="Q376" s="34"/>
-      <c r="T376" s="35"/>
-      <c r="U376" s="35"/>
-    </row>
-    <row r="377" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E377" s="28"/>
-      <c r="F377" s="28"/>
-      <c r="G377" s="28"/>
-      <c r="H377" s="28"/>
-      <c r="I377" s="28"/>
-      <c r="N377" s="33"/>
-      <c r="O377" s="33"/>
-      <c r="Q377" s="34"/>
-      <c r="T377" s="35"/>
-      <c r="U377" s="35"/>
-    </row>
-    <row r="378" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E378" s="28"/>
-      <c r="F378" s="28"/>
-      <c r="G378" s="28"/>
-      <c r="H378" s="28"/>
-      <c r="I378" s="28"/>
-      <c r="N378" s="33"/>
-      <c r="O378" s="33"/>
-      <c r="Q378" s="34"/>
-      <c r="T378" s="35"/>
-      <c r="U378" s="35"/>
-    </row>
-    <row r="379" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E379" s="28"/>
-      <c r="F379" s="28"/>
-      <c r="G379" s="28"/>
-      <c r="H379" s="28"/>
-      <c r="I379" s="28"/>
-      <c r="N379" s="33"/>
-      <c r="O379" s="33"/>
-      <c r="Q379" s="34"/>
-      <c r="T379" s="35"/>
-      <c r="U379" s="35"/>
-    </row>
-    <row r="380" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E380" s="28"/>
-      <c r="F380" s="28"/>
-      <c r="G380" s="28"/>
-      <c r="H380" s="28"/>
-      <c r="I380" s="28"/>
-      <c r="N380" s="33"/>
-      <c r="O380" s="33"/>
-      <c r="Q380" s="34"/>
-      <c r="T380" s="35"/>
-      <c r="U380" s="35"/>
-    </row>
-    <row r="381" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E381" s="28"/>
-      <c r="F381" s="28"/>
-      <c r="G381" s="28"/>
-      <c r="H381" s="28"/>
-      <c r="I381" s="28"/>
-      <c r="N381" s="33"/>
-      <c r="O381" s="33"/>
-      <c r="Q381" s="34"/>
-      <c r="T381" s="35"/>
-      <c r="U381" s="35"/>
-    </row>
-    <row r="382" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E382" s="28"/>
-      <c r="F382" s="28"/>
-      <c r="G382" s="28"/>
-      <c r="H382" s="28"/>
-      <c r="I382" s="28"/>
-      <c r="N382" s="33"/>
-      <c r="O382" s="33"/>
-      <c r="Q382" s="34"/>
-      <c r="T382" s="35"/>
-      <c r="U382" s="35"/>
-    </row>
-    <row r="383" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E383" s="28"/>
-      <c r="F383" s="28"/>
-      <c r="G383" s="28"/>
-      <c r="H383" s="28"/>
-      <c r="I383" s="28"/>
-      <c r="N383" s="33"/>
-      <c r="O383" s="33"/>
-      <c r="Q383" s="34"/>
-      <c r="T383" s="35"/>
-      <c r="U383" s="35"/>
-    </row>
-    <row r="384" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E384" s="28"/>
-      <c r="F384" s="28"/>
-      <c r="G384" s="28"/>
-      <c r="H384" s="28"/>
-      <c r="I384" s="28"/>
-      <c r="N384" s="33"/>
-      <c r="O384" s="33"/>
-      <c r="Q384" s="34"/>
-      <c r="T384" s="35"/>
-      <c r="U384" s="35"/>
-    </row>
-    <row r="385" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E385" s="28"/>
-      <c r="F385" s="28"/>
-      <c r="G385" s="28"/>
-      <c r="H385" s="28"/>
-      <c r="I385" s="28"/>
-      <c r="N385" s="33"/>
-      <c r="O385" s="33"/>
-      <c r="Q385" s="34"/>
-      <c r="T385" s="35"/>
-      <c r="U385" s="35"/>
-    </row>
-    <row r="386" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E386" s="28"/>
-      <c r="F386" s="28"/>
-      <c r="G386" s="28"/>
-      <c r="H386" s="28"/>
-      <c r="I386" s="28"/>
-      <c r="N386" s="33"/>
-      <c r="O386" s="33"/>
-      <c r="Q386" s="34"/>
-      <c r="T386" s="35"/>
-      <c r="U386" s="35"/>
-    </row>
-    <row r="387" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E387" s="28"/>
-      <c r="F387" s="28"/>
-      <c r="G387" s="28"/>
-      <c r="H387" s="28"/>
-      <c r="I387" s="28"/>
-      <c r="N387" s="33"/>
-      <c r="O387" s="33"/>
-      <c r="Q387" s="34"/>
-      <c r="T387" s="35"/>
-      <c r="U387" s="35"/>
-    </row>
-    <row r="388" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E388" s="28"/>
-      <c r="F388" s="28"/>
-      <c r="G388" s="28"/>
-      <c r="H388" s="28"/>
-      <c r="I388" s="28"/>
-      <c r="N388" s="33"/>
-      <c r="O388" s="33"/>
-      <c r="Q388" s="34"/>
-      <c r="T388" s="35"/>
-      <c r="U388" s="35"/>
-    </row>
-    <row r="389" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E389" s="28"/>
-      <c r="F389" s="28"/>
-      <c r="G389" s="28"/>
-      <c r="H389" s="28"/>
-      <c r="I389" s="28"/>
-      <c r="N389" s="33"/>
-      <c r="O389" s="33"/>
-      <c r="Q389" s="34"/>
-      <c r="T389" s="35"/>
-      <c r="U389" s="35"/>
-    </row>
-    <row r="390" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E390" s="28"/>
-      <c r="F390" s="28"/>
-      <c r="G390" s="28"/>
-      <c r="H390" s="28"/>
-      <c r="I390" s="28"/>
-      <c r="N390" s="33"/>
-      <c r="O390" s="33"/>
-      <c r="Q390" s="34"/>
-      <c r="T390" s="35"/>
-      <c r="U390" s="35"/>
-    </row>
-    <row r="391" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E391" s="28"/>
-      <c r="F391" s="28"/>
-      <c r="G391" s="28"/>
-      <c r="H391" s="28"/>
-      <c r="I391" s="28"/>
-      <c r="N391" s="33"/>
-      <c r="O391" s="33"/>
-      <c r="Q391" s="34"/>
-      <c r="T391" s="35"/>
-      <c r="U391" s="35"/>
-    </row>
-    <row r="392" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E392" s="28"/>
-      <c r="F392" s="28"/>
-      <c r="G392" s="28"/>
-      <c r="H392" s="28"/>
-      <c r="I392" s="28"/>
-      <c r="N392" s="33"/>
-      <c r="O392" s="33"/>
-      <c r="Q392" s="34"/>
-      <c r="T392" s="35"/>
-      <c r="U392" s="35"/>
-    </row>
-    <row r="393" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E393" s="28"/>
-      <c r="F393" s="28"/>
-      <c r="G393" s="28"/>
-      <c r="H393" s="28"/>
-      <c r="I393" s="28"/>
-      <c r="N393" s="33"/>
-      <c r="O393" s="33"/>
-      <c r="Q393" s="34"/>
-      <c r="T393" s="35"/>
-      <c r="U393" s="35"/>
-    </row>
-    <row r="394" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E394" s="28"/>
-      <c r="F394" s="28"/>
-      <c r="G394" s="28"/>
-      <c r="H394" s="28"/>
-      <c r="I394" s="28"/>
-      <c r="N394" s="33"/>
-      <c r="O394" s="33"/>
-      <c r="Q394" s="34"/>
-      <c r="T394" s="35"/>
-      <c r="U394" s="35"/>
-    </row>
-    <row r="395" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E395" s="28"/>
-      <c r="F395" s="28"/>
-      <c r="G395" s="28"/>
-      <c r="H395" s="28"/>
-      <c r="I395" s="28"/>
-      <c r="N395" s="33"/>
-      <c r="O395" s="33"/>
-      <c r="Q395" s="34"/>
-      <c r="T395" s="35"/>
-      <c r="U395" s="35"/>
-    </row>
-    <row r="396" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E396" s="28"/>
-      <c r="F396" s="28"/>
-      <c r="G396" s="28"/>
-      <c r="H396" s="28"/>
-      <c r="I396" s="28"/>
-      <c r="N396" s="33"/>
-      <c r="O396" s="33"/>
-      <c r="Q396" s="34"/>
-      <c r="T396" s="35"/>
-      <c r="U396" s="35"/>
-    </row>
-    <row r="397" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E397" s="28"/>
-      <c r="F397" s="28"/>
-      <c r="G397" s="28"/>
-      <c r="H397" s="28"/>
-      <c r="I397" s="28"/>
-      <c r="N397" s="33"/>
-      <c r="O397" s="33"/>
-      <c r="Q397" s="34"/>
-      <c r="T397" s="35"/>
-      <c r="U397" s="35"/>
-    </row>
-    <row r="398" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E398" s="28"/>
-      <c r="F398" s="28"/>
-      <c r="G398" s="28"/>
-      <c r="H398" s="28"/>
-      <c r="I398" s="28"/>
-      <c r="N398" s="33"/>
-      <c r="O398" s="33"/>
-      <c r="Q398" s="34"/>
-      <c r="T398" s="35"/>
-      <c r="U398" s="35"/>
-    </row>
-    <row r="399" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E399" s="28"/>
-      <c r="F399" s="28"/>
-      <c r="G399" s="28"/>
-      <c r="H399" s="28"/>
-      <c r="I399" s="28"/>
-      <c r="N399" s="33"/>
-      <c r="O399" s="33"/>
-      <c r="Q399" s="34"/>
-      <c r="T399" s="35"/>
-      <c r="U399" s="35"/>
-    </row>
-    <row r="400" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E400" s="28"/>
-      <c r="F400" s="28"/>
-      <c r="G400" s="28"/>
-      <c r="H400" s="28"/>
-      <c r="I400" s="28"/>
-      <c r="N400" s="33"/>
-      <c r="O400" s="33"/>
-      <c r="Q400" s="34"/>
-      <c r="T400" s="35"/>
-      <c r="U400" s="35"/>
-    </row>
-    <row r="401" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E401" s="28"/>
-      <c r="F401" s="28"/>
-      <c r="G401" s="28"/>
-      <c r="H401" s="28"/>
-      <c r="I401" s="28"/>
-      <c r="N401" s="33"/>
-      <c r="O401" s="33"/>
-      <c r="Q401" s="34"/>
-      <c r="T401" s="35"/>
-      <c r="U401" s="35"/>
-    </row>
-    <row r="402" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E402" s="28"/>
-      <c r="F402" s="28"/>
-      <c r="G402" s="28"/>
-      <c r="H402" s="28"/>
-      <c r="I402" s="28"/>
-      <c r="N402" s="33"/>
-      <c r="O402" s="33"/>
-      <c r="Q402" s="34"/>
-      <c r="T402" s="35"/>
-      <c r="U402" s="35"/>
-    </row>
-    <row r="403" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E403" s="28"/>
-      <c r="F403" s="28"/>
-      <c r="G403" s="28"/>
-      <c r="H403" s="28"/>
-      <c r="I403" s="28"/>
-      <c r="N403" s="33"/>
-      <c r="O403" s="33"/>
-      <c r="Q403" s="34"/>
-      <c r="T403" s="35"/>
-      <c r="U403" s="35"/>
-    </row>
-    <row r="404" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E404" s="28"/>
-      <c r="F404" s="28"/>
-      <c r="G404" s="28"/>
-      <c r="H404" s="28"/>
-      <c r="I404" s="28"/>
-      <c r="N404" s="33"/>
-      <c r="O404" s="33"/>
-      <c r="Q404" s="34"/>
-      <c r="T404" s="35"/>
-      <c r="U404" s="35"/>
-    </row>
-    <row r="405" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E405" s="28"/>
-      <c r="F405" s="28"/>
-      <c r="G405" s="28"/>
-      <c r="H405" s="28"/>
-      <c r="I405" s="28"/>
-      <c r="N405" s="33"/>
-      <c r="O405" s="33"/>
-      <c r="Q405" s="34"/>
-      <c r="T405" s="35"/>
-      <c r="U405" s="35"/>
-    </row>
-    <row r="406" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E406" s="28"/>
-      <c r="F406" s="28"/>
-      <c r="G406" s="28"/>
-      <c r="H406" s="28"/>
-      <c r="I406" s="28"/>
-      <c r="N406" s="33"/>
-      <c r="O406" s="33"/>
-      <c r="Q406" s="34"/>
-      <c r="T406" s="35"/>
-      <c r="U406" s="35"/>
-    </row>
-    <row r="407" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E407" s="28"/>
-      <c r="F407" s="28"/>
-      <c r="G407" s="28"/>
-      <c r="H407" s="28"/>
-      <c r="I407" s="28"/>
-      <c r="N407" s="33"/>
-      <c r="O407" s="33"/>
-      <c r="Q407" s="34"/>
-      <c r="T407" s="35"/>
-      <c r="U407" s="35"/>
-    </row>
-    <row r="408" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E408" s="28"/>
-      <c r="F408" s="28"/>
-      <c r="G408" s="28"/>
-      <c r="H408" s="28"/>
-      <c r="I408" s="28"/>
-      <c r="N408" s="33"/>
-      <c r="O408" s="33"/>
-      <c r="Q408" s="34"/>
-      <c r="T408" s="35"/>
-      <c r="U408" s="35"/>
-    </row>
-    <row r="409" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E409" s="28"/>
-      <c r="F409" s="28"/>
-      <c r="G409" s="28"/>
-      <c r="H409" s="28"/>
-      <c r="I409" s="28"/>
-      <c r="N409" s="33"/>
-      <c r="O409" s="33"/>
-      <c r="Q409" s="34"/>
-      <c r="T409" s="35"/>
-      <c r="U409" s="35"/>
-    </row>
-    <row r="410" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E410" s="28"/>
-      <c r="F410" s="28"/>
-      <c r="G410" s="28"/>
-      <c r="H410" s="28"/>
-      <c r="I410" s="28"/>
-      <c r="N410" s="33"/>
-      <c r="O410" s="33"/>
-      <c r="Q410" s="34"/>
-      <c r="T410" s="35"/>
-      <c r="U410" s="35"/>
-    </row>
-    <row r="411" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E411" s="28"/>
-      <c r="F411" s="28"/>
-      <c r="G411" s="28"/>
-      <c r="H411" s="28"/>
-      <c r="I411" s="28"/>
-      <c r="N411" s="33"/>
-      <c r="O411" s="33"/>
-      <c r="Q411" s="34"/>
-      <c r="T411" s="35"/>
-      <c r="U411" s="35"/>
-    </row>
-    <row r="412" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E412" s="28"/>
-      <c r="F412" s="28"/>
-      <c r="G412" s="28"/>
-      <c r="H412" s="28"/>
-      <c r="I412" s="28"/>
-      <c r="N412" s="33"/>
-      <c r="O412" s="33"/>
-      <c r="Q412" s="34"/>
-      <c r="T412" s="35"/>
-      <c r="U412" s="35"/>
-    </row>
-    <row r="413" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E413" s="28"/>
-      <c r="F413" s="28"/>
-      <c r="G413" s="28"/>
-      <c r="H413" s="28"/>
-      <c r="I413" s="28"/>
-      <c r="N413" s="33"/>
-      <c r="O413" s="33"/>
-      <c r="Q413" s="34"/>
-      <c r="T413" s="35"/>
-      <c r="U413" s="35"/>
-    </row>
-    <row r="414" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E414" s="28"/>
-      <c r="F414" s="28"/>
-      <c r="G414" s="28"/>
-      <c r="H414" s="28"/>
-      <c r="I414" s="28"/>
-      <c r="N414" s="33"/>
-      <c r="O414" s="33"/>
-      <c r="Q414" s="34"/>
-      <c r="T414" s="35"/>
-      <c r="U414" s="35"/>
-    </row>
-    <row r="415" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E415" s="28"/>
-      <c r="F415" s="28"/>
-      <c r="G415" s="28"/>
-      <c r="H415" s="28"/>
-      <c r="I415" s="28"/>
-      <c r="N415" s="33"/>
-      <c r="O415" s="33"/>
-      <c r="Q415" s="34"/>
-      <c r="T415" s="35"/>
-      <c r="U415" s="35"/>
-    </row>
-    <row r="416" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E416" s="28"/>
-      <c r="F416" s="28"/>
-      <c r="G416" s="28"/>
-      <c r="H416" s="28"/>
-      <c r="I416" s="28"/>
-      <c r="N416" s="33"/>
-      <c r="O416" s="33"/>
-      <c r="Q416" s="34"/>
-      <c r="T416" s="35"/>
-      <c r="U416" s="35"/>
-    </row>
-    <row r="417" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E417" s="28"/>
-      <c r="F417" s="28"/>
-      <c r="G417" s="28"/>
-      <c r="H417" s="28"/>
-      <c r="I417" s="28"/>
-      <c r="N417" s="33"/>
-      <c r="O417" s="33"/>
-      <c r="Q417" s="34"/>
-      <c r="T417" s="35"/>
-      <c r="U417" s="35"/>
-    </row>
-    <row r="418" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E418" s="28"/>
-      <c r="F418" s="28"/>
-      <c r="G418" s="28"/>
-      <c r="H418" s="28"/>
-      <c r="I418" s="28"/>
-      <c r="N418" s="33"/>
-      <c r="O418" s="33"/>
-      <c r="Q418" s="34"/>
-      <c r="T418" s="35"/>
-      <c r="U418" s="35"/>
-    </row>
-    <row r="419" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E419" s="28"/>
-      <c r="F419" s="28"/>
-      <c r="G419" s="28"/>
-      <c r="H419" s="28"/>
-      <c r="I419" s="28"/>
-      <c r="N419" s="33"/>
-      <c r="O419" s="33"/>
-      <c r="Q419" s="34"/>
-      <c r="T419" s="35"/>
-      <c r="U419" s="35"/>
-    </row>
-    <row r="420" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E420" s="28"/>
-      <c r="F420" s="28"/>
-      <c r="G420" s="28"/>
-      <c r="H420" s="28"/>
-      <c r="I420" s="28"/>
-      <c r="N420" s="33"/>
-      <c r="O420" s="33"/>
-      <c r="Q420" s="34"/>
-      <c r="T420" s="35"/>
-      <c r="U420" s="35"/>
-    </row>
-    <row r="421" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E421" s="28"/>
-      <c r="F421" s="28"/>
-      <c r="G421" s="28"/>
-      <c r="H421" s="28"/>
-      <c r="I421" s="28"/>
-      <c r="N421" s="33"/>
-      <c r="O421" s="33"/>
-      <c r="Q421" s="34"/>
-      <c r="T421" s="35"/>
-      <c r="U421" s="35"/>
-    </row>
-    <row r="422" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E422" s="28"/>
-      <c r="F422" s="28"/>
-      <c r="G422" s="28"/>
-      <c r="H422" s="28"/>
-      <c r="I422" s="28"/>
-      <c r="N422" s="33"/>
-      <c r="O422" s="33"/>
-      <c r="Q422" s="34"/>
-      <c r="T422" s="35"/>
-      <c r="U422" s="35"/>
-    </row>
-    <row r="423" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E423" s="28"/>
-      <c r="F423" s="28"/>
-      <c r="G423" s="28"/>
-      <c r="H423" s="28"/>
-      <c r="I423" s="28"/>
-      <c r="N423" s="33"/>
-      <c r="O423" s="33"/>
-      <c r="Q423" s="34"/>
-      <c r="T423" s="35"/>
-      <c r="U423" s="35"/>
-    </row>
-    <row r="424" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E424" s="28"/>
-      <c r="F424" s="28"/>
-      <c r="G424" s="28"/>
-      <c r="H424" s="28"/>
-      <c r="I424" s="28"/>
-      <c r="N424" s="33"/>
-      <c r="O424" s="33"/>
-      <c r="Q424" s="34"/>
-      <c r="T424" s="35"/>
-      <c r="U424" s="35"/>
-    </row>
-    <row r="425" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E425" s="28"/>
-      <c r="F425" s="28"/>
-      <c r="G425" s="28"/>
-      <c r="H425" s="28"/>
-      <c r="I425" s="28"/>
-      <c r="N425" s="33"/>
-      <c r="O425" s="33"/>
-      <c r="Q425" s="34"/>
-      <c r="T425" s="35"/>
-      <c r="U425" s="35"/>
-    </row>
-    <row r="426" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E426" s="28"/>
-      <c r="F426" s="28"/>
-      <c r="G426" s="28"/>
-      <c r="H426" s="28"/>
-      <c r="I426" s="28"/>
-      <c r="N426" s="33"/>
-      <c r="O426" s="33"/>
-      <c r="Q426" s="34"/>
-      <c r="T426" s="35"/>
-      <c r="U426" s="35"/>
-    </row>
-    <row r="427" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E427" s="28"/>
-      <c r="F427" s="28"/>
-      <c r="G427" s="28"/>
-      <c r="H427" s="28"/>
-      <c r="I427" s="28"/>
-      <c r="N427" s="33"/>
-      <c r="O427" s="33"/>
-      <c r="Q427" s="34"/>
-      <c r="T427" s="35"/>
-      <c r="U427" s="35"/>
-    </row>
-    <row r="428" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E428" s="28"/>
-      <c r="F428" s="28"/>
-      <c r="G428" s="28"/>
-      <c r="H428" s="28"/>
-      <c r="I428" s="28"/>
-      <c r="N428" s="33"/>
-      <c r="O428" s="33"/>
-      <c r="Q428" s="34"/>
-      <c r="T428" s="35"/>
-      <c r="U428" s="35"/>
-    </row>
-    <row r="429" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E429" s="28"/>
-      <c r="F429" s="28"/>
-      <c r="G429" s="28"/>
-      <c r="H429" s="28"/>
-      <c r="I429" s="28"/>
-      <c r="N429" s="33"/>
-      <c r="O429" s="33"/>
-      <c r="Q429" s="34"/>
-      <c r="T429" s="35"/>
-      <c r="U429" s="35"/>
-    </row>
-    <row r="430" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E430" s="28"/>
-      <c r="F430" s="28"/>
-      <c r="G430" s="28"/>
-      <c r="H430" s="28"/>
-      <c r="I430" s="28"/>
-      <c r="N430" s="33"/>
-      <c r="O430" s="33"/>
-      <c r="Q430" s="34"/>
-      <c r="T430" s="35"/>
-      <c r="U430" s="35"/>
-    </row>
-    <row r="431" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E431" s="28"/>
-      <c r="F431" s="28"/>
-      <c r="G431" s="28"/>
-      <c r="H431" s="28"/>
-      <c r="I431" s="28"/>
-      <c r="N431" s="33"/>
-      <c r="O431" s="33"/>
-      <c r="Q431" s="34"/>
-      <c r="T431" s="35"/>
-      <c r="U431" s="35"/>
-    </row>
-    <row r="432" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E432" s="28"/>
-      <c r="F432" s="28"/>
-      <c r="G432" s="28"/>
-      <c r="H432" s="28"/>
-      <c r="I432" s="28"/>
-      <c r="N432" s="33"/>
-      <c r="O432" s="33"/>
-      <c r="Q432" s="34"/>
-      <c r="T432" s="35"/>
-      <c r="U432" s="35"/>
-    </row>
-    <row r="433" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E433" s="28"/>
-      <c r="F433" s="28"/>
-      <c r="G433" s="28"/>
-      <c r="H433" s="28"/>
-      <c r="I433" s="28"/>
-      <c r="N433" s="33"/>
-      <c r="O433" s="33"/>
-      <c r="Q433" s="34"/>
-      <c r="T433" s="35"/>
-      <c r="U433" s="35"/>
-    </row>
-    <row r="434" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E434" s="28"/>
-      <c r="F434" s="28"/>
-      <c r="G434" s="28"/>
-      <c r="H434" s="28"/>
-      <c r="I434" s="28"/>
-      <c r="N434" s="33"/>
-      <c r="O434" s="33"/>
-      <c r="Q434" s="34"/>
-      <c r="T434" s="35"/>
-      <c r="U434" s="35"/>
-    </row>
-    <row r="435" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E435" s="28"/>
-      <c r="F435" s="28"/>
-      <c r="G435" s="28"/>
-      <c r="H435" s="28"/>
-      <c r="I435" s="28"/>
-      <c r="N435" s="33"/>
-      <c r="O435" s="33"/>
-      <c r="Q435" s="34"/>
-      <c r="T435" s="35"/>
-      <c r="U435" s="35"/>
-    </row>
-    <row r="436" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E436" s="28"/>
-      <c r="F436" s="28"/>
-      <c r="G436" s="28"/>
-      <c r="H436" s="28"/>
-      <c r="I436" s="28"/>
-      <c r="N436" s="33"/>
-      <c r="O436" s="33"/>
-      <c r="Q436" s="34"/>
-      <c r="T436" s="35"/>
-      <c r="U436" s="35"/>
-    </row>
-    <row r="437" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E437" s="28"/>
-      <c r="F437" s="28"/>
-      <c r="G437" s="28"/>
-      <c r="H437" s="28"/>
-      <c r="I437" s="28"/>
-      <c r="N437" s="33"/>
-      <c r="O437" s="33"/>
-      <c r="Q437" s="34"/>
-      <c r="T437" s="35"/>
-      <c r="U437" s="35"/>
-    </row>
-    <row r="438" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E438" s="28"/>
-      <c r="F438" s="28"/>
-      <c r="G438" s="28"/>
-      <c r="H438" s="28"/>
-      <c r="I438" s="28"/>
-      <c r="N438" s="33"/>
-      <c r="O438" s="33"/>
-      <c r="Q438" s="34"/>
-      <c r="T438" s="35"/>
-      <c r="U438" s="35"/>
-    </row>
-    <row r="439" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E439" s="28"/>
-      <c r="F439" s="28"/>
-      <c r="G439" s="28"/>
-      <c r="H439" s="28"/>
-      <c r="I439" s="28"/>
-      <c r="N439" s="33"/>
-      <c r="O439" s="33"/>
-      <c r="Q439" s="34"/>
-      <c r="T439" s="35"/>
-      <c r="U439" s="35"/>
-    </row>
-    <row r="440" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E440" s="28"/>
-      <c r="F440" s="28"/>
-      <c r="G440" s="28"/>
-      <c r="H440" s="28"/>
-      <c r="I440" s="28"/>
-      <c r="N440" s="33"/>
-      <c r="O440" s="33"/>
-      <c r="Q440" s="34"/>
-      <c r="T440" s="35"/>
-      <c r="U440" s="35"/>
-    </row>
-    <row r="441" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E441" s="28"/>
-      <c r="F441" s="28"/>
-      <c r="G441" s="28"/>
-      <c r="H441" s="28"/>
-      <c r="I441" s="28"/>
-      <c r="N441" s="33"/>
-      <c r="O441" s="33"/>
-      <c r="Q441" s="34"/>
-      <c r="T441" s="35"/>
-      <c r="U441" s="35"/>
-    </row>
-    <row r="442" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E442" s="28"/>
-      <c r="F442" s="28"/>
-      <c r="G442" s="28"/>
-      <c r="H442" s="28"/>
-      <c r="I442" s="28"/>
-      <c r="N442" s="33"/>
-      <c r="O442" s="33"/>
-      <c r="Q442" s="34"/>
-      <c r="T442" s="35"/>
-      <c r="U442" s="35"/>
-    </row>
-    <row r="443" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E443" s="28"/>
-      <c r="F443" s="28"/>
-      <c r="G443" s="28"/>
-      <c r="H443" s="28"/>
-      <c r="I443" s="28"/>
-      <c r="N443" s="33"/>
-      <c r="O443" s="33"/>
-      <c r="Q443" s="34"/>
-      <c r="T443" s="35"/>
-      <c r="U443" s="35"/>
-    </row>
-    <row r="444" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E444" s="28"/>
-      <c r="F444" s="28"/>
-      <c r="G444" s="28"/>
-      <c r="H444" s="28"/>
-      <c r="I444" s="28"/>
-      <c r="N444" s="33"/>
-      <c r="O444" s="33"/>
-      <c r="Q444" s="34"/>
-      <c r="T444" s="35"/>
-      <c r="U444" s="35"/>
-    </row>
-    <row r="445" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E445" s="28"/>
-      <c r="F445" s="28"/>
-      <c r="G445" s="28"/>
-      <c r="H445" s="28"/>
-      <c r="I445" s="28"/>
-      <c r="N445" s="33"/>
-      <c r="O445" s="33"/>
-      <c r="Q445" s="34"/>
-      <c r="T445" s="35"/>
-      <c r="U445" s="35"/>
-    </row>
-    <row r="446" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E446" s="28"/>
-      <c r="F446" s="28"/>
-      <c r="G446" s="28"/>
-      <c r="H446" s="28"/>
-      <c r="I446" s="28"/>
-      <c r="N446" s="33"/>
-      <c r="O446" s="33"/>
-      <c r="Q446" s="34"/>
-      <c r="T446" s="35"/>
-      <c r="U446" s="35"/>
-    </row>
-    <row r="447" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E447" s="28"/>
-      <c r="F447" s="28"/>
-      <c r="G447" s="28"/>
-      <c r="H447" s="28"/>
-      <c r="I447" s="28"/>
-      <c r="N447" s="33"/>
-      <c r="O447" s="33"/>
-      <c r="Q447" s="34"/>
-      <c r="T447" s="35"/>
-      <c r="U447" s="35"/>
-    </row>
-    <row r="448" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E448" s="28"/>
-      <c r="F448" s="28"/>
-      <c r="G448" s="28"/>
-      <c r="H448" s="28"/>
-      <c r="I448" s="28"/>
-      <c r="N448" s="33"/>
-      <c r="O448" s="33"/>
-      <c r="Q448" s="34"/>
-      <c r="T448" s="35"/>
-      <c r="U448" s="35"/>
-    </row>
-    <row r="449" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E449" s="28"/>
-      <c r="F449" s="28"/>
-      <c r="G449" s="28"/>
-      <c r="H449" s="28"/>
-      <c r="I449" s="28"/>
-      <c r="N449" s="33"/>
-      <c r="O449" s="33"/>
-      <c r="Q449" s="34"/>
-      <c r="T449" s="35"/>
-      <c r="U449" s="35"/>
-    </row>
-    <row r="450" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E450" s="28"/>
-      <c r="F450" s="28"/>
-      <c r="G450" s="28"/>
-      <c r="H450" s="28"/>
-      <c r="I450" s="28"/>
-      <c r="N450" s="33"/>
-      <c r="O450" s="33"/>
-      <c r="Q450" s="34"/>
-      <c r="T450" s="35"/>
-      <c r="U450" s="35"/>
-    </row>
-    <row r="451" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E451" s="28"/>
-      <c r="F451" s="28"/>
-      <c r="G451" s="28"/>
-      <c r="H451" s="28"/>
-      <c r="I451" s="28"/>
-      <c r="N451" s="33"/>
-      <c r="O451" s="33"/>
-      <c r="Q451" s="34"/>
-      <c r="T451" s="35"/>
-      <c r="U451" s="35"/>
-    </row>
-    <row r="452" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E452" s="28"/>
-      <c r="F452" s="28"/>
-      <c r="G452" s="28"/>
-      <c r="H452" s="28"/>
-      <c r="I452" s="28"/>
-      <c r="N452" s="33"/>
-      <c r="O452" s="33"/>
-      <c r="Q452" s="34"/>
-      <c r="T452" s="35"/>
-      <c r="U452" s="35"/>
-    </row>
-    <row r="453" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E453" s="28"/>
-      <c r="F453" s="28"/>
-      <c r="G453" s="28"/>
-      <c r="H453" s="28"/>
-      <c r="I453" s="28"/>
-      <c r="N453" s="33"/>
-      <c r="O453" s="33"/>
-      <c r="Q453" s="34"/>
-      <c r="T453" s="35"/>
-      <c r="U453" s="35"/>
-    </row>
-    <row r="454" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E454" s="28"/>
-      <c r="F454" s="28"/>
-      <c r="G454" s="28"/>
-      <c r="H454" s="28"/>
-      <c r="I454" s="28"/>
-      <c r="N454" s="33"/>
-      <c r="O454" s="33"/>
-      <c r="Q454" s="34"/>
-      <c r="T454" s="35"/>
-      <c r="U454" s="35"/>
-    </row>
-    <row r="455" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E455" s="28"/>
-      <c r="F455" s="28"/>
-      <c r="G455" s="28"/>
-      <c r="H455" s="28"/>
-      <c r="I455" s="28"/>
-      <c r="N455" s="33"/>
-      <c r="O455" s="33"/>
-      <c r="Q455" s="34"/>
-      <c r="T455" s="35"/>
-      <c r="U455" s="35"/>
-    </row>
-    <row r="456" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E456" s="28"/>
-      <c r="F456" s="28"/>
-      <c r="G456" s="28"/>
-      <c r="H456" s="28"/>
-      <c r="I456" s="28"/>
-      <c r="N456" s="33"/>
-      <c r="O456" s="33"/>
-      <c r="Q456" s="34"/>
-      <c r="T456" s="35"/>
-      <c r="U456" s="35"/>
-    </row>
-    <row r="457" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E457" s="28"/>
-      <c r="F457" s="28"/>
-      <c r="G457" s="28"/>
-      <c r="H457" s="28"/>
-      <c r="I457" s="28"/>
-      <c r="N457" s="33"/>
-      <c r="O457" s="33"/>
-      <c r="Q457" s="34"/>
-      <c r="T457" s="35"/>
-      <c r="U457" s="35"/>
-    </row>
-    <row r="458" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E458" s="28"/>
-      <c r="F458" s="28"/>
-      <c r="G458" s="28"/>
-      <c r="H458" s="28"/>
-      <c r="I458" s="28"/>
-      <c r="N458" s="33"/>
-      <c r="O458" s="33"/>
-      <c r="Q458" s="34"/>
-      <c r="T458" s="35"/>
-      <c r="U458" s="35"/>
-    </row>
-    <row r="459" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E459" s="28"/>
-      <c r="F459" s="28"/>
-      <c r="G459" s="28"/>
-      <c r="H459" s="28"/>
-      <c r="I459" s="28"/>
-      <c r="N459" s="33"/>
-      <c r="O459" s="33"/>
-      <c r="Q459" s="34"/>
-      <c r="T459" s="35"/>
-      <c r="U459" s="35"/>
-    </row>
-    <row r="460" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E460" s="28"/>
-      <c r="F460" s="28"/>
-      <c r="G460" s="28"/>
-      <c r="H460" s="28"/>
-      <c r="I460" s="28"/>
-      <c r="N460" s="33"/>
-      <c r="O460" s="33"/>
-      <c r="Q460" s="34"/>
-      <c r="T460" s="35"/>
-      <c r="U460" s="35"/>
-    </row>
-    <row r="461" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E461" s="28"/>
-      <c r="F461" s="28"/>
-      <c r="G461" s="28"/>
-      <c r="H461" s="28"/>
-      <c r="I461" s="28"/>
-      <c r="N461" s="33"/>
-      <c r="O461" s="33"/>
-      <c r="Q461" s="34"/>
-      <c r="T461" s="35"/>
-      <c r="U461" s="35"/>
-    </row>
-    <row r="462" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E462" s="28"/>
-      <c r="F462" s="28"/>
-      <c r="G462" s="28"/>
-      <c r="H462" s="28"/>
-      <c r="I462" s="28"/>
-      <c r="N462" s="33"/>
-      <c r="O462" s="33"/>
-      <c r="Q462" s="34"/>
-      <c r="T462" s="35"/>
-      <c r="U462" s="35"/>
-    </row>
-    <row r="463" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E463" s="28"/>
-      <c r="F463" s="28"/>
-      <c r="G463" s="28"/>
-      <c r="H463" s="28"/>
-      <c r="I463" s="28"/>
-      <c r="N463" s="33"/>
-      <c r="O463" s="33"/>
-      <c r="Q463" s="34"/>
-      <c r="T463" s="35"/>
-      <c r="U463" s="35"/>
-    </row>
-    <row r="464" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E464" s="28"/>
-      <c r="F464" s="28"/>
-      <c r="G464" s="28"/>
-      <c r="H464" s="28"/>
-      <c r="I464" s="28"/>
-      <c r="N464" s="33"/>
-      <c r="O464" s="33"/>
-      <c r="Q464" s="34"/>
-      <c r="T464" s="35"/>
-      <c r="U464" s="35"/>
-    </row>
-    <row r="465" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E465" s="28"/>
-      <c r="F465" s="28"/>
-      <c r="G465" s="28"/>
-      <c r="H465" s="28"/>
-      <c r="I465" s="28"/>
-      <c r="N465" s="33"/>
-      <c r="O465" s="33"/>
-      <c r="Q465" s="34"/>
-      <c r="T465" s="35"/>
-      <c r="U465" s="35"/>
-    </row>
-    <row r="466" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E466" s="28"/>
-      <c r="F466" s="28"/>
-      <c r="G466" s="28"/>
-      <c r="H466" s="28"/>
-      <c r="I466" s="28"/>
-      <c r="N466" s="33"/>
-      <c r="O466" s="33"/>
-      <c r="Q466" s="34"/>
-      <c r="T466" s="35"/>
-      <c r="U466" s="35"/>
-    </row>
-    <row r="467" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E467" s="28"/>
-      <c r="F467" s="28"/>
-      <c r="G467" s="28"/>
-      <c r="H467" s="28"/>
-      <c r="I467" s="28"/>
-      <c r="N467" s="33"/>
-      <c r="O467" s="33"/>
-      <c r="Q467" s="34"/>
-      <c r="T467" s="35"/>
-      <c r="U467" s="35"/>
-    </row>
-    <row r="468" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E468" s="28"/>
-      <c r="F468" s="28"/>
-      <c r="G468" s="28"/>
-      <c r="H468" s="28"/>
-      <c r="I468" s="28"/>
-      <c r="N468" s="33"/>
-      <c r="O468" s="33"/>
-      <c r="Q468" s="34"/>
-      <c r="T468" s="35"/>
-      <c r="U468" s="35"/>
-    </row>
-    <row r="469" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E469" s="28"/>
-      <c r="F469" s="28"/>
-      <c r="G469" s="28"/>
-      <c r="H469" s="28"/>
-      <c r="I469" s="28"/>
-      <c r="N469" s="33"/>
-      <c r="O469" s="33"/>
-      <c r="Q469" s="34"/>
-      <c r="T469" s="35"/>
-      <c r="U469" s="35"/>
-    </row>
-    <row r="470" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E470" s="28"/>
-      <c r="F470" s="28"/>
-      <c r="G470" s="28"/>
-      <c r="H470" s="28"/>
-      <c r="I470" s="28"/>
-      <c r="N470" s="33"/>
-      <c r="O470" s="33"/>
-      <c r="Q470" s="34"/>
-      <c r="T470" s="35"/>
-      <c r="U470" s="35"/>
-    </row>
-    <row r="471" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E471" s="28"/>
-      <c r="F471" s="28"/>
-      <c r="G471" s="28"/>
-      <c r="H471" s="28"/>
-      <c r="I471" s="28"/>
-      <c r="N471" s="33"/>
-      <c r="O471" s="33"/>
-      <c r="Q471" s="34"/>
-      <c r="T471" s="35"/>
-      <c r="U471" s="35"/>
-    </row>
-    <row r="472" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E472" s="28"/>
-      <c r="F472" s="28"/>
-      <c r="G472" s="28"/>
-      <c r="H472" s="28"/>
-      <c r="I472" s="28"/>
-      <c r="N472" s="33"/>
-      <c r="O472" s="33"/>
-      <c r="Q472" s="34"/>
-      <c r="T472" s="35"/>
-      <c r="U472" s="35"/>
-    </row>
-    <row r="473" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E473" s="28"/>
-      <c r="F473" s="28"/>
-      <c r="G473" s="28"/>
-      <c r="H473" s="28"/>
-      <c r="I473" s="28"/>
-      <c r="N473" s="33"/>
-      <c r="O473" s="33"/>
-      <c r="Q473" s="34"/>
-      <c r="T473" s="35"/>
-      <c r="U473" s="35"/>
-    </row>
-    <row r="474" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E474" s="28"/>
-      <c r="F474" s="28"/>
-      <c r="G474" s="28"/>
-      <c r="H474" s="28"/>
-      <c r="I474" s="28"/>
-      <c r="N474" s="33"/>
-      <c r="O474" s="33"/>
-      <c r="Q474" s="34"/>
-      <c r="T474" s="35"/>
-      <c r="U474" s="35"/>
-    </row>
-    <row r="475" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E475" s="28"/>
-      <c r="F475" s="28"/>
-      <c r="G475" s="28"/>
-      <c r="H475" s="28"/>
-      <c r="I475" s="28"/>
-      <c r="N475" s="33"/>
-      <c r="O475" s="33"/>
-      <c r="Q475" s="34"/>
-      <c r="T475" s="35"/>
-      <c r="U475" s="35"/>
-    </row>
-    <row r="476" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E476" s="28"/>
-      <c r="F476" s="28"/>
-      <c r="G476" s="28"/>
-      <c r="H476" s="28"/>
-      <c r="I476" s="28"/>
-      <c r="N476" s="33"/>
-      <c r="O476" s="33"/>
-      <c r="Q476" s="34"/>
-      <c r="T476" s="35"/>
-      <c r="U476" s="35"/>
-    </row>
-    <row r="477" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E477" s="28"/>
-      <c r="F477" s="28"/>
-      <c r="G477" s="28"/>
-      <c r="H477" s="28"/>
-      <c r="I477" s="28"/>
-      <c r="N477" s="33"/>
-      <c r="O477" s="33"/>
-      <c r="Q477" s="34"/>
-      <c r="T477" s="35"/>
-      <c r="U477" s="35"/>
-    </row>
-    <row r="478" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E478" s="28"/>
-      <c r="F478" s="28"/>
-      <c r="G478" s="28"/>
-      <c r="H478" s="28"/>
-      <c r="I478" s="28"/>
-      <c r="N478" s="33"/>
-      <c r="O478" s="33"/>
-      <c r="Q478" s="34"/>
-      <c r="T478" s="35"/>
-      <c r="U478" s="35"/>
-    </row>
-    <row r="479" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E479" s="28"/>
-      <c r="F479" s="28"/>
-      <c r="G479" s="28"/>
-      <c r="H479" s="28"/>
-      <c r="I479" s="28"/>
-      <c r="N479" s="33"/>
-      <c r="O479" s="33"/>
-      <c r="Q479" s="34"/>
-      <c r="T479" s="35"/>
-      <c r="U479" s="35"/>
-    </row>
-    <row r="480" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E480" s="28"/>
-      <c r="F480" s="28"/>
-      <c r="G480" s="28"/>
-      <c r="H480" s="28"/>
-      <c r="I480" s="28"/>
-      <c r="N480" s="33"/>
-      <c r="O480" s="33"/>
-      <c r="Q480" s="34"/>
-      <c r="T480" s="35"/>
-      <c r="U480" s="35"/>
-    </row>
-    <row r="481" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E481" s="28"/>
-      <c r="F481" s="28"/>
-      <c r="G481" s="28"/>
-      <c r="H481" s="28"/>
-      <c r="I481" s="28"/>
-      <c r="N481" s="33"/>
-      <c r="O481" s="33"/>
-      <c r="Q481" s="34"/>
-      <c r="T481" s="35"/>
-      <c r="U481" s="35"/>
-    </row>
-    <row r="482" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E482" s="28"/>
-      <c r="F482" s="28"/>
-      <c r="G482" s="28"/>
-      <c r="H482" s="28"/>
-      <c r="I482" s="28"/>
-      <c r="N482" s="33"/>
-      <c r="O482" s="33"/>
-      <c r="Q482" s="34"/>
-      <c r="T482" s="35"/>
-      <c r="U482" s="35"/>
-    </row>
-    <row r="483" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E483" s="28"/>
-      <c r="F483" s="28"/>
-      <c r="G483" s="28"/>
-      <c r="H483" s="28"/>
-      <c r="I483" s="28"/>
-      <c r="N483" s="33"/>
-      <c r="O483" s="33"/>
-      <c r="Q483" s="34"/>
-      <c r="T483" s="35"/>
-      <c r="U483" s="35"/>
-    </row>
-    <row r="484" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E484" s="28"/>
-      <c r="F484" s="28"/>
-      <c r="G484" s="28"/>
-      <c r="H484" s="28"/>
-      <c r="I484" s="28"/>
-      <c r="N484" s="33"/>
-      <c r="O484" s="33"/>
-      <c r="Q484" s="34"/>
-      <c r="T484" s="35"/>
-      <c r="U484" s="35"/>
-    </row>
-    <row r="485" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E485" s="28"/>
-      <c r="F485" s="28"/>
-      <c r="G485" s="28"/>
-      <c r="H485" s="28"/>
-      <c r="I485" s="28"/>
-      <c r="N485" s="33"/>
-      <c r="O485" s="33"/>
-      <c r="Q485" s="34"/>
-      <c r="T485" s="35"/>
-      <c r="U485" s="35"/>
-    </row>
-    <row r="486" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E486" s="28"/>
-      <c r="F486" s="28"/>
-      <c r="G486" s="28"/>
-      <c r="H486" s="28"/>
-      <c r="I486" s="28"/>
-      <c r="N486" s="33"/>
-      <c r="O486" s="33"/>
-      <c r="Q486" s="34"/>
-      <c r="T486" s="35"/>
-      <c r="U486" s="35"/>
-    </row>
-    <row r="487" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E487" s="28"/>
-      <c r="F487" s="28"/>
-      <c r="G487" s="28"/>
-      <c r="H487" s="28"/>
-      <c r="I487" s="28"/>
-      <c r="N487" s="33"/>
-      <c r="O487" s="33"/>
-      <c r="Q487" s="34"/>
-      <c r="T487" s="35"/>
-      <c r="U487" s="35"/>
-    </row>
-    <row r="488" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E488" s="28"/>
-      <c r="F488" s="28"/>
-      <c r="G488" s="28"/>
-      <c r="H488" s="28"/>
-      <c r="I488" s="28"/>
-      <c r="N488" s="33"/>
-      <c r="O488" s="33"/>
-      <c r="Q488" s="34"/>
-      <c r="T488" s="35"/>
-      <c r="U488" s="35"/>
-    </row>
-    <row r="489" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E489" s="28"/>
-      <c r="F489" s="28"/>
-      <c r="G489" s="28"/>
-      <c r="H489" s="28"/>
-      <c r="I489" s="28"/>
-      <c r="N489" s="33"/>
-      <c r="O489" s="33"/>
-      <c r="Q489" s="34"/>
-      <c r="T489" s="35"/>
-      <c r="U489" s="35"/>
-    </row>
-    <row r="490" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E490" s="28"/>
-      <c r="F490" s="28"/>
-      <c r="G490" s="28"/>
-      <c r="H490" s="28"/>
-      <c r="I490" s="28"/>
-      <c r="N490" s="33"/>
-      <c r="O490" s="33"/>
-      <c r="Q490" s="34"/>
-      <c r="T490" s="35"/>
-      <c r="U490" s="35"/>
-    </row>
-    <row r="491" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E491" s="28"/>
-      <c r="F491" s="28"/>
-      <c r="G491" s="28"/>
-      <c r="H491" s="28"/>
-      <c r="I491" s="28"/>
-      <c r="N491" s="33"/>
-      <c r="O491" s="33"/>
-      <c r="Q491" s="34"/>
-      <c r="T491" s="35"/>
-      <c r="U491" s="35"/>
-    </row>
-    <row r="492" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E492" s="28"/>
-      <c r="F492" s="28"/>
-      <c r="G492" s="28"/>
-      <c r="H492" s="28"/>
-      <c r="I492" s="28"/>
-      <c r="N492" s="33"/>
-      <c r="O492" s="33"/>
-      <c r="Q492" s="34"/>
-      <c r="T492" s="35"/>
-      <c r="U492" s="35"/>
-    </row>
-    <row r="493" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E493" s="28"/>
-      <c r="F493" s="28"/>
-      <c r="G493" s="28"/>
-      <c r="H493" s="28"/>
-      <c r="I493" s="28"/>
-      <c r="N493" s="33"/>
-      <c r="O493" s="33"/>
-      <c r="Q493" s="34"/>
-      <c r="T493" s="35"/>
-      <c r="U493" s="35"/>
-    </row>
-    <row r="494" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E494" s="28"/>
-      <c r="F494" s="28"/>
-      <c r="G494" s="28"/>
-      <c r="H494" s="28"/>
-      <c r="I494" s="28"/>
-      <c r="N494" s="33"/>
-      <c r="O494" s="33"/>
-      <c r="Q494" s="34"/>
-      <c r="T494" s="35"/>
-      <c r="U494" s="35"/>
-    </row>
-    <row r="495" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E495" s="28"/>
-      <c r="F495" s="28"/>
-      <c r="G495" s="28"/>
-      <c r="H495" s="28"/>
-      <c r="I495" s="28"/>
-      <c r="N495" s="33"/>
-      <c r="O495" s="33"/>
-      <c r="Q495" s="34"/>
-      <c r="T495" s="35"/>
-      <c r="U495" s="35"/>
-    </row>
-    <row r="496" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E496" s="28"/>
-      <c r="F496" s="28"/>
-      <c r="G496" s="28"/>
-      <c r="H496" s="28"/>
-      <c r="I496" s="28"/>
-      <c r="N496" s="33"/>
-      <c r="O496" s="33"/>
-      <c r="Q496" s="34"/>
-      <c r="T496" s="35"/>
-      <c r="U496" s="35"/>
-    </row>
-    <row r="497" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E497" s="28"/>
-      <c r="F497" s="28"/>
-      <c r="G497" s="28"/>
-      <c r="H497" s="28"/>
-      <c r="I497" s="28"/>
-      <c r="N497" s="33"/>
-      <c r="O497" s="33"/>
-      <c r="Q497" s="34"/>
-      <c r="T497" s="35"/>
-      <c r="U497" s="35"/>
-    </row>
-    <row r="498" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E498" s="28"/>
-      <c r="F498" s="28"/>
-      <c r="G498" s="28"/>
-      <c r="H498" s="28"/>
-      <c r="I498" s="28"/>
-      <c r="N498" s="33"/>
-      <c r="O498" s="33"/>
-      <c r="Q498" s="34"/>
-      <c r="T498" s="35"/>
-      <c r="U498" s="35"/>
-    </row>
-    <row r="499" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E499" s="28"/>
-      <c r="F499" s="28"/>
-      <c r="G499" s="28"/>
-      <c r="H499" s="28"/>
-      <c r="I499" s="28"/>
-      <c r="N499" s="33"/>
-      <c r="O499" s="33"/>
-      <c r="Q499" s="34"/>
-      <c r="T499" s="35"/>
-      <c r="U499" s="35"/>
-    </row>
-    <row r="500" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E500" s="28"/>
-      <c r="F500" s="28"/>
-      <c r="G500" s="28"/>
-      <c r="H500" s="28"/>
-      <c r="I500" s="28"/>
-      <c r="N500" s="33"/>
-      <c r="O500" s="33"/>
-      <c r="Q500" s="34"/>
-      <c r="T500" s="35"/>
-      <c r="U500" s="35"/>
-    </row>
-    <row r="501" spans="5:21" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E501" s="28"/>
-      <c r="F501" s="28"/>
-      <c r="G501" s="28"/>
-      <c r="H501" s="28"/>
-      <c r="I501" s="28"/>
-      <c r="N501" s="33"/>
-      <c r="O501" s="33"/>
-      <c r="Q501" s="34"/>
-      <c r="T501" s="35"/>
-      <c r="U501" s="35"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="26"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="26"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="26"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="34"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="26"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="34"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="26"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="34"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="26"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="34"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K8" s="26"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="34"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="26"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="34"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="26"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="34"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="26"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="34"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="26"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="34"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="26"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="34"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="26"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="34"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="26"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="34"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="26"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="34"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+    </row>
+    <row r="17" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="26"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="34"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+    </row>
+    <row r="18" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="26"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="34"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+    </row>
+    <row r="19" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="26"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="34"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+    </row>
+    <row r="20" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="26"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="34"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+    </row>
+    <row r="21" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="26"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="34"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+    </row>
+    <row r="22" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="26"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="34"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+    </row>
+    <row r="23" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="26"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="34"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+    </row>
+    <row r="24" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="26"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="34"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+    </row>
+    <row r="25" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="26"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="34"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+    </row>
+    <row r="26" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="26"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="34"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+    </row>
+    <row r="27" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K27" s="26"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="34"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+    </row>
+    <row r="28" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K28" s="26"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="34"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+    </row>
+    <row r="29" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="26"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="34"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+    </row>
+    <row r="30" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="26"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="34"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+    </row>
+    <row r="31" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K31" s="26"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="34"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+    </row>
+    <row r="32" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K32" s="26"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="34"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="26"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="34"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K34" s="26"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="34"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="26"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="34"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K36" s="26"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="34"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K37" s="26"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="34"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K38" s="26"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="34"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K39" s="26"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="34"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K40" s="26"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="34"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+    </row>
+    <row r="41" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K41" s="26"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="34"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+    </row>
+    <row r="42" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K42" s="26"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="34"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+    </row>
+    <row r="43" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K43" s="26"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="34"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+    </row>
+    <row r="44" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K44" s="26"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="34"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+    </row>
+    <row r="45" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K45" s="26"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="34"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+    </row>
+    <row r="46" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K46" s="26"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="34"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+    </row>
+    <row r="47" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K47" s="26"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="34"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+    </row>
+    <row r="48" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K48" s="26"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="34"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+    </row>
+    <row r="49" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K49" s="26"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="34"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+    </row>
+    <row r="50" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K50" s="26"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="34"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+    </row>
+    <row r="51" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K51" s="26"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="34"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+    </row>
+    <row r="52" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K52" s="26"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="34"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+    </row>
+    <row r="53" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K53" s="26"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="34"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+    </row>
+    <row r="54" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K54" s="26"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="34"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+    </row>
+    <row r="55" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K55" s="26"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="34"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+    </row>
+    <row r="56" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K56" s="26"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="34"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+    </row>
+    <row r="57" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K57" s="26"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="34"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+    </row>
+    <row r="58" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K58" s="26"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="34"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+    </row>
+    <row r="59" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K59" s="26"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="34"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+    </row>
+    <row r="60" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K60" s="26"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="34"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+    </row>
+    <row r="61" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K61" s="26"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="34"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+    </row>
+    <row r="62" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K62" s="26"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="34"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+    </row>
+    <row r="63" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K63" s="26"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="34"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+    </row>
+    <row r="64" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K64" s="26"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="34"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+    </row>
+    <row r="65" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K65" s="26"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="34"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+    </row>
+    <row r="66" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K66" s="26"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="34"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+    </row>
+    <row r="67" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K67" s="26"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="34"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+    </row>
+    <row r="68" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K68" s="26"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="34"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+    </row>
+    <row r="69" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K69" s="26"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="34"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+    </row>
+    <row r="70" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K70" s="26"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="34"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+    </row>
+    <row r="71" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K71" s="26"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="34"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+    </row>
+    <row r="72" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K72" s="26"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="34"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+    </row>
+    <row r="73" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K73" s="26"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="34"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+    </row>
+    <row r="74" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K74" s="26"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="34"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+    </row>
+    <row r="75" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K75" s="26"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="34"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+    </row>
+    <row r="76" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K76" s="26"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="34"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+    </row>
+    <row r="77" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K77" s="26"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="34"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+    </row>
+    <row r="78" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K78" s="26"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="34"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+    </row>
+    <row r="79" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K79" s="26"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="34"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+    </row>
+    <row r="80" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K80" s="26"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="34"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+    </row>
+    <row r="81" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K81" s="26"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="34"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+    </row>
+    <row r="82" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K82" s="26"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="34"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+    </row>
+    <row r="83" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K83" s="26"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="34"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+    </row>
+    <row r="84" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K84" s="26"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="34"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+    </row>
+    <row r="85" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K85" s="26"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="34"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+    </row>
+    <row r="86" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K86" s="26"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="34"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+    </row>
+    <row r="87" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K87" s="26"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="34"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+    </row>
+    <row r="88" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K88" s="26"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="34"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+    </row>
+    <row r="89" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K89" s="26"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="34"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+    </row>
+    <row r="90" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K90" s="26"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="34"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+    </row>
+    <row r="91" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K91" s="26"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="34"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+    </row>
+    <row r="92" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K92" s="26"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="34"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+    </row>
+    <row r="93" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K93" s="26"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="34"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+    </row>
+    <row r="94" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K94" s="26"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="34"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+    </row>
+    <row r="95" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K95" s="26"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="34"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+    </row>
+    <row r="96" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K96" s="26"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="34"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+    </row>
+    <row r="97" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K97" s="26"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="34"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+    </row>
+    <row r="98" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K98" s="26"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="34"/>
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+    </row>
+    <row r="99" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K99" s="26"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="34"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+    </row>
+    <row r="100" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K100" s="26"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="34"/>
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+    </row>
+    <row r="101" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K101" s="26"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="34"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+    </row>
+    <row r="102" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K102" s="26"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="34"/>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="35"/>
+    </row>
+    <row r="103" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K103" s="26"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="26"/>
+      <c r="O103" s="34"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
+    </row>
+    <row r="104" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K104" s="26"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="34"/>
+      <c r="Q104" s="35"/>
+      <c r="R104" s="35"/>
+    </row>
+    <row r="105" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K105" s="26"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="26"/>
+      <c r="O105" s="34"/>
+      <c r="Q105" s="35"/>
+      <c r="R105" s="35"/>
+    </row>
+    <row r="106" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K106" s="26"/>
+      <c r="M106" s="33"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="34"/>
+      <c r="Q106" s="35"/>
+      <c r="R106" s="35"/>
+    </row>
+    <row r="107" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K107" s="26"/>
+      <c r="M107" s="33"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="34"/>
+      <c r="Q107" s="35"/>
+      <c r="R107" s="35"/>
+    </row>
+    <row r="108" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K108" s="26"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="34"/>
+      <c r="Q108" s="35"/>
+      <c r="R108" s="35"/>
+    </row>
+    <row r="109" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K109" s="26"/>
+      <c r="M109" s="33"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="34"/>
+      <c r="Q109" s="35"/>
+      <c r="R109" s="35"/>
+    </row>
+    <row r="110" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K110" s="26"/>
+      <c r="M110" s="33"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="34"/>
+      <c r="Q110" s="35"/>
+      <c r="R110" s="35"/>
+    </row>
+    <row r="111" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K111" s="26"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="26"/>
+      <c r="O111" s="34"/>
+      <c r="Q111" s="35"/>
+      <c r="R111" s="35"/>
+    </row>
+    <row r="112" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K112" s="26"/>
+      <c r="M112" s="33"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="34"/>
+      <c r="Q112" s="35"/>
+      <c r="R112" s="35"/>
+    </row>
+    <row r="113" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K113" s="26"/>
+      <c r="M113" s="33"/>
+      <c r="N113" s="26"/>
+      <c r="O113" s="34"/>
+      <c r="Q113" s="35"/>
+      <c r="R113" s="35"/>
+    </row>
+    <row r="114" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K114" s="26"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="26"/>
+      <c r="O114" s="34"/>
+      <c r="Q114" s="35"/>
+      <c r="R114" s="35"/>
+    </row>
+    <row r="115" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K115" s="26"/>
+      <c r="M115" s="33"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="34"/>
+      <c r="Q115" s="35"/>
+      <c r="R115" s="35"/>
+    </row>
+    <row r="116" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K116" s="26"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="26"/>
+      <c r="O116" s="34"/>
+      <c r="Q116" s="35"/>
+      <c r="R116" s="35"/>
+    </row>
+    <row r="117" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K117" s="26"/>
+      <c r="M117" s="33"/>
+      <c r="N117" s="26"/>
+      <c r="O117" s="34"/>
+      <c r="Q117" s="35"/>
+      <c r="R117" s="35"/>
+    </row>
+    <row r="118" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K118" s="26"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="34"/>
+      <c r="Q118" s="35"/>
+      <c r="R118" s="35"/>
+    </row>
+    <row r="119" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K119" s="26"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="34"/>
+      <c r="Q119" s="35"/>
+      <c r="R119" s="35"/>
+    </row>
+    <row r="120" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K120" s="26"/>
+      <c r="M120" s="33"/>
+      <c r="N120" s="26"/>
+      <c r="O120" s="34"/>
+      <c r="Q120" s="35"/>
+      <c r="R120" s="35"/>
+    </row>
+    <row r="121" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K121" s="26"/>
+      <c r="M121" s="33"/>
+      <c r="N121" s="26"/>
+      <c r="O121" s="34"/>
+      <c r="Q121" s="35"/>
+      <c r="R121" s="35"/>
+    </row>
+    <row r="122" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K122" s="26"/>
+      <c r="M122" s="33"/>
+      <c r="N122" s="26"/>
+      <c r="O122" s="34"/>
+      <c r="Q122" s="35"/>
+      <c r="R122" s="35"/>
+    </row>
+    <row r="123" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K123" s="26"/>
+      <c r="M123" s="33"/>
+      <c r="N123" s="26"/>
+      <c r="O123" s="34"/>
+      <c r="Q123" s="35"/>
+      <c r="R123" s="35"/>
+    </row>
+    <row r="124" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K124" s="26"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="26"/>
+      <c r="O124" s="34"/>
+      <c r="Q124" s="35"/>
+      <c r="R124" s="35"/>
+    </row>
+    <row r="125" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K125" s="26"/>
+      <c r="M125" s="33"/>
+      <c r="N125" s="26"/>
+      <c r="O125" s="34"/>
+      <c r="Q125" s="35"/>
+      <c r="R125" s="35"/>
+    </row>
+    <row r="126" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K126" s="26"/>
+      <c r="M126" s="33"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="34"/>
+      <c r="Q126" s="35"/>
+      <c r="R126" s="35"/>
+    </row>
+    <row r="127" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K127" s="26"/>
+      <c r="M127" s="33"/>
+      <c r="N127" s="26"/>
+      <c r="O127" s="34"/>
+      <c r="Q127" s="35"/>
+      <c r="R127" s="35"/>
+    </row>
+    <row r="128" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K128" s="26"/>
+      <c r="M128" s="33"/>
+      <c r="N128" s="26"/>
+      <c r="O128" s="34"/>
+      <c r="Q128" s="35"/>
+      <c r="R128" s="35"/>
+    </row>
+    <row r="129" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K129" s="26"/>
+      <c r="M129" s="33"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="34"/>
+      <c r="Q129" s="35"/>
+      <c r="R129" s="35"/>
+    </row>
+    <row r="130" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K130" s="26"/>
+      <c r="M130" s="33"/>
+      <c r="N130" s="26"/>
+      <c r="O130" s="34"/>
+      <c r="Q130" s="35"/>
+      <c r="R130" s="35"/>
+    </row>
+    <row r="131" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K131" s="26"/>
+      <c r="M131" s="33"/>
+      <c r="N131" s="26"/>
+      <c r="O131" s="34"/>
+      <c r="Q131" s="35"/>
+      <c r="R131" s="35"/>
+    </row>
+    <row r="132" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K132" s="26"/>
+      <c r="M132" s="33"/>
+      <c r="N132" s="26"/>
+      <c r="O132" s="34"/>
+      <c r="Q132" s="35"/>
+      <c r="R132" s="35"/>
+    </row>
+    <row r="133" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K133" s="26"/>
+      <c r="M133" s="33"/>
+      <c r="N133" s="26"/>
+      <c r="O133" s="34"/>
+      <c r="Q133" s="35"/>
+      <c r="R133" s="35"/>
+    </row>
+    <row r="134" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K134" s="26"/>
+      <c r="M134" s="33"/>
+      <c r="N134" s="26"/>
+      <c r="O134" s="34"/>
+      <c r="Q134" s="35"/>
+      <c r="R134" s="35"/>
+    </row>
+    <row r="135" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K135" s="26"/>
+      <c r="M135" s="33"/>
+      <c r="N135" s="26"/>
+      <c r="O135" s="34"/>
+      <c r="Q135" s="35"/>
+      <c r="R135" s="35"/>
+    </row>
+    <row r="136" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K136" s="26"/>
+      <c r="M136" s="33"/>
+      <c r="N136" s="26"/>
+      <c r="O136" s="34"/>
+      <c r="Q136" s="35"/>
+      <c r="R136" s="35"/>
+    </row>
+    <row r="137" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K137" s="26"/>
+      <c r="M137" s="33"/>
+      <c r="N137" s="26"/>
+      <c r="O137" s="34"/>
+      <c r="Q137" s="35"/>
+      <c r="R137" s="35"/>
+    </row>
+    <row r="138" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K138" s="26"/>
+      <c r="M138" s="33"/>
+      <c r="N138" s="26"/>
+      <c r="O138" s="34"/>
+      <c r="Q138" s="35"/>
+      <c r="R138" s="35"/>
+    </row>
+    <row r="139" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K139" s="26"/>
+      <c r="M139" s="33"/>
+      <c r="N139" s="26"/>
+      <c r="O139" s="34"/>
+      <c r="Q139" s="35"/>
+      <c r="R139" s="35"/>
+    </row>
+    <row r="140" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K140" s="26"/>
+      <c r="M140" s="33"/>
+      <c r="N140" s="26"/>
+      <c r="O140" s="34"/>
+      <c r="Q140" s="35"/>
+      <c r="R140" s="35"/>
+    </row>
+    <row r="141" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K141" s="26"/>
+      <c r="M141" s="33"/>
+      <c r="N141" s="26"/>
+      <c r="O141" s="34"/>
+      <c r="Q141" s="35"/>
+      <c r="R141" s="35"/>
+    </row>
+    <row r="142" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K142" s="26"/>
+      <c r="M142" s="33"/>
+      <c r="N142" s="26"/>
+      <c r="O142" s="34"/>
+      <c r="Q142" s="35"/>
+      <c r="R142" s="35"/>
+    </row>
+    <row r="143" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K143" s="26"/>
+      <c r="M143" s="33"/>
+      <c r="N143" s="26"/>
+      <c r="O143" s="34"/>
+      <c r="Q143" s="35"/>
+      <c r="R143" s="35"/>
+    </row>
+    <row r="144" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K144" s="26"/>
+      <c r="M144" s="33"/>
+      <c r="N144" s="26"/>
+      <c r="O144" s="34"/>
+      <c r="Q144" s="35"/>
+      <c r="R144" s="35"/>
+    </row>
+    <row r="145" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K145" s="26"/>
+      <c r="M145" s="33"/>
+      <c r="N145" s="26"/>
+      <c r="O145" s="34"/>
+      <c r="Q145" s="35"/>
+      <c r="R145" s="35"/>
+    </row>
+    <row r="146" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K146" s="26"/>
+      <c r="M146" s="33"/>
+      <c r="N146" s="26"/>
+      <c r="O146" s="34"/>
+      <c r="Q146" s="35"/>
+      <c r="R146" s="35"/>
+    </row>
+    <row r="147" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K147" s="26"/>
+      <c r="M147" s="33"/>
+      <c r="N147" s="26"/>
+      <c r="O147" s="34"/>
+      <c r="Q147" s="35"/>
+      <c r="R147" s="35"/>
+    </row>
+    <row r="148" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K148" s="26"/>
+      <c r="M148" s="33"/>
+      <c r="N148" s="26"/>
+      <c r="O148" s="34"/>
+      <c r="Q148" s="35"/>
+      <c r="R148" s="35"/>
+    </row>
+    <row r="149" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K149" s="26"/>
+      <c r="M149" s="33"/>
+      <c r="N149" s="26"/>
+      <c r="O149" s="34"/>
+      <c r="Q149" s="35"/>
+      <c r="R149" s="35"/>
+    </row>
+    <row r="150" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K150" s="26"/>
+      <c r="M150" s="33"/>
+      <c r="N150" s="26"/>
+      <c r="O150" s="34"/>
+      <c r="Q150" s="35"/>
+      <c r="R150" s="35"/>
+    </row>
+    <row r="151" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K151" s="26"/>
+      <c r="M151" s="33"/>
+      <c r="N151" s="26"/>
+      <c r="O151" s="34"/>
+      <c r="Q151" s="35"/>
+      <c r="R151" s="35"/>
+    </row>
+    <row r="152" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K152" s="26"/>
+      <c r="M152" s="33"/>
+      <c r="N152" s="26"/>
+      <c r="O152" s="34"/>
+      <c r="Q152" s="35"/>
+      <c r="R152" s="35"/>
+    </row>
+    <row r="153" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K153" s="26"/>
+      <c r="M153" s="33"/>
+      <c r="N153" s="26"/>
+      <c r="O153" s="34"/>
+      <c r="Q153" s="35"/>
+      <c r="R153" s="35"/>
+    </row>
+    <row r="154" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K154" s="26"/>
+      <c r="M154" s="33"/>
+      <c r="N154" s="26"/>
+      <c r="O154" s="34"/>
+      <c r="Q154" s="35"/>
+      <c r="R154" s="35"/>
+    </row>
+    <row r="155" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K155" s="26"/>
+      <c r="M155" s="33"/>
+      <c r="N155" s="26"/>
+      <c r="O155" s="34"/>
+      <c r="Q155" s="35"/>
+      <c r="R155" s="35"/>
+    </row>
+    <row r="156" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K156" s="26"/>
+      <c r="M156" s="33"/>
+      <c r="N156" s="26"/>
+      <c r="O156" s="34"/>
+      <c r="Q156" s="35"/>
+      <c r="R156" s="35"/>
+    </row>
+    <row r="157" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K157" s="26"/>
+      <c r="M157" s="33"/>
+      <c r="N157" s="26"/>
+      <c r="O157" s="34"/>
+      <c r="Q157" s="35"/>
+      <c r="R157" s="35"/>
+    </row>
+    <row r="158" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K158" s="26"/>
+      <c r="M158" s="33"/>
+      <c r="N158" s="26"/>
+      <c r="O158" s="34"/>
+      <c r="Q158" s="35"/>
+      <c r="R158" s="35"/>
+    </row>
+    <row r="159" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K159" s="26"/>
+      <c r="M159" s="33"/>
+      <c r="N159" s="26"/>
+      <c r="O159" s="34"/>
+      <c r="Q159" s="35"/>
+      <c r="R159" s="35"/>
+    </row>
+    <row r="160" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K160" s="26"/>
+      <c r="M160" s="33"/>
+      <c r="N160" s="26"/>
+      <c r="O160" s="34"/>
+      <c r="Q160" s="35"/>
+      <c r="R160" s="35"/>
+    </row>
+    <row r="161" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K161" s="26"/>
+      <c r="M161" s="33"/>
+      <c r="N161" s="26"/>
+      <c r="O161" s="34"/>
+      <c r="Q161" s="35"/>
+      <c r="R161" s="35"/>
+    </row>
+    <row r="162" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K162" s="26"/>
+      <c r="M162" s="33"/>
+      <c r="N162" s="26"/>
+      <c r="O162" s="34"/>
+      <c r="Q162" s="35"/>
+      <c r="R162" s="35"/>
+    </row>
+    <row r="163" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K163" s="26"/>
+      <c r="M163" s="33"/>
+      <c r="N163" s="26"/>
+      <c r="O163" s="34"/>
+      <c r="Q163" s="35"/>
+      <c r="R163" s="35"/>
+    </row>
+    <row r="164" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q164" s="35"/>
+      <c r="R164" s="35"/>
+    </row>
+    <row r="165" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q165" s="35"/>
+      <c r="R165" s="35"/>
+    </row>
+    <row r="166" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q166" s="35"/>
+      <c r="R166" s="35"/>
+    </row>
+    <row r="167" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q167" s="35"/>
+      <c r="R167" s="35"/>
+    </row>
+    <row r="168" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q168" s="35"/>
+      <c r="R168" s="35"/>
+    </row>
+    <row r="169" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q169" s="35"/>
+      <c r="R169" s="35"/>
+    </row>
+    <row r="170" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q170" s="35"/>
+      <c r="R170" s="35"/>
+    </row>
+    <row r="171" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q171" s="35"/>
+      <c r="R171" s="35"/>
+    </row>
+    <row r="172" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q172" s="35"/>
+      <c r="R172" s="35"/>
+    </row>
+    <row r="173" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q173" s="35"/>
+      <c r="R173" s="35"/>
+    </row>
+    <row r="174" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q174" s="35"/>
+      <c r="R174" s="35"/>
+    </row>
+    <row r="175" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q175" s="35"/>
+      <c r="R175" s="35"/>
+    </row>
+    <row r="176" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q176" s="35"/>
+      <c r="R176" s="35"/>
+    </row>
+    <row r="177" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q177" s="35"/>
+      <c r="R177" s="35"/>
+    </row>
+    <row r="178" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q178" s="35"/>
+      <c r="R178" s="35"/>
+    </row>
+    <row r="179" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q179" s="35"/>
+      <c r="R179" s="35"/>
+    </row>
+    <row r="180" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q180" s="35"/>
+      <c r="R180" s="35"/>
+    </row>
+    <row r="181" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q181" s="35"/>
+      <c r="R181" s="35"/>
+    </row>
+    <row r="182" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q182" s="35"/>
+      <c r="R182" s="35"/>
+    </row>
+    <row r="183" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q183" s="35"/>
+      <c r="R183" s="35"/>
+    </row>
+    <row r="184" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q184" s="35"/>
+      <c r="R184" s="35"/>
+    </row>
+    <row r="185" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q185" s="35"/>
+      <c r="R185" s="35"/>
+    </row>
+    <row r="186" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q186" s="35"/>
+      <c r="R186" s="35"/>
+    </row>
+    <row r="187" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q187" s="35"/>
+      <c r="R187" s="35"/>
+    </row>
+    <row r="188" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q188" s="35"/>
+      <c r="R188" s="35"/>
+    </row>
+    <row r="189" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q189" s="35"/>
+      <c r="R189" s="35"/>
+    </row>
+    <row r="190" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q190" s="35"/>
+      <c r="R190" s="35"/>
+    </row>
+    <row r="191" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q191" s="35"/>
+      <c r="R191" s="35"/>
+    </row>
+    <row r="192" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q192" s="35"/>
+      <c r="R192" s="35"/>
+    </row>
+    <row r="193" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q193" s="35"/>
+      <c r="R193" s="35"/>
+    </row>
+    <row r="194" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q194" s="35"/>
+      <c r="R194" s="35"/>
+    </row>
+    <row r="195" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q195" s="35"/>
+      <c r="R195" s="35"/>
+    </row>
+    <row r="196" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q196" s="35"/>
+      <c r="R196" s="35"/>
+    </row>
+    <row r="197" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q197" s="35"/>
+      <c r="R197" s="35"/>
+    </row>
+    <row r="198" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q198" s="35"/>
+      <c r="R198" s="35"/>
+    </row>
+    <row r="199" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q199" s="35"/>
+      <c r="R199" s="35"/>
+    </row>
+    <row r="200" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q200" s="35"/>
+      <c r="R200" s="35"/>
+    </row>
+    <row r="201" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q201" s="35"/>
+      <c r="R201" s="35"/>
+    </row>
+    <row r="202" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q202" s="35"/>
+      <c r="R202" s="35"/>
+    </row>
+    <row r="203" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q203" s="35"/>
+      <c r="R203" s="35"/>
+    </row>
+    <row r="204" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q204" s="35"/>
+      <c r="R204" s="35"/>
+    </row>
+    <row r="205" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q205" s="35"/>
+      <c r="R205" s="35"/>
+    </row>
+    <row r="206" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q206" s="35"/>
+      <c r="R206" s="35"/>
+    </row>
+    <row r="207" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q207" s="35"/>
+      <c r="R207" s="35"/>
+    </row>
+    <row r="208" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q208" s="35"/>
+      <c r="R208" s="35"/>
+    </row>
+    <row r="209" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q209" s="35"/>
+      <c r="R209" s="35"/>
+    </row>
+    <row r="210" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q210" s="35"/>
+      <c r="R210" s="35"/>
+    </row>
+    <row r="211" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q211" s="35"/>
+      <c r="R211" s="35"/>
+    </row>
+    <row r="212" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q212" s="35"/>
+      <c r="R212" s="35"/>
+    </row>
+    <row r="213" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q213" s="35"/>
+      <c r="R213" s="35"/>
+    </row>
+    <row r="214" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q214" s="35"/>
+      <c r="R214" s="35"/>
+    </row>
+    <row r="215" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q215" s="35"/>
+      <c r="R215" s="35"/>
+    </row>
+    <row r="216" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q216" s="35"/>
+      <c r="R216" s="35"/>
+    </row>
+    <row r="217" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q217" s="35"/>
+      <c r="R217" s="35"/>
+    </row>
+    <row r="218" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q218" s="35"/>
+      <c r="R218" s="35"/>
+    </row>
+    <row r="219" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q219" s="35"/>
+      <c r="R219" s="35"/>
+    </row>
+    <row r="220" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q220" s="35"/>
+      <c r="R220" s="35"/>
+    </row>
+    <row r="221" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q221" s="35"/>
+      <c r="R221" s="35"/>
+    </row>
+    <row r="222" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q222" s="35"/>
+      <c r="R222" s="35"/>
+    </row>
+    <row r="223" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q223" s="35"/>
+      <c r="R223" s="35"/>
+    </row>
+    <row r="224" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q224" s="35"/>
+      <c r="R224" s="35"/>
+    </row>
+    <row r="225" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q225" s="35"/>
+      <c r="R225" s="35"/>
+    </row>
+    <row r="226" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q226" s="35"/>
+      <c r="R226" s="35"/>
+    </row>
+    <row r="227" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q227" s="35"/>
+      <c r="R227" s="35"/>
+    </row>
+    <row r="228" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q228" s="35"/>
+      <c r="R228" s="35"/>
+    </row>
+    <row r="229" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q229" s="35"/>
+      <c r="R229" s="35"/>
+    </row>
+    <row r="230" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q230" s="35"/>
+      <c r="R230" s="35"/>
+    </row>
+    <row r="231" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q231" s="35"/>
+      <c r="R231" s="35"/>
+    </row>
+    <row r="232" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q232" s="35"/>
+      <c r="R232" s="35"/>
+    </row>
+    <row r="233" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q233" s="35"/>
+      <c r="R233" s="35"/>
+    </row>
+    <row r="234" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q234" s="35"/>
+      <c r="R234" s="35"/>
+    </row>
+    <row r="235" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q235" s="35"/>
+      <c r="R235" s="35"/>
+    </row>
+    <row r="236" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q236" s="35"/>
+      <c r="R236" s="35"/>
+    </row>
+    <row r="237" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q237" s="35"/>
+      <c r="R237" s="35"/>
+    </row>
+    <row r="238" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q238" s="35"/>
+      <c r="R238" s="35"/>
+    </row>
+    <row r="239" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q239" s="35"/>
+      <c r="R239" s="35"/>
+    </row>
+    <row r="240" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q240" s="35"/>
+      <c r="R240" s="35"/>
+    </row>
+    <row r="241" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q241" s="35"/>
+      <c r="R241" s="35"/>
+    </row>
+    <row r="242" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q242" s="35"/>
+      <c r="R242" s="35"/>
+    </row>
+    <row r="243" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q243" s="35"/>
+      <c r="R243" s="35"/>
+    </row>
+    <row r="244" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q244" s="35"/>
+      <c r="R244" s="35"/>
+    </row>
+    <row r="245" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q245" s="35"/>
+      <c r="R245" s="35"/>
+    </row>
+    <row r="246" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q246" s="35"/>
+      <c r="R246" s="35"/>
+    </row>
+    <row r="247" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q247" s="35"/>
+      <c r="R247" s="35"/>
+    </row>
+    <row r="248" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q248" s="35"/>
+      <c r="R248" s="35"/>
+    </row>
+    <row r="249" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q249" s="35"/>
+      <c r="R249" s="35"/>
+    </row>
+    <row r="250" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q250" s="35"/>
+      <c r="R250" s="35"/>
+    </row>
+    <row r="251" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q251" s="35"/>
+      <c r="R251" s="35"/>
+    </row>
+    <row r="252" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q252" s="35"/>
+      <c r="R252" s="35"/>
+    </row>
+    <row r="253" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q253" s="35"/>
+      <c r="R253" s="35"/>
+    </row>
+    <row r="254" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q254" s="35"/>
+      <c r="R254" s="35"/>
+    </row>
+    <row r="255" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q255" s="35"/>
+      <c r="R255" s="35"/>
+    </row>
+    <row r="256" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q256" s="35"/>
+      <c r="R256" s="35"/>
+    </row>
+    <row r="257" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q257" s="35"/>
+      <c r="R257" s="35"/>
+    </row>
+    <row r="258" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q258" s="35"/>
+      <c r="R258" s="35"/>
+    </row>
+    <row r="259" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q259" s="35"/>
+      <c r="R259" s="35"/>
+    </row>
+    <row r="260" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q260" s="35"/>
+      <c r="R260" s="35"/>
+    </row>
+    <row r="261" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q261" s="35"/>
+      <c r="R261" s="35"/>
+    </row>
+    <row r="262" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q262" s="35"/>
+      <c r="R262" s="35"/>
+    </row>
+    <row r="263" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q263" s="35"/>
+      <c r="R263" s="35"/>
+    </row>
+    <row r="264" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q264" s="35"/>
+      <c r="R264" s="35"/>
+    </row>
+    <row r="265" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q265" s="35"/>
+      <c r="R265" s="35"/>
+    </row>
+    <row r="266" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q266" s="35"/>
+      <c r="R266" s="35"/>
+    </row>
+    <row r="267" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q267" s="35"/>
+      <c r="R267" s="35"/>
+    </row>
+    <row r="268" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q268" s="35"/>
+      <c r="R268" s="35"/>
+    </row>
+    <row r="269" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q269" s="35"/>
+      <c r="R269" s="35"/>
+    </row>
+    <row r="270" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q270" s="35"/>
+      <c r="R270" s="35"/>
+    </row>
+    <row r="271" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q271" s="35"/>
+      <c r="R271" s="35"/>
+    </row>
+    <row r="272" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q272" s="35"/>
+      <c r="R272" s="35"/>
+    </row>
+    <row r="273" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q273" s="35"/>
+      <c r="R273" s="35"/>
+    </row>
+    <row r="274" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q274" s="35"/>
+      <c r="R274" s="35"/>
+    </row>
+    <row r="275" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q275" s="35"/>
+      <c r="R275" s="35"/>
+    </row>
+    <row r="276" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q276" s="35"/>
+      <c r="R276" s="35"/>
+    </row>
+    <row r="277" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q277" s="35"/>
+      <c r="R277" s="35"/>
+    </row>
+    <row r="278" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q278" s="35"/>
+      <c r="R278" s="35"/>
+    </row>
+    <row r="279" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q279" s="35"/>
+      <c r="R279" s="35"/>
+    </row>
+    <row r="280" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q280" s="35"/>
+      <c r="R280" s="35"/>
+    </row>
+    <row r="281" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q281" s="35"/>
+      <c r="R281" s="35"/>
+    </row>
+    <row r="282" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q282" s="35"/>
+      <c r="R282" s="35"/>
+    </row>
+    <row r="283" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q283" s="35"/>
+      <c r="R283" s="35"/>
+    </row>
+    <row r="284" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q284" s="35"/>
+      <c r="R284" s="35"/>
+    </row>
+    <row r="285" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q285" s="35"/>
+      <c r="R285" s="35"/>
+    </row>
+    <row r="286" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q286" s="35"/>
+      <c r="R286" s="35"/>
+    </row>
+    <row r="287" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q287" s="35"/>
+      <c r="R287" s="35"/>
+    </row>
+    <row r="288" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q288" s="35"/>
+      <c r="R288" s="35"/>
+    </row>
+    <row r="289" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q289" s="35"/>
+      <c r="R289" s="35"/>
+    </row>
+    <row r="290" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q290" s="35"/>
+      <c r="R290" s="35"/>
+    </row>
+    <row r="291" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q291" s="35"/>
+      <c r="R291" s="35"/>
+    </row>
+    <row r="292" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q292" s="35"/>
+      <c r="R292" s="35"/>
+    </row>
+    <row r="293" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q293" s="35"/>
+      <c r="R293" s="35"/>
+    </row>
+    <row r="294" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q294" s="35"/>
+      <c r="R294" s="35"/>
+    </row>
+    <row r="295" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q295" s="35"/>
+      <c r="R295" s="35"/>
+    </row>
+    <row r="296" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q296" s="35"/>
+      <c r="R296" s="35"/>
+    </row>
+    <row r="297" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q297" s="35"/>
+      <c r="R297" s="35"/>
+    </row>
+    <row r="298" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q298" s="35"/>
+      <c r="R298" s="35"/>
+    </row>
+    <row r="299" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q299" s="35"/>
+      <c r="R299" s="35"/>
+    </row>
+    <row r="300" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q300" s="35"/>
+      <c r="R300" s="35"/>
+    </row>
+    <row r="301" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q301" s="35"/>
+      <c r="R301" s="35"/>
+    </row>
+    <row r="302" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q302" s="35"/>
+      <c r="R302" s="35"/>
+    </row>
+    <row r="303" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q303" s="35"/>
+      <c r="R303" s="35"/>
+    </row>
+    <row r="304" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q304" s="35"/>
+      <c r="R304" s="35"/>
+    </row>
+    <row r="305" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q305" s="35"/>
+      <c r="R305" s="35"/>
+    </row>
+    <row r="306" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q306" s="35"/>
+      <c r="R306" s="35"/>
+    </row>
+    <row r="307" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q307" s="35"/>
+      <c r="R307" s="35"/>
+    </row>
+    <row r="308" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q308" s="35"/>
+      <c r="R308" s="35"/>
+    </row>
+    <row r="309" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q309" s="35"/>
+      <c r="R309" s="35"/>
+    </row>
+    <row r="310" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q310" s="35"/>
+      <c r="R310" s="35"/>
+    </row>
+    <row r="311" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q311" s="35"/>
+      <c r="R311" s="35"/>
+    </row>
+    <row r="312" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q312" s="35"/>
+      <c r="R312" s="35"/>
+    </row>
+    <row r="313" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q313" s="35"/>
+      <c r="R313" s="35"/>
+    </row>
+    <row r="314" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q314" s="35"/>
+      <c r="R314" s="35"/>
+    </row>
+    <row r="315" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q315" s="35"/>
+      <c r="R315" s="35"/>
+    </row>
+    <row r="316" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q316" s="35"/>
+      <c r="R316" s="35"/>
+    </row>
+    <row r="317" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q317" s="35"/>
+      <c r="R317" s="35"/>
+    </row>
+    <row r="318" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q318" s="35"/>
+      <c r="R318" s="35"/>
+    </row>
+    <row r="319" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q319" s="35"/>
+      <c r="R319" s="35"/>
+    </row>
+    <row r="320" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q320" s="35"/>
+      <c r="R320" s="35"/>
+    </row>
+    <row r="321" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q321" s="35"/>
+      <c r="R321" s="35"/>
+    </row>
+    <row r="322" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q322" s="35"/>
+      <c r="R322" s="35"/>
+    </row>
+    <row r="323" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q323" s="35"/>
+      <c r="R323" s="35"/>
+    </row>
+    <row r="324" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q324" s="35"/>
+      <c r="R324" s="35"/>
+    </row>
+    <row r="325" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q325" s="35"/>
+      <c r="R325" s="35"/>
+    </row>
+    <row r="326" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q326" s="35"/>
+      <c r="R326" s="35"/>
+    </row>
+    <row r="327" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q327" s="35"/>
+      <c r="R327" s="35"/>
+    </row>
+    <row r="328" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q328" s="35"/>
+      <c r="R328" s="35"/>
+    </row>
+    <row r="329" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q329" s="35"/>
+      <c r="R329" s="35"/>
+    </row>
+    <row r="330" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q330" s="35"/>
+      <c r="R330" s="35"/>
+    </row>
+    <row r="331" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q331" s="35"/>
+      <c r="R331" s="35"/>
+    </row>
+    <row r="332" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q332" s="35"/>
+      <c r="R332" s="35"/>
+    </row>
+    <row r="333" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q333" s="35"/>
+      <c r="R333" s="35"/>
+    </row>
+    <row r="334" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q334" s="35"/>
+      <c r="R334" s="35"/>
+    </row>
+    <row r="335" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q335" s="35"/>
+      <c r="R335" s="35"/>
+    </row>
+    <row r="336" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q336" s="35"/>
+      <c r="R336" s="35"/>
+    </row>
+    <row r="337" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q337" s="35"/>
+      <c r="R337" s="35"/>
+    </row>
+    <row r="338" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q338" s="35"/>
+      <c r="R338" s="35"/>
+    </row>
+    <row r="339" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q339" s="35"/>
+      <c r="R339" s="35"/>
+    </row>
+    <row r="340" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q340" s="35"/>
+      <c r="R340" s="35"/>
+    </row>
+    <row r="341" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q341" s="35"/>
+      <c r="R341" s="35"/>
+    </row>
+    <row r="342" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q342" s="35"/>
+      <c r="R342" s="35"/>
+    </row>
+    <row r="343" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q343" s="35"/>
+      <c r="R343" s="35"/>
+    </row>
+    <row r="344" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q344" s="35"/>
+      <c r="R344" s="35"/>
+    </row>
+    <row r="345" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q345" s="35"/>
+      <c r="R345" s="35"/>
+    </row>
+    <row r="346" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q346" s="35"/>
+      <c r="R346" s="35"/>
+    </row>
+    <row r="347" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q347" s="35"/>
+      <c r="R347" s="35"/>
+    </row>
+    <row r="348" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q348" s="35"/>
+      <c r="R348" s="35"/>
+    </row>
+    <row r="349" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q349" s="35"/>
+      <c r="R349" s="35"/>
+    </row>
+    <row r="350" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q350" s="35"/>
+      <c r="R350" s="35"/>
+    </row>
+    <row r="351" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q351" s="35"/>
+      <c r="R351" s="35"/>
+    </row>
+    <row r="352" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q352" s="35"/>
+      <c r="R352" s="35"/>
+    </row>
+    <row r="353" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q353" s="35"/>
+      <c r="R353" s="35"/>
+    </row>
+    <row r="354" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q354" s="35"/>
+      <c r="R354" s="35"/>
+    </row>
+    <row r="355" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q355" s="35"/>
+      <c r="R355" s="35"/>
+    </row>
+    <row r="356" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q356" s="35"/>
+      <c r="R356" s="35"/>
+    </row>
+    <row r="357" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q357" s="35"/>
+      <c r="R357" s="35"/>
+    </row>
+    <row r="358" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q358" s="35"/>
+      <c r="R358" s="35"/>
+    </row>
+    <row r="359" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q359" s="35"/>
+      <c r="R359" s="35"/>
+    </row>
+    <row r="360" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q360" s="35"/>
+      <c r="R360" s="35"/>
+    </row>
+    <row r="361" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q361" s="35"/>
+      <c r="R361" s="35"/>
+    </row>
+    <row r="362" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q362" s="35"/>
+      <c r="R362" s="35"/>
+    </row>
+    <row r="363" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q363" s="35"/>
+      <c r="R363" s="35"/>
+    </row>
+    <row r="364" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q364" s="35"/>
+      <c r="R364" s="35"/>
+    </row>
+    <row r="365" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q365" s="35"/>
+      <c r="R365" s="35"/>
+    </row>
+    <row r="366" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q366" s="35"/>
+      <c r="R366" s="35"/>
+    </row>
+    <row r="367" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q367" s="35"/>
+      <c r="R367" s="35"/>
+    </row>
+    <row r="368" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q368" s="35"/>
+      <c r="R368" s="35"/>
+    </row>
+    <row r="369" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q369" s="35"/>
+      <c r="R369" s="35"/>
+    </row>
+    <row r="370" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q370" s="35"/>
+      <c r="R370" s="35"/>
+    </row>
+    <row r="371" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q371" s="35"/>
+      <c r="R371" s="35"/>
+    </row>
+    <row r="372" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q372" s="35"/>
+      <c r="R372" s="35"/>
+    </row>
+    <row r="373" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q373" s="35"/>
+      <c r="R373" s="35"/>
+    </row>
+    <row r="374" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q374" s="35"/>
+      <c r="R374" s="35"/>
+    </row>
+    <row r="375" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q375" s="35"/>
+      <c r="R375" s="35"/>
+    </row>
+    <row r="376" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q376" s="35"/>
+      <c r="R376" s="35"/>
+    </row>
+    <row r="377" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q377" s="35"/>
+      <c r="R377" s="35"/>
+    </row>
+    <row r="378" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q378" s="35"/>
+      <c r="R378" s="35"/>
+    </row>
+    <row r="379" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q379" s="35"/>
+      <c r="R379" s="35"/>
+    </row>
+    <row r="380" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q380" s="35"/>
+      <c r="R380" s="35"/>
+    </row>
+    <row r="381" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q381" s="35"/>
+      <c r="R381" s="35"/>
+    </row>
+    <row r="382" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q382" s="35"/>
+      <c r="R382" s="35"/>
+    </row>
+    <row r="383" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q383" s="35"/>
+      <c r="R383" s="35"/>
+    </row>
+    <row r="384" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q384" s="35"/>
+      <c r="R384" s="35"/>
+    </row>
+    <row r="385" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q385" s="35"/>
+      <c r="R385" s="35"/>
+    </row>
+    <row r="386" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q386" s="35"/>
+      <c r="R386" s="35"/>
+    </row>
+    <row r="387" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q387" s="35"/>
+      <c r="R387" s="35"/>
+    </row>
+    <row r="388" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q388" s="35"/>
+      <c r="R388" s="35"/>
+    </row>
+    <row r="389" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q389" s="35"/>
+      <c r="R389" s="35"/>
+    </row>
+    <row r="390" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q390" s="35"/>
+      <c r="R390" s="35"/>
+    </row>
+    <row r="391" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q391" s="35"/>
+      <c r="R391" s="35"/>
+    </row>
+    <row r="392" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q392" s="35"/>
+      <c r="R392" s="35"/>
+    </row>
+    <row r="393" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q393" s="35"/>
+      <c r="R393" s="35"/>
+    </row>
+    <row r="394" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q394" s="35"/>
+      <c r="R394" s="35"/>
+    </row>
+    <row r="395" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q395" s="35"/>
+      <c r="R395" s="35"/>
+    </row>
+    <row r="396" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q396" s="35"/>
+      <c r="R396" s="35"/>
+    </row>
+    <row r="397" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q397" s="35"/>
+      <c r="R397" s="35"/>
+    </row>
+    <row r="398" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q398" s="35"/>
+      <c r="R398" s="35"/>
+    </row>
+    <row r="399" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q399" s="35"/>
+      <c r="R399" s="35"/>
+    </row>
+    <row r="400" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q400" s="35"/>
+      <c r="R400" s="35"/>
+    </row>
+    <row r="401" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q401" s="35"/>
+      <c r="R401" s="35"/>
+    </row>
+    <row r="402" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q402" s="35"/>
+      <c r="R402" s="35"/>
+    </row>
+    <row r="403" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q403" s="35"/>
+      <c r="R403" s="35"/>
+    </row>
+    <row r="404" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q404" s="35"/>
+      <c r="R404" s="35"/>
+    </row>
+    <row r="405" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q405" s="35"/>
+      <c r="R405" s="35"/>
+    </row>
+    <row r="406" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q406" s="35"/>
+      <c r="R406" s="35"/>
+    </row>
+    <row r="407" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q407" s="35"/>
+      <c r="R407" s="35"/>
+    </row>
+    <row r="408" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q408" s="35"/>
+      <c r="R408" s="35"/>
+    </row>
+    <row r="409" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q409" s="35"/>
+      <c r="R409" s="35"/>
+    </row>
+    <row r="410" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q410" s="35"/>
+      <c r="R410" s="35"/>
+    </row>
+    <row r="411" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q411" s="35"/>
+      <c r="R411" s="35"/>
+    </row>
+    <row r="412" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q412" s="35"/>
+      <c r="R412" s="35"/>
+    </row>
+    <row r="413" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q413" s="35"/>
+      <c r="R413" s="35"/>
+    </row>
+    <row r="414" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q414" s="35"/>
+      <c r="R414" s="35"/>
+    </row>
+    <row r="415" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q415" s="35"/>
+      <c r="R415" s="35"/>
+    </row>
+    <row r="416" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q416" s="35"/>
+      <c r="R416" s="35"/>
+    </row>
+    <row r="417" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q417" s="35"/>
+      <c r="R417" s="35"/>
+    </row>
+    <row r="418" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q418" s="35"/>
+      <c r="R418" s="35"/>
+    </row>
+    <row r="419" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q419" s="35"/>
+      <c r="R419" s="35"/>
+    </row>
+    <row r="420" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q420" s="35"/>
+      <c r="R420" s="35"/>
+    </row>
+    <row r="421" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q421" s="35"/>
+      <c r="R421" s="35"/>
+    </row>
+    <row r="422" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q422" s="35"/>
+      <c r="R422" s="35"/>
+    </row>
+    <row r="423" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q423" s="35"/>
+      <c r="R423" s="35"/>
+    </row>
+    <row r="424" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q424" s="35"/>
+      <c r="R424" s="35"/>
+    </row>
+    <row r="425" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q425" s="35"/>
+      <c r="R425" s="35"/>
+    </row>
+    <row r="426" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q426" s="35"/>
+      <c r="R426" s="35"/>
+    </row>
+    <row r="427" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q427" s="35"/>
+      <c r="R427" s="35"/>
+    </row>
+    <row r="428" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q428" s="35"/>
+      <c r="R428" s="35"/>
+    </row>
+    <row r="429" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q429" s="35"/>
+      <c r="R429" s="35"/>
+    </row>
+    <row r="430" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q430" s="35"/>
+      <c r="R430" s="35"/>
+    </row>
+    <row r="431" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q431" s="35"/>
+      <c r="R431" s="35"/>
+    </row>
+    <row r="432" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q432" s="35"/>
+      <c r="R432" s="35"/>
+    </row>
+    <row r="433" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q433" s="35"/>
+      <c r="R433" s="35"/>
+    </row>
+    <row r="434" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q434" s="35"/>
+      <c r="R434" s="35"/>
+    </row>
+    <row r="435" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q435" s="35"/>
+      <c r="R435" s="35"/>
+    </row>
+    <row r="436" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q436" s="35"/>
+      <c r="R436" s="35"/>
+    </row>
+    <row r="437" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q437" s="35"/>
+      <c r="R437" s="35"/>
+    </row>
+    <row r="438" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q438" s="35"/>
+      <c r="R438" s="35"/>
+    </row>
+    <row r="439" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q439" s="35"/>
+      <c r="R439" s="35"/>
+    </row>
+    <row r="440" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q440" s="35"/>
+      <c r="R440" s="35"/>
+    </row>
+    <row r="441" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q441" s="35"/>
+      <c r="R441" s="35"/>
+    </row>
+    <row r="442" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q442" s="35"/>
+      <c r="R442" s="35"/>
+    </row>
+    <row r="443" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q443" s="35"/>
+      <c r="R443" s="35"/>
+    </row>
+    <row r="444" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q444" s="35"/>
+      <c r="R444" s="35"/>
+    </row>
+    <row r="445" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q445" s="35"/>
+      <c r="R445" s="35"/>
+    </row>
+    <row r="446" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q446" s="35"/>
+      <c r="R446" s="35"/>
+    </row>
+    <row r="447" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q447" s="35"/>
+      <c r="R447" s="35"/>
+    </row>
+    <row r="448" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q448" s="35"/>
+      <c r="R448" s="35"/>
+    </row>
+    <row r="449" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q449" s="35"/>
+      <c r="R449" s="35"/>
+    </row>
+    <row r="450" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q450" s="35"/>
+      <c r="R450" s="35"/>
+    </row>
+    <row r="451" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q451" s="35"/>
+      <c r="R451" s="35"/>
+    </row>
+    <row r="452" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q452" s="35"/>
+      <c r="R452" s="35"/>
+    </row>
+    <row r="453" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q453" s="35"/>
+      <c r="R453" s="35"/>
+    </row>
+    <row r="454" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q454" s="35"/>
+      <c r="R454" s="35"/>
+    </row>
+    <row r="455" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q455" s="35"/>
+      <c r="R455" s="35"/>
+    </row>
+    <row r="456" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q456" s="35"/>
+      <c r="R456" s="35"/>
+    </row>
+    <row r="457" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q457" s="35"/>
+      <c r="R457" s="35"/>
+    </row>
+    <row r="458" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q458" s="35"/>
+      <c r="R458" s="35"/>
+    </row>
+    <row r="459" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q459" s="35"/>
+      <c r="R459" s="35"/>
+    </row>
+    <row r="460" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q460" s="35"/>
+      <c r="R460" s="35"/>
+    </row>
+    <row r="461" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q461" s="35"/>
+      <c r="R461" s="35"/>
+    </row>
+    <row r="462" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q462" s="35"/>
+      <c r="R462" s="35"/>
+    </row>
+    <row r="463" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q463" s="35"/>
+      <c r="R463" s="35"/>
+    </row>
+    <row r="464" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q464" s="35"/>
+      <c r="R464" s="35"/>
+    </row>
+    <row r="465" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q465" s="35"/>
+      <c r="R465" s="35"/>
+    </row>
+    <row r="466" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q466" s="35"/>
+      <c r="R466" s="35"/>
+    </row>
+    <row r="467" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q467" s="35"/>
+      <c r="R467" s="35"/>
+    </row>
+    <row r="468" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q468" s="35"/>
+      <c r="R468" s="35"/>
+    </row>
+    <row r="469" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q469" s="35"/>
+      <c r="R469" s="35"/>
+    </row>
+    <row r="470" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q470" s="35"/>
+      <c r="R470" s="35"/>
+    </row>
+    <row r="471" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q471" s="35"/>
+      <c r="R471" s="35"/>
+    </row>
+    <row r="472" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q472" s="35"/>
+      <c r="R472" s="35"/>
+    </row>
+    <row r="473" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q473" s="35"/>
+      <c r="R473" s="35"/>
+    </row>
+    <row r="474" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q474" s="35"/>
+      <c r="R474" s="35"/>
+    </row>
+    <row r="475" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q475" s="35"/>
+      <c r="R475" s="35"/>
+    </row>
+    <row r="476" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q476" s="35"/>
+      <c r="R476" s="35"/>
+    </row>
+    <row r="477" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q477" s="35"/>
+      <c r="R477" s="35"/>
+    </row>
+    <row r="478" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q478" s="35"/>
+      <c r="R478" s="35"/>
+    </row>
+    <row r="479" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q479" s="35"/>
+      <c r="R479" s="35"/>
+    </row>
+    <row r="480" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q480" s="35"/>
+      <c r="R480" s="35"/>
+    </row>
+    <row r="481" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q481" s="35"/>
+      <c r="R481" s="35"/>
+    </row>
+    <row r="482" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q482" s="35"/>
+      <c r="R482" s="35"/>
+    </row>
+    <row r="483" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q483" s="35"/>
+      <c r="R483" s="35"/>
+    </row>
+    <row r="484" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q484" s="35"/>
+      <c r="R484" s="35"/>
+    </row>
+    <row r="485" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q485" s="35"/>
+      <c r="R485" s="35"/>
+    </row>
+    <row r="486" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q486" s="35"/>
+      <c r="R486" s="35"/>
+    </row>
+    <row r="487" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q487" s="35"/>
+      <c r="R487" s="35"/>
+    </row>
+    <row r="488" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q488" s="35"/>
+      <c r="R488" s="35"/>
+    </row>
+    <row r="489" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q489" s="35"/>
+      <c r="R489" s="35"/>
+    </row>
+    <row r="490" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q490" s="35"/>
+      <c r="R490" s="35"/>
+    </row>
+    <row r="491" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q491" s="35"/>
+      <c r="R491" s="35"/>
+    </row>
+    <row r="492" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q492" s="35"/>
+      <c r="R492" s="35"/>
+    </row>
+    <row r="493" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q493" s="35"/>
+      <c r="R493" s="35"/>
+    </row>
+    <row r="494" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q494" s="35"/>
+      <c r="R494" s="35"/>
+    </row>
+    <row r="495" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q495" s="35"/>
+      <c r="R495" s="35"/>
+    </row>
+    <row r="496" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q496" s="35"/>
+      <c r="R496" s="35"/>
+    </row>
+    <row r="497" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q497" s="35"/>
+      <c r="R497" s="35"/>
+    </row>
+    <row r="498" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q498" s="35"/>
+      <c r="R498" s="35"/>
+    </row>
+    <row r="499" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q499" s="35"/>
+      <c r="R499" s="35"/>
+    </row>
+    <row r="500" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q500" s="35"/>
+      <c r="R500" s="35"/>
+    </row>
+    <row r="501" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q501" s="35"/>
+      <c r="R501" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -47501,8 +44107,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -58056,7 +54662,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Attitude Loose/Attitude Loose/Templates/Workload Template.xlsx
+++ b/Attitude Loose/Attitude Loose/Templates/Workload Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
   <si>
     <t>Trial ID</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Average Time Per Assignment</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="120">
     <dxf>
       <font>
         <b val="0"/>
@@ -275,33 +278,83 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -334,16 +387,32 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="1"/>
         </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -365,6 +434,142 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -552,23 +757,32 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -629,6 +843,19 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -646,48 +873,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -871,16 +1056,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1199,36 +1374,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1409,26 +1554,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1592,173 +1717,178 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Trial ID" dataDxfId="112"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="111"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="110"/>
-    <tableColumn id="5" name="Lead Organization" dataDxfId="109"/>
-    <tableColumn id="6" name="Received Date" dataDxfId="108"/>
-    <tableColumn id="7" name="Accepted Date" dataDxfId="107"/>
-    <tableColumn id="8" name="Validator" dataDxfId="106"/>
+    <tableColumn id="1" name="Trial ID" dataDxfId="117"/>
+    <tableColumn id="2" name="Trial Type" dataDxfId="116"/>
+    <tableColumn id="3" name="Submission#" dataDxfId="115"/>
+    <tableColumn id="5" name="Lead Organization" dataDxfId="114"/>
+    <tableColumn id="6" name="Received Date" dataDxfId="113"/>
+    <tableColumn id="7" name="Accepted Date" dataDxfId="112"/>
+    <tableColumn id="8" name="Validator" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9910" displayName="Table9910" ref="Q1:S3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="Q1:S3"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="QCer" dataDxfId="2"/>
-    <tableColumn id="2" name="Assignment Number" dataDxfId="1"/>
-    <tableColumn id="3" name="Average Time Per Assignment" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9910" displayName="Table9910" ref="Q1:T3" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="Q1:T3"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="QCer" dataDxfId="15"/>
+    <tableColumn id="4" name="Category" dataDxfId="9"/>
+    <tableColumn id="2" name="Assignment Number" dataDxfId="14"/>
+    <tableColumn id="3" name="Average Time Per Assignment" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table911" displayName="Table911" ref="I1:J3" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104" tableBorderDxfId="103">
-  <autoFilter ref="I1:J3"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Validator" dataDxfId="102"/>
-    <tableColumn id="2" name="Assignment Number" dataDxfId="101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table911" displayName="Table911" ref="I1:K3" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109" tableBorderDxfId="108">
+  <autoFilter ref="I1:K3"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Validator" dataDxfId="107"/>
+    <tableColumn id="3" name="Category" dataDxfId="0"/>
+    <tableColumn id="2" name="Assignment Number" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table37" displayName="Table37" ref="A1:P3" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table37" displayName="Table37" ref="A1:P3" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
   <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Trial ID" dataDxfId="96"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="95"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="94"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="93"/>
-    <tableColumn id="4" name="Accepted Date" dataDxfId="92"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="91"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="90"/>
-    <tableColumn id="11" name="On-Hold Reason" dataDxfId="89"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="88"/>
-    <tableColumn id="19" name="Additional Comments" dataDxfId="87"/>
-    <tableColumn id="13" name="Processing Status" dataDxfId="86"/>
-    <tableColumn id="14" name="Abstractor" dataDxfId="85"/>
-    <tableColumn id="15" name="Start Time" dataDxfId="84"/>
-    <tableColumn id="16" name="End Time" dataDxfId="83"/>
-    <tableColumn id="17" name="Comments" dataDxfId="82"/>
-    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="81"/>
+    <tableColumn id="1" name="Trial ID" dataDxfId="103"/>
+    <tableColumn id="2" name="Trial Type" dataDxfId="102"/>
+    <tableColumn id="3" name="Submission#" dataDxfId="101"/>
+    <tableColumn id="5" name="Lead Oganization" dataDxfId="100"/>
+    <tableColumn id="4" name="Accepted Date" dataDxfId="99"/>
+    <tableColumn id="9" name="On-Hold Date" dataDxfId="98"/>
+    <tableColumn id="10" name="Off-Hold Date" dataDxfId="97"/>
+    <tableColumn id="11" name="On-Hold Reason" dataDxfId="96"/>
+    <tableColumn id="12" name="On-Hold Description" dataDxfId="95"/>
+    <tableColumn id="19" name="Additional Comments" dataDxfId="94"/>
+    <tableColumn id="13" name="Processing Status" dataDxfId="93"/>
+    <tableColumn id="14" name="Abstractor" dataDxfId="92"/>
+    <tableColumn id="15" name="Start Time" dataDxfId="91"/>
+    <tableColumn id="16" name="End Time" dataDxfId="90"/>
+    <tableColumn id="17" name="Comments" dataDxfId="89"/>
+    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R1:T3" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
-  <autoFilter ref="R1:T3"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Abstractor" dataDxfId="78"/>
-    <tableColumn id="2" name="Assignment Number" dataDxfId="77"/>
-    <tableColumn id="3" name="Average Time Per Assignment" dataDxfId="76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R1:U3" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+  <autoFilter ref="R1:U3"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Abstractor" dataDxfId="85"/>
+    <tableColumn id="4" name="Category" dataDxfId="12"/>
+    <tableColumn id="2" name="Assignment Number" dataDxfId="84"/>
+    <tableColumn id="3" name="Average Time Per Assignment" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table378" displayName="Table378" ref="A1:P3" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table378" displayName="Table378" ref="A1:P3" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Trial ID" dataDxfId="70"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="69"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="68"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="67"/>
-    <tableColumn id="4" name="Accepted Date" dataDxfId="66"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="65"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="64"/>
-    <tableColumn id="11" name="On-Hold Reason" dataDxfId="63"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="62"/>
-    <tableColumn id="19" name="Additional Comments" dataDxfId="61"/>
-    <tableColumn id="13" name="Processing Status" dataDxfId="60"/>
-    <tableColumn id="14" name="QCer" dataDxfId="59"/>
-    <tableColumn id="15" name="Start Time" dataDxfId="58"/>
-    <tableColumn id="16" name="End Time" dataDxfId="57"/>
-    <tableColumn id="17" name="Comments" dataDxfId="56"/>
-    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="55"/>
+    <tableColumn id="1" name="Trial ID" dataDxfId="80"/>
+    <tableColumn id="2" name="Trial Type" dataDxfId="79"/>
+    <tableColumn id="3" name="Submission#" dataDxfId="78"/>
+    <tableColumn id="5" name="Lead Oganization" dataDxfId="77"/>
+    <tableColumn id="4" name="Accepted Date" dataDxfId="76"/>
+    <tableColumn id="9" name="On-Hold Date" dataDxfId="75"/>
+    <tableColumn id="10" name="Off-Hold Date" dataDxfId="74"/>
+    <tableColumn id="11" name="On-Hold Reason" dataDxfId="73"/>
+    <tableColumn id="12" name="On-Hold Description" dataDxfId="72"/>
+    <tableColumn id="19" name="Additional Comments" dataDxfId="71"/>
+    <tableColumn id="13" name="Processing Status" dataDxfId="70"/>
+    <tableColumn id="14" name="QCer" dataDxfId="69"/>
+    <tableColumn id="15" name="Start Time" dataDxfId="68"/>
+    <tableColumn id="16" name="End Time" dataDxfId="67"/>
+    <tableColumn id="17" name="Comments" dataDxfId="66"/>
+    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table9" displayName="Table9" ref="R1:T3" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
-  <autoFilter ref="R1:T3"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="QCer" dataDxfId="51"/>
-    <tableColumn id="2" name="Assignment Number" dataDxfId="50"/>
-    <tableColumn id="3" name="Average Time Per Assignment" dataDxfId="49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table9" displayName="Table9" ref="R1:U3" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
+  <autoFilter ref="R1:U3"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="QCer" dataDxfId="61"/>
+    <tableColumn id="4" name="Category" dataDxfId="11"/>
+    <tableColumn id="2" name="Assignment Number" dataDxfId="60"/>
+    <tableColumn id="3" name="Average Time Per Assignment" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O3" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O3" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Trial ID" dataDxfId="45"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="44"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="43"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="42"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="41"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="40"/>
-    <tableColumn id="11" name="On-Hold Reason" dataDxfId="39"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="38"/>
-    <tableColumn id="19" name="Additional Comments" dataDxfId="37"/>
-    <tableColumn id="13" name="Processing Status" dataDxfId="36"/>
-    <tableColumn id="14" name="Abstractor" dataDxfId="35"/>
-    <tableColumn id="15" name="Start Time" dataDxfId="34"/>
-    <tableColumn id="16" name="End Time" dataDxfId="33"/>
-    <tableColumn id="17" name="Comments" dataDxfId="32"/>
-    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="31"/>
+    <tableColumn id="1" name="Trial ID" dataDxfId="56"/>
+    <tableColumn id="2" name="Trial Type" dataDxfId="55"/>
+    <tableColumn id="3" name="Submission#" dataDxfId="54"/>
+    <tableColumn id="5" name="Lead Oganization" dataDxfId="53"/>
+    <tableColumn id="9" name="On-Hold Date" dataDxfId="52"/>
+    <tableColumn id="10" name="Off-Hold Date" dataDxfId="51"/>
+    <tableColumn id="11" name="On-Hold Reason" dataDxfId="50"/>
+    <tableColumn id="12" name="On-Hold Description" dataDxfId="49"/>
+    <tableColumn id="19" name="Additional Comments" dataDxfId="48"/>
+    <tableColumn id="13" name="Processing Status" dataDxfId="47"/>
+    <tableColumn id="14" name="Abstractor" dataDxfId="46"/>
+    <tableColumn id="15" name="Start Time" dataDxfId="45"/>
+    <tableColumn id="16" name="End Time" dataDxfId="44"/>
+    <tableColumn id="17" name="Comments" dataDxfId="43"/>
+    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table99" displayName="Table99" ref="Q1:S3" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="Q1:S3"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Abstractor" dataDxfId="27"/>
-    <tableColumn id="2" name="Assignment Number" dataDxfId="26"/>
-    <tableColumn id="3" name="Average Time Per Assignment" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table99" displayName="Table99" ref="Q1:T3" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
+  <autoFilter ref="Q1:T3"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Abstractor" dataDxfId="38"/>
+    <tableColumn id="4" name="Category" dataDxfId="10"/>
+    <tableColumn id="2" name="Assignment Number" dataDxfId="37"/>
+    <tableColumn id="3" name="Average Time Per Assignment" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:O3" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:O3" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Trial ID" dataDxfId="20"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="19"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="18"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="17"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="16"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="15"/>
-    <tableColumn id="11" name="On-Hold Reason" dataDxfId="14"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="13"/>
-    <tableColumn id="19" name="Additional Comments" dataDxfId="12"/>
-    <tableColumn id="13" name="Processing Status" dataDxfId="11"/>
-    <tableColumn id="14" name="QCer" dataDxfId="10"/>
-    <tableColumn id="15" name="Start Time" dataDxfId="9"/>
-    <tableColumn id="16" name="End Time" dataDxfId="8"/>
-    <tableColumn id="17" name="Comments" dataDxfId="7"/>
-    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="6"/>
+    <tableColumn id="1" name="Trial ID" dataDxfId="33"/>
+    <tableColumn id="2" name="Trial Type" dataDxfId="32"/>
+    <tableColumn id="3" name="Submission#" dataDxfId="31"/>
+    <tableColumn id="5" name="Lead Oganization" dataDxfId="30"/>
+    <tableColumn id="9" name="On-Hold Date" dataDxfId="29"/>
+    <tableColumn id="10" name="Off-Hold Date" dataDxfId="28"/>
+    <tableColumn id="11" name="On-Hold Reason" dataDxfId="27"/>
+    <tableColumn id="12" name="On-Hold Description" dataDxfId="26"/>
+    <tableColumn id="19" name="Additional Comments" dataDxfId="25"/>
+    <tableColumn id="13" name="Processing Status" dataDxfId="24"/>
+    <tableColumn id="14" name="QCer" dataDxfId="23"/>
+    <tableColumn id="15" name="Start Time" dataDxfId="22"/>
+    <tableColumn id="16" name="End Time" dataDxfId="21"/>
+    <tableColumn id="17" name="Comments" dataDxfId="20"/>
+    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2062,10 +2192,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2075,11 +2205,11 @@
     <col min="5" max="6" width="25.6328125" style="20" customWidth="1"/>
     <col min="7" max="7" width="25.6328125" style="19" customWidth="1"/>
     <col min="8" max="8" width="25.6328125" customWidth="1"/>
-    <col min="9" max="9" width="25.6328125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" style="27" customWidth="1"/>
+    <col min="9" max="10" width="25.6328125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="25.6328125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2105,10 +2235,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2118,8 +2251,9 @@
       <c r="G2" s="18"/>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2129,6 +2263,7 @@
       <c r="G3" s="18"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2143,10 +2278,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:T1048576"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2163,12 +2298,12 @@
     <col min="13" max="14" width="25.6328125" style="7" customWidth="1"/>
     <col min="15" max="15" width="50.6328125" style="4" customWidth="1"/>
     <col min="16" max="16" width="25.6328125" style="8" customWidth="1"/>
-    <col min="17" max="19" width="25.6328125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="27.36328125" style="5" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="5"/>
+    <col min="17" max="20" width="25.6328125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="27.36328125" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2221,13 +2356,16 @@
         <v>13</v>
       </c>
       <c r="S1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="M2" s="16"/>
@@ -2236,8 +2374,9 @@
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
-    </row>
-    <row r="3" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="1:22" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="M3" s="16"/>
@@ -2246,43 +2385,44 @@
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S4"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T4"/>
       <c r="U4"/>
-    </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S5"/>
+      <c r="V4"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T5"/>
       <c r="U5"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S6"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T6"/>
       <c r="U6"/>
-    </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S7"/>
+      <c r="V6"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T7"/>
       <c r="U7"/>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S8"/>
+      <c r="V7"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T8"/>
       <c r="U8"/>
-    </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S9"/>
+      <c r="V8"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T9"/>
       <c r="U9"/>
+      <c r="V9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A1048576">
-    <cfRule type="duplicateValues" dxfId="100" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="99" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
@@ -2296,10 +2436,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:T1048576"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2316,12 +2456,12 @@
     <col min="15" max="15" width="50.6328125" customWidth="1"/>
     <col min="16" max="16" width="25.6328125" customWidth="1"/>
     <col min="17" max="17" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6328125" style="26" customWidth="1"/>
-    <col min="19" max="19" width="25.6328125" style="27" customWidth="1"/>
-    <col min="20" max="20" width="25.6328125" style="26" customWidth="1"/>
+    <col min="18" max="19" width="25.6328125" style="26" customWidth="1"/>
+    <col min="20" max="20" width="25.6328125" style="27" customWidth="1"/>
+    <col min="21" max="21" width="25.6328125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2374,13 +2514,16 @@
         <v>17</v>
       </c>
       <c r="S1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="M2" s="16"/>
@@ -2389,8 +2532,9 @@
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
-    </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="M3" s="16"/>
@@ -2399,8 +2543,9 @@
       <c r="R3" s="25"/>
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
-    </row>
-    <row r="101" spans="1:20" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U3" s="25"/>
+    </row>
+    <row r="101" spans="1:21" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -2419,16 +2564,17 @@
       <c r="P101"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="26"/>
-      <c r="S101" s="27"/>
-      <c r="T101" s="26"/>
+      <c r="S101" s="26"/>
+      <c r="T101" s="27"/>
+      <c r="U101" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A1048576">
-    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2442,10 +2588,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:S501"/>
+  <dimension ref="A1:T501"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:S1048576"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2461,7 +2607,7 @@
     <col min="15" max="16384" width="25.6328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2511,13 +2657,16 @@
         <v>13</v>
       </c>
       <c r="R1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K2" s="9"/>
       <c r="M2" s="16"/>
       <c r="N2" s="9"/>
@@ -2525,8 +2674,9 @@
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T2" s="22"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K3" s="9"/>
       <c r="M3" s="16"/>
       <c r="N3" s="9"/>
@@ -2534,8 +2684,9 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T3" s="22"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K4" s="9"/>
       <c r="M4" s="16"/>
       <c r="N4" s="9"/>
@@ -2543,8 +2694,9 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K5" s="9"/>
       <c r="M5" s="16"/>
       <c r="N5" s="9"/>
@@ -2552,8 +2704,9 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="18"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K6" s="9"/>
       <c r="M6" s="16"/>
       <c r="N6" s="9"/>
@@ -2561,8 +2714,9 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T6" s="18"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K7" s="9"/>
       <c r="M7" s="16"/>
       <c r="N7" s="9"/>
@@ -2570,8 +2724,9 @@
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T7" s="18"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K8" s="9"/>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
@@ -2579,8 +2734,9 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K9" s="9"/>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
@@ -2588,8 +2744,9 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K10" s="9"/>
       <c r="M10" s="16"/>
       <c r="N10" s="9"/>
@@ -2597,8 +2754,9 @@
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T10" s="18"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K11" s="9"/>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
@@ -2606,8 +2764,9 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T11" s="18"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K12" s="9"/>
       <c r="M12" s="16"/>
       <c r="N12" s="9"/>
@@ -2615,8 +2774,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T12" s="18"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K13" s="9"/>
       <c r="M13" s="16"/>
       <c r="N13" s="9"/>
@@ -2624,8 +2784,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T13" s="18"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K14" s="9"/>
       <c r="M14" s="16"/>
       <c r="N14" s="9"/>
@@ -2633,8 +2794,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T14" s="18"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K15" s="9"/>
       <c r="M15" s="16"/>
       <c r="N15" s="9"/>
@@ -2642,8 +2804,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T15" s="18"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K16" s="9"/>
       <c r="M16" s="16"/>
       <c r="N16" s="9"/>
@@ -2651,8 +2814,9 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
-    </row>
-    <row r="17" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T16" s="18"/>
+    </row>
+    <row r="17" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K17" s="9"/>
       <c r="M17" s="16"/>
       <c r="N17" s="9"/>
@@ -2660,8 +2824,9 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
-    </row>
-    <row r="18" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T17" s="18"/>
+    </row>
+    <row r="18" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K18" s="9"/>
       <c r="M18" s="16"/>
       <c r="N18" s="9"/>
@@ -2669,8 +2834,9 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
-    </row>
-    <row r="19" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T18" s="18"/>
+    </row>
+    <row r="19" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K19" s="9"/>
       <c r="M19" s="16"/>
       <c r="N19" s="9"/>
@@ -2678,8 +2844,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
-    </row>
-    <row r="20" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T19" s="18"/>
+    </row>
+    <row r="20" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K20" s="9"/>
       <c r="M20" s="16"/>
       <c r="N20" s="9"/>
@@ -2687,8 +2854,9 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
-    </row>
-    <row r="21" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T20" s="18"/>
+    </row>
+    <row r="21" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K21" s="9"/>
       <c r="M21" s="16"/>
       <c r="N21" s="9"/>
@@ -2696,8 +2864,9 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
-    </row>
-    <row r="22" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T21" s="18"/>
+    </row>
+    <row r="22" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K22" s="9"/>
       <c r="M22" s="16"/>
       <c r="N22" s="9"/>
@@ -2705,8 +2874,9 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
-    </row>
-    <row r="23" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T22" s="18"/>
+    </row>
+    <row r="23" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K23" s="9"/>
       <c r="M23" s="16"/>
       <c r="N23" s="9"/>
@@ -2714,8 +2884,9 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
-    </row>
-    <row r="24" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T23" s="18"/>
+    </row>
+    <row r="24" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K24" s="9"/>
       <c r="M24" s="16"/>
       <c r="N24" s="9"/>
@@ -2723,8 +2894,9 @@
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
-    </row>
-    <row r="25" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T24" s="18"/>
+    </row>
+    <row r="25" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K25" s="9"/>
       <c r="M25" s="16"/>
       <c r="N25" s="9"/>
@@ -2732,8 +2904,9 @@
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
-    </row>
-    <row r="26" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T25" s="18"/>
+    </row>
+    <row r="26" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K26" s="9"/>
       <c r="M26" s="16"/>
       <c r="N26" s="9"/>
@@ -2741,8 +2914,9 @@
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
-    </row>
-    <row r="27" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T26" s="18"/>
+    </row>
+    <row r="27" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K27" s="9"/>
       <c r="M27" s="16"/>
       <c r="N27" s="9"/>
@@ -2750,8 +2924,9 @@
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
-    </row>
-    <row r="28" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T27" s="18"/>
+    </row>
+    <row r="28" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K28" s="9"/>
       <c r="M28" s="16"/>
       <c r="N28" s="9"/>
@@ -2759,8 +2934,9 @@
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
-    </row>
-    <row r="29" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T28" s="18"/>
+    </row>
+    <row r="29" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K29" s="9"/>
       <c r="M29" s="16"/>
       <c r="N29" s="9"/>
@@ -2768,8 +2944,9 @@
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
-    </row>
-    <row r="30" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T29" s="18"/>
+    </row>
+    <row r="30" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K30" s="9"/>
       <c r="M30" s="16"/>
       <c r="N30" s="9"/>
@@ -2777,8 +2954,9 @@
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
-    </row>
-    <row r="31" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T30" s="18"/>
+    </row>
+    <row r="31" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K31" s="9"/>
       <c r="M31" s="16"/>
       <c r="N31" s="9"/>
@@ -2786,8 +2964,9 @@
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
-    </row>
-    <row r="32" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T31" s="18"/>
+    </row>
+    <row r="32" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K32" s="9"/>
       <c r="M32" s="16"/>
       <c r="N32" s="9"/>
@@ -2795,8 +2974,9 @@
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
-    </row>
-    <row r="33" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T32" s="18"/>
+    </row>
+    <row r="33" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K33" s="9"/>
       <c r="M33" s="16"/>
       <c r="N33" s="9"/>
@@ -2804,8 +2984,9 @@
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
-    </row>
-    <row r="34" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T33" s="18"/>
+    </row>
+    <row r="34" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K34" s="9"/>
       <c r="M34" s="16"/>
       <c r="N34" s="9"/>
@@ -2813,8 +2994,9 @@
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
-    </row>
-    <row r="35" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T34" s="18"/>
+    </row>
+    <row r="35" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K35" s="9"/>
       <c r="M35" s="16"/>
       <c r="N35" s="9"/>
@@ -2822,8 +3004,9 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
-    </row>
-    <row r="36" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T35" s="18"/>
+    </row>
+    <row r="36" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K36" s="9"/>
       <c r="M36" s="16"/>
       <c r="N36" s="9"/>
@@ -2831,8 +3014,9 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
       <c r="S36" s="18"/>
-    </row>
-    <row r="37" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T36" s="18"/>
+    </row>
+    <row r="37" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K37" s="9"/>
       <c r="M37" s="16"/>
       <c r="N37" s="9"/>
@@ -2840,8 +3024,9 @@
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
       <c r="S37" s="18"/>
-    </row>
-    <row r="38" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T37" s="18"/>
+    </row>
+    <row r="38" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K38" s="9"/>
       <c r="M38" s="16"/>
       <c r="N38" s="9"/>
@@ -2849,8 +3034,9 @@
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
       <c r="S38" s="18"/>
-    </row>
-    <row r="39" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T38" s="18"/>
+    </row>
+    <row r="39" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K39" s="9"/>
       <c r="M39" s="16"/>
       <c r="N39" s="9"/>
@@ -2858,8 +3044,9 @@
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
       <c r="S39" s="18"/>
-    </row>
-    <row r="40" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T39" s="18"/>
+    </row>
+    <row r="40" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K40" s="9"/>
       <c r="M40" s="16"/>
       <c r="N40" s="9"/>
@@ -2867,8 +3054,9 @@
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
       <c r="S40" s="18"/>
-    </row>
-    <row r="41" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T40" s="18"/>
+    </row>
+    <row r="41" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K41" s="9"/>
       <c r="M41" s="16"/>
       <c r="N41" s="9"/>
@@ -2876,8 +3064,9 @@
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
       <c r="S41" s="18"/>
-    </row>
-    <row r="42" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T41" s="18"/>
+    </row>
+    <row r="42" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K42" s="9"/>
       <c r="M42" s="16"/>
       <c r="N42" s="9"/>
@@ -2885,8 +3074,9 @@
       <c r="Q42" s="18"/>
       <c r="R42" s="18"/>
       <c r="S42" s="18"/>
-    </row>
-    <row r="43" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T42" s="18"/>
+    </row>
+    <row r="43" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K43" s="9"/>
       <c r="M43" s="16"/>
       <c r="N43" s="9"/>
@@ -2894,8 +3084,9 @@
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
       <c r="S43" s="18"/>
-    </row>
-    <row r="44" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T43" s="18"/>
+    </row>
+    <row r="44" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K44" s="9"/>
       <c r="M44" s="16"/>
       <c r="N44" s="9"/>
@@ -2903,8 +3094,9 @@
       <c r="Q44" s="18"/>
       <c r="R44" s="18"/>
       <c r="S44" s="18"/>
-    </row>
-    <row r="45" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T44" s="18"/>
+    </row>
+    <row r="45" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K45" s="9"/>
       <c r="M45" s="16"/>
       <c r="N45" s="9"/>
@@ -2912,8 +3104,9 @@
       <c r="Q45" s="18"/>
       <c r="R45" s="18"/>
       <c r="S45" s="18"/>
-    </row>
-    <row r="46" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T45" s="18"/>
+    </row>
+    <row r="46" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K46" s="9"/>
       <c r="M46" s="16"/>
       <c r="N46" s="9"/>
@@ -2921,8 +3114,9 @@
       <c r="Q46" s="18"/>
       <c r="R46" s="18"/>
       <c r="S46" s="18"/>
-    </row>
-    <row r="47" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T46" s="18"/>
+    </row>
+    <row r="47" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K47" s="9"/>
       <c r="M47" s="16"/>
       <c r="N47" s="9"/>
@@ -2930,8 +3124,9 @@
       <c r="Q47" s="18"/>
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
-    </row>
-    <row r="48" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T47" s="18"/>
+    </row>
+    <row r="48" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K48" s="9"/>
       <c r="M48" s="16"/>
       <c r="N48" s="9"/>
@@ -2939,8 +3134,9 @@
       <c r="Q48" s="18"/>
       <c r="R48" s="18"/>
       <c r="S48" s="18"/>
-    </row>
-    <row r="49" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T48" s="18"/>
+    </row>
+    <row r="49" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K49" s="9"/>
       <c r="M49" s="16"/>
       <c r="N49" s="9"/>
@@ -2948,8 +3144,9 @@
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
       <c r="S49" s="18"/>
-    </row>
-    <row r="50" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T49" s="18"/>
+    </row>
+    <row r="50" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K50" s="9"/>
       <c r="M50" s="16"/>
       <c r="N50" s="9"/>
@@ -2957,8 +3154,9 @@
       <c r="Q50" s="18"/>
       <c r="R50" s="18"/>
       <c r="S50" s="18"/>
-    </row>
-    <row r="51" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T50" s="18"/>
+    </row>
+    <row r="51" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K51" s="9"/>
       <c r="M51" s="16"/>
       <c r="N51" s="9"/>
@@ -2966,2258 +3164,2709 @@
       <c r="Q51" s="18"/>
       <c r="R51" s="18"/>
       <c r="S51" s="18"/>
-    </row>
-    <row r="52" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T51" s="18"/>
+    </row>
+    <row r="52" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K52" s="9"/>
       <c r="M52" s="16"/>
       <c r="N52" s="9"/>
       <c r="O52" s="17"/>
       <c r="Q52" s="18"/>
       <c r="R52" s="18"/>
-    </row>
-    <row r="53" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S52" s="18"/>
+    </row>
+    <row r="53" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K53" s="9"/>
       <c r="M53" s="16"/>
       <c r="N53" s="9"/>
       <c r="O53" s="17"/>
       <c r="Q53" s="18"/>
       <c r="R53" s="18"/>
-    </row>
-    <row r="54" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S53" s="18"/>
+    </row>
+    <row r="54" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K54" s="9"/>
       <c r="M54" s="16"/>
       <c r="N54" s="9"/>
       <c r="O54" s="17"/>
       <c r="Q54" s="18"/>
       <c r="R54" s="18"/>
-    </row>
-    <row r="55" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S54" s="18"/>
+    </row>
+    <row r="55" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K55" s="9"/>
       <c r="M55" s="16"/>
       <c r="N55" s="9"/>
       <c r="O55" s="17"/>
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
-    </row>
-    <row r="56" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S55" s="18"/>
+    </row>
+    <row r="56" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K56" s="9"/>
       <c r="M56" s="16"/>
       <c r="N56" s="9"/>
       <c r="O56" s="17"/>
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
-    </row>
-    <row r="57" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S56" s="18"/>
+    </row>
+    <row r="57" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K57" s="9"/>
       <c r="M57" s="16"/>
       <c r="N57" s="9"/>
       <c r="O57" s="17"/>
       <c r="Q57" s="18"/>
       <c r="R57" s="18"/>
-    </row>
-    <row r="58" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S57" s="18"/>
+    </row>
+    <row r="58" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K58" s="9"/>
       <c r="M58" s="16"/>
       <c r="N58" s="9"/>
       <c r="O58" s="17"/>
       <c r="Q58" s="18"/>
       <c r="R58" s="18"/>
-    </row>
-    <row r="59" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S58" s="18"/>
+    </row>
+    <row r="59" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K59" s="9"/>
       <c r="M59" s="16"/>
       <c r="N59" s="9"/>
       <c r="O59" s="17"/>
       <c r="Q59" s="18"/>
       <c r="R59" s="18"/>
-    </row>
-    <row r="60" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S59" s="18"/>
+    </row>
+    <row r="60" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K60" s="9"/>
       <c r="M60" s="16"/>
       <c r="N60" s="9"/>
       <c r="O60" s="17"/>
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
-    </row>
-    <row r="61" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S60" s="18"/>
+    </row>
+    <row r="61" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K61" s="9"/>
       <c r="M61" s="16"/>
       <c r="N61" s="9"/>
       <c r="O61" s="17"/>
       <c r="Q61" s="18"/>
       <c r="R61" s="18"/>
-    </row>
-    <row r="62" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S61" s="18"/>
+    </row>
+    <row r="62" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K62" s="9"/>
       <c r="M62" s="16"/>
       <c r="N62" s="9"/>
       <c r="O62" s="17"/>
       <c r="Q62" s="18"/>
       <c r="R62" s="18"/>
-    </row>
-    <row r="63" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S62" s="18"/>
+    </row>
+    <row r="63" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K63" s="9"/>
       <c r="M63" s="16"/>
       <c r="N63" s="9"/>
       <c r="O63" s="17"/>
       <c r="Q63" s="18"/>
       <c r="R63" s="18"/>
-    </row>
-    <row r="64" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S63" s="18"/>
+    </row>
+    <row r="64" spans="11:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K64" s="9"/>
       <c r="M64" s="16"/>
       <c r="N64" s="9"/>
       <c r="O64" s="17"/>
       <c r="Q64" s="18"/>
       <c r="R64" s="18"/>
-    </row>
-    <row r="65" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S64" s="18"/>
+    </row>
+    <row r="65" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K65" s="9"/>
       <c r="M65" s="16"/>
       <c r="N65" s="9"/>
       <c r="O65" s="17"/>
       <c r="Q65" s="18"/>
       <c r="R65" s="18"/>
-    </row>
-    <row r="66" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S65" s="18"/>
+    </row>
+    <row r="66" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K66" s="9"/>
       <c r="M66" s="16"/>
       <c r="N66" s="9"/>
       <c r="O66" s="17"/>
       <c r="Q66" s="18"/>
       <c r="R66" s="18"/>
-    </row>
-    <row r="67" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S66" s="18"/>
+    </row>
+    <row r="67" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K67" s="9"/>
       <c r="M67" s="16"/>
       <c r="N67" s="9"/>
       <c r="O67" s="17"/>
       <c r="Q67" s="18"/>
       <c r="R67" s="18"/>
-    </row>
-    <row r="68" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S67" s="18"/>
+    </row>
+    <row r="68" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K68" s="9"/>
       <c r="M68" s="16"/>
       <c r="N68" s="9"/>
       <c r="O68" s="17"/>
       <c r="Q68" s="18"/>
       <c r="R68" s="18"/>
-    </row>
-    <row r="69" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S68" s="18"/>
+    </row>
+    <row r="69" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K69" s="9"/>
       <c r="M69" s="16"/>
       <c r="N69" s="9"/>
       <c r="O69" s="17"/>
       <c r="Q69" s="18"/>
       <c r="R69" s="18"/>
-    </row>
-    <row r="70" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S69" s="18"/>
+    </row>
+    <row r="70" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K70" s="9"/>
       <c r="M70" s="16"/>
       <c r="N70" s="9"/>
       <c r="O70" s="17"/>
       <c r="Q70" s="18"/>
       <c r="R70" s="18"/>
-    </row>
-    <row r="71" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S70" s="18"/>
+    </row>
+    <row r="71" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K71" s="9"/>
       <c r="M71" s="16"/>
       <c r="N71" s="9"/>
       <c r="O71" s="17"/>
       <c r="Q71" s="18"/>
       <c r="R71" s="18"/>
-    </row>
-    <row r="72" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S71" s="18"/>
+    </row>
+    <row r="72" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K72" s="9"/>
       <c r="M72" s="16"/>
       <c r="N72" s="9"/>
       <c r="O72" s="17"/>
       <c r="Q72" s="18"/>
       <c r="R72" s="18"/>
-    </row>
-    <row r="73" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S72" s="18"/>
+    </row>
+    <row r="73" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K73" s="9"/>
       <c r="M73" s="16"/>
       <c r="N73" s="9"/>
       <c r="O73" s="17"/>
       <c r="Q73" s="18"/>
       <c r="R73" s="18"/>
-    </row>
-    <row r="74" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S73" s="18"/>
+    </row>
+    <row r="74" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K74" s="9"/>
       <c r="M74" s="16"/>
       <c r="N74" s="9"/>
       <c r="O74" s="17"/>
       <c r="Q74" s="18"/>
       <c r="R74" s="18"/>
-    </row>
-    <row r="75" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S74" s="18"/>
+    </row>
+    <row r="75" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K75" s="9"/>
       <c r="M75" s="16"/>
       <c r="N75" s="9"/>
       <c r="O75" s="17"/>
       <c r="Q75" s="18"/>
       <c r="R75" s="18"/>
-    </row>
-    <row r="76" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S75" s="18"/>
+    </row>
+    <row r="76" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K76" s="9"/>
       <c r="M76" s="16"/>
       <c r="N76" s="9"/>
       <c r="O76" s="17"/>
       <c r="Q76" s="18"/>
       <c r="R76" s="18"/>
-    </row>
-    <row r="77" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S76" s="18"/>
+    </row>
+    <row r="77" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K77" s="9"/>
       <c r="M77" s="16"/>
       <c r="N77" s="9"/>
       <c r="O77" s="17"/>
       <c r="Q77" s="18"/>
       <c r="R77" s="18"/>
-    </row>
-    <row r="78" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S77" s="18"/>
+    </row>
+    <row r="78" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K78" s="9"/>
       <c r="M78" s="16"/>
       <c r="N78" s="9"/>
       <c r="O78" s="17"/>
       <c r="Q78" s="18"/>
       <c r="R78" s="18"/>
-    </row>
-    <row r="79" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S78" s="18"/>
+    </row>
+    <row r="79" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K79" s="9"/>
       <c r="M79" s="16"/>
       <c r="N79" s="9"/>
       <c r="O79" s="17"/>
       <c r="Q79" s="18"/>
       <c r="R79" s="18"/>
-    </row>
-    <row r="80" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S79" s="18"/>
+    </row>
+    <row r="80" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K80" s="9"/>
       <c r="M80" s="16"/>
       <c r="N80" s="9"/>
       <c r="O80" s="17"/>
       <c r="Q80" s="18"/>
       <c r="R80" s="18"/>
-    </row>
-    <row r="81" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S80" s="18"/>
+    </row>
+    <row r="81" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K81" s="9"/>
       <c r="M81" s="16"/>
       <c r="N81" s="9"/>
       <c r="O81" s="17"/>
       <c r="Q81" s="18"/>
       <c r="R81" s="18"/>
-    </row>
-    <row r="82" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S81" s="18"/>
+    </row>
+    <row r="82" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K82" s="9"/>
       <c r="M82" s="16"/>
       <c r="N82" s="9"/>
       <c r="O82" s="17"/>
       <c r="Q82" s="18"/>
       <c r="R82" s="18"/>
-    </row>
-    <row r="83" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S82" s="18"/>
+    </row>
+    <row r="83" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K83" s="9"/>
       <c r="M83" s="16"/>
       <c r="N83" s="9"/>
       <c r="O83" s="17"/>
       <c r="Q83" s="18"/>
       <c r="R83" s="18"/>
-    </row>
-    <row r="84" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S83" s="18"/>
+    </row>
+    <row r="84" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K84" s="9"/>
       <c r="M84" s="16"/>
       <c r="N84" s="9"/>
       <c r="O84" s="17"/>
       <c r="Q84" s="18"/>
       <c r="R84" s="18"/>
-    </row>
-    <row r="85" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S84" s="18"/>
+    </row>
+    <row r="85" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K85" s="9"/>
       <c r="M85" s="16"/>
       <c r="N85" s="9"/>
       <c r="O85" s="17"/>
       <c r="Q85" s="18"/>
       <c r="R85" s="18"/>
-    </row>
-    <row r="86" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S85" s="18"/>
+    </row>
+    <row r="86" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K86" s="9"/>
       <c r="M86" s="16"/>
       <c r="N86" s="9"/>
       <c r="O86" s="17"/>
       <c r="Q86" s="18"/>
       <c r="R86" s="18"/>
-    </row>
-    <row r="87" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S86" s="18"/>
+    </row>
+    <row r="87" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K87" s="9"/>
       <c r="M87" s="16"/>
       <c r="N87" s="9"/>
       <c r="O87" s="17"/>
       <c r="Q87" s="18"/>
       <c r="R87" s="18"/>
-    </row>
-    <row r="88" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S87" s="18"/>
+    </row>
+    <row r="88" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K88" s="9"/>
       <c r="M88" s="16"/>
       <c r="N88" s="9"/>
       <c r="O88" s="17"/>
       <c r="Q88" s="18"/>
       <c r="R88" s="18"/>
-    </row>
-    <row r="89" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S88" s="18"/>
+    </row>
+    <row r="89" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K89" s="9"/>
       <c r="M89" s="16"/>
       <c r="N89" s="9"/>
       <c r="O89" s="17"/>
       <c r="Q89" s="18"/>
       <c r="R89" s="18"/>
-    </row>
-    <row r="90" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S89" s="18"/>
+    </row>
+    <row r="90" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K90" s="9"/>
       <c r="M90" s="16"/>
       <c r="N90" s="9"/>
       <c r="O90" s="17"/>
       <c r="Q90" s="18"/>
       <c r="R90" s="18"/>
-    </row>
-    <row r="91" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S90" s="18"/>
+    </row>
+    <row r="91" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K91" s="9"/>
       <c r="M91" s="16"/>
       <c r="N91" s="9"/>
       <c r="O91" s="17"/>
       <c r="Q91" s="18"/>
       <c r="R91" s="18"/>
-    </row>
-    <row r="92" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S91" s="18"/>
+    </row>
+    <row r="92" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K92" s="9"/>
       <c r="M92" s="16"/>
       <c r="N92" s="9"/>
       <c r="O92" s="17"/>
       <c r="Q92" s="18"/>
       <c r="R92" s="18"/>
-    </row>
-    <row r="93" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S92" s="18"/>
+    </row>
+    <row r="93" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K93" s="9"/>
       <c r="M93" s="16"/>
       <c r="N93" s="9"/>
       <c r="O93" s="17"/>
       <c r="Q93" s="18"/>
       <c r="R93" s="18"/>
-    </row>
-    <row r="94" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S93" s="18"/>
+    </row>
+    <row r="94" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K94" s="9"/>
       <c r="M94" s="16"/>
       <c r="N94" s="9"/>
       <c r="O94" s="17"/>
       <c r="Q94" s="18"/>
       <c r="R94" s="18"/>
-    </row>
-    <row r="95" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S94" s="18"/>
+    </row>
+    <row r="95" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K95" s="9"/>
       <c r="M95" s="16"/>
       <c r="N95" s="9"/>
       <c r="O95" s="17"/>
       <c r="Q95" s="18"/>
       <c r="R95" s="18"/>
-    </row>
-    <row r="96" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S95" s="18"/>
+    </row>
+    <row r="96" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K96" s="9"/>
       <c r="M96" s="16"/>
       <c r="N96" s="9"/>
       <c r="O96" s="17"/>
       <c r="Q96" s="18"/>
       <c r="R96" s="18"/>
-    </row>
-    <row r="97" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S96" s="18"/>
+    </row>
+    <row r="97" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K97" s="9"/>
       <c r="M97" s="16"/>
       <c r="N97" s="9"/>
       <c r="O97" s="17"/>
       <c r="Q97" s="18"/>
       <c r="R97" s="18"/>
-    </row>
-    <row r="98" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S97" s="18"/>
+    </row>
+    <row r="98" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K98" s="9"/>
       <c r="M98" s="16"/>
       <c r="N98" s="9"/>
       <c r="O98" s="17"/>
       <c r="Q98" s="18"/>
       <c r="R98" s="18"/>
-    </row>
-    <row r="99" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S98" s="18"/>
+    </row>
+    <row r="99" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K99" s="9"/>
       <c r="M99" s="16"/>
       <c r="N99" s="9"/>
       <c r="O99" s="17"/>
       <c r="Q99" s="18"/>
       <c r="R99" s="18"/>
-    </row>
-    <row r="100" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S99" s="18"/>
+    </row>
+    <row r="100" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K100" s="9"/>
       <c r="M100" s="16"/>
       <c r="N100" s="9"/>
       <c r="O100" s="17"/>
       <c r="Q100" s="18"/>
       <c r="R100" s="18"/>
-    </row>
-    <row r="101" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S100" s="18"/>
+    </row>
+    <row r="101" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K101" s="9"/>
       <c r="M101" s="16"/>
       <c r="N101" s="9"/>
       <c r="O101" s="17"/>
       <c r="Q101" s="18"/>
       <c r="R101" s="18"/>
-    </row>
-    <row r="102" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S101" s="18"/>
+    </row>
+    <row r="102" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K102" s="9"/>
       <c r="M102" s="16"/>
       <c r="N102" s="9"/>
       <c r="O102" s="17"/>
       <c r="Q102" s="18"/>
       <c r="R102" s="18"/>
-    </row>
-    <row r="103" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S102" s="18"/>
+    </row>
+    <row r="103" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K103" s="9"/>
       <c r="M103" s="16"/>
       <c r="N103" s="9"/>
       <c r="O103" s="17"/>
       <c r="Q103" s="18"/>
       <c r="R103" s="18"/>
-    </row>
-    <row r="104" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S103" s="18"/>
+    </row>
+    <row r="104" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K104" s="9"/>
       <c r="M104" s="16"/>
       <c r="N104" s="9"/>
       <c r="O104" s="17"/>
       <c r="Q104" s="18"/>
       <c r="R104" s="18"/>
-    </row>
-    <row r="105" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S104" s="18"/>
+    </row>
+    <row r="105" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K105" s="9"/>
       <c r="M105" s="16"/>
       <c r="N105" s="9"/>
       <c r="O105" s="17"/>
       <c r="Q105" s="18"/>
       <c r="R105" s="18"/>
-    </row>
-    <row r="106" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S105" s="18"/>
+    </row>
+    <row r="106" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K106" s="9"/>
       <c r="M106" s="16"/>
       <c r="N106" s="9"/>
       <c r="O106" s="17"/>
       <c r="Q106" s="18"/>
       <c r="R106" s="18"/>
-    </row>
-    <row r="107" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S106" s="18"/>
+    </row>
+    <row r="107" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K107" s="9"/>
       <c r="M107" s="16"/>
       <c r="N107" s="9"/>
       <c r="O107" s="17"/>
       <c r="Q107" s="18"/>
       <c r="R107" s="18"/>
-    </row>
-    <row r="108" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S107" s="18"/>
+    </row>
+    <row r="108" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K108" s="9"/>
       <c r="M108" s="16"/>
       <c r="N108" s="9"/>
       <c r="O108" s="17"/>
       <c r="Q108" s="18"/>
       <c r="R108" s="18"/>
-    </row>
-    <row r="109" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S108" s="18"/>
+    </row>
+    <row r="109" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K109" s="9"/>
       <c r="M109" s="16"/>
       <c r="N109" s="9"/>
       <c r="O109" s="17"/>
       <c r="Q109" s="18"/>
       <c r="R109" s="18"/>
-    </row>
-    <row r="110" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S109" s="18"/>
+    </row>
+    <row r="110" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K110" s="9"/>
       <c r="M110" s="16"/>
       <c r="N110" s="9"/>
       <c r="O110" s="17"/>
       <c r="Q110" s="18"/>
       <c r="R110" s="18"/>
-    </row>
-    <row r="111" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S110" s="18"/>
+    </row>
+    <row r="111" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K111" s="9"/>
       <c r="M111" s="16"/>
       <c r="N111" s="9"/>
       <c r="O111" s="17"/>
       <c r="Q111" s="18"/>
       <c r="R111" s="18"/>
-    </row>
-    <row r="112" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S111" s="18"/>
+    </row>
+    <row r="112" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K112" s="9"/>
       <c r="M112" s="16"/>
       <c r="N112" s="9"/>
       <c r="O112" s="17"/>
       <c r="Q112" s="18"/>
       <c r="R112" s="18"/>
-    </row>
-    <row r="113" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S112" s="18"/>
+    </row>
+    <row r="113" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K113" s="9"/>
       <c r="M113" s="16"/>
       <c r="N113" s="9"/>
       <c r="O113" s="17"/>
       <c r="Q113" s="18"/>
       <c r="R113" s="18"/>
-    </row>
-    <row r="114" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S113" s="18"/>
+    </row>
+    <row r="114" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K114" s="9"/>
       <c r="M114" s="16"/>
       <c r="N114" s="9"/>
       <c r="O114" s="17"/>
       <c r="Q114" s="18"/>
       <c r="R114" s="18"/>
-    </row>
-    <row r="115" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S114" s="18"/>
+    </row>
+    <row r="115" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K115" s="9"/>
       <c r="M115" s="16"/>
       <c r="N115" s="9"/>
       <c r="O115" s="17"/>
       <c r="Q115" s="18"/>
       <c r="R115" s="18"/>
-    </row>
-    <row r="116" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S115" s="18"/>
+    </row>
+    <row r="116" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K116" s="9"/>
       <c r="M116" s="16"/>
       <c r="N116" s="9"/>
       <c r="O116" s="17"/>
       <c r="Q116" s="18"/>
       <c r="R116" s="18"/>
-    </row>
-    <row r="117" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S116" s="18"/>
+    </row>
+    <row r="117" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K117" s="9"/>
       <c r="M117" s="16"/>
       <c r="N117" s="9"/>
       <c r="O117" s="17"/>
       <c r="Q117" s="18"/>
       <c r="R117" s="18"/>
-    </row>
-    <row r="118" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S117" s="18"/>
+    </row>
+    <row r="118" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K118" s="9"/>
       <c r="M118" s="16"/>
       <c r="N118" s="9"/>
       <c r="O118" s="17"/>
       <c r="Q118" s="18"/>
       <c r="R118" s="18"/>
-    </row>
-    <row r="119" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S118" s="18"/>
+    </row>
+    <row r="119" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K119" s="9"/>
       <c r="M119" s="16"/>
       <c r="N119" s="9"/>
       <c r="O119" s="17"/>
       <c r="Q119" s="18"/>
       <c r="R119" s="18"/>
-    </row>
-    <row r="120" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S119" s="18"/>
+    </row>
+    <row r="120" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K120" s="9"/>
       <c r="M120" s="16"/>
       <c r="N120" s="9"/>
       <c r="O120" s="17"/>
       <c r="Q120" s="18"/>
       <c r="R120" s="18"/>
-    </row>
-    <row r="121" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S120" s="18"/>
+    </row>
+    <row r="121" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K121" s="9"/>
       <c r="M121" s="16"/>
       <c r="N121" s="9"/>
       <c r="O121" s="17"/>
       <c r="Q121" s="18"/>
       <c r="R121" s="18"/>
-    </row>
-    <row r="122" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S121" s="18"/>
+    </row>
+    <row r="122" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K122" s="9"/>
       <c r="M122" s="16"/>
       <c r="N122" s="9"/>
       <c r="O122" s="17"/>
       <c r="Q122" s="18"/>
       <c r="R122" s="18"/>
-    </row>
-    <row r="123" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S122" s="18"/>
+    </row>
+    <row r="123" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K123" s="9"/>
       <c r="M123" s="16"/>
       <c r="N123" s="9"/>
       <c r="O123" s="17"/>
       <c r="Q123" s="18"/>
       <c r="R123" s="18"/>
-    </row>
-    <row r="124" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S123" s="18"/>
+    </row>
+    <row r="124" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K124" s="9"/>
       <c r="M124" s="16"/>
       <c r="N124" s="9"/>
       <c r="O124" s="17"/>
       <c r="Q124" s="18"/>
       <c r="R124" s="18"/>
-    </row>
-    <row r="125" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S124" s="18"/>
+    </row>
+    <row r="125" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K125" s="9"/>
       <c r="M125" s="16"/>
       <c r="N125" s="9"/>
       <c r="O125" s="17"/>
       <c r="Q125" s="18"/>
       <c r="R125" s="18"/>
-    </row>
-    <row r="126" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S125" s="18"/>
+    </row>
+    <row r="126" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K126" s="9"/>
       <c r="M126" s="16"/>
       <c r="N126" s="9"/>
       <c r="O126" s="17"/>
       <c r="Q126" s="18"/>
       <c r="R126" s="18"/>
-    </row>
-    <row r="127" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S126" s="18"/>
+    </row>
+    <row r="127" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K127" s="9"/>
       <c r="M127" s="16"/>
       <c r="N127" s="9"/>
       <c r="O127" s="17"/>
       <c r="Q127" s="18"/>
       <c r="R127" s="18"/>
-    </row>
-    <row r="128" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S127" s="18"/>
+    </row>
+    <row r="128" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K128" s="9"/>
       <c r="M128" s="16"/>
       <c r="N128" s="9"/>
       <c r="O128" s="17"/>
       <c r="Q128" s="18"/>
       <c r="R128" s="18"/>
-    </row>
-    <row r="129" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S128" s="18"/>
+    </row>
+    <row r="129" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K129" s="9"/>
       <c r="M129" s="16"/>
       <c r="N129" s="9"/>
       <c r="O129" s="17"/>
       <c r="Q129" s="18"/>
       <c r="R129" s="18"/>
-    </row>
-    <row r="130" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S129" s="18"/>
+    </row>
+    <row r="130" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K130" s="9"/>
       <c r="M130" s="16"/>
       <c r="N130" s="9"/>
       <c r="O130" s="17"/>
       <c r="Q130" s="18"/>
       <c r="R130" s="18"/>
-    </row>
-    <row r="131" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S130" s="18"/>
+    </row>
+    <row r="131" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K131" s="9"/>
       <c r="M131" s="16"/>
       <c r="N131" s="9"/>
       <c r="O131" s="17"/>
       <c r="Q131" s="18"/>
       <c r="R131" s="18"/>
-    </row>
-    <row r="132" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S131" s="18"/>
+    </row>
+    <row r="132" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K132" s="9"/>
       <c r="M132" s="16"/>
       <c r="N132" s="9"/>
       <c r="O132" s="17"/>
       <c r="Q132" s="18"/>
       <c r="R132" s="18"/>
-    </row>
-    <row r="133" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S132" s="18"/>
+    </row>
+    <row r="133" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K133" s="9"/>
       <c r="M133" s="16"/>
       <c r="N133" s="9"/>
       <c r="O133" s="17"/>
       <c r="Q133" s="18"/>
       <c r="R133" s="18"/>
-    </row>
-    <row r="134" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S133" s="18"/>
+    </row>
+    <row r="134" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K134" s="9"/>
       <c r="M134" s="16"/>
       <c r="N134" s="9"/>
       <c r="O134" s="17"/>
       <c r="Q134" s="18"/>
       <c r="R134" s="18"/>
-    </row>
-    <row r="135" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S134" s="18"/>
+    </row>
+    <row r="135" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K135" s="9"/>
       <c r="M135" s="16"/>
       <c r="N135" s="9"/>
       <c r="O135" s="17"/>
       <c r="Q135" s="18"/>
       <c r="R135" s="18"/>
-    </row>
-    <row r="136" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S135" s="18"/>
+    </row>
+    <row r="136" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K136" s="9"/>
       <c r="M136" s="16"/>
       <c r="N136" s="9"/>
       <c r="O136" s="17"/>
       <c r="Q136" s="18"/>
       <c r="R136" s="18"/>
-    </row>
-    <row r="137" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S136" s="18"/>
+    </row>
+    <row r="137" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K137" s="9"/>
       <c r="M137" s="16"/>
       <c r="N137" s="9"/>
       <c r="O137" s="17"/>
       <c r="Q137" s="18"/>
       <c r="R137" s="18"/>
-    </row>
-    <row r="138" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S137" s="18"/>
+    </row>
+    <row r="138" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K138" s="9"/>
       <c r="M138" s="16"/>
       <c r="N138" s="9"/>
       <c r="O138" s="17"/>
       <c r="Q138" s="18"/>
       <c r="R138" s="18"/>
-    </row>
-    <row r="139" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S138" s="18"/>
+    </row>
+    <row r="139" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K139" s="9"/>
       <c r="M139" s="16"/>
       <c r="N139" s="9"/>
       <c r="O139" s="17"/>
       <c r="Q139" s="18"/>
       <c r="R139" s="18"/>
-    </row>
-    <row r="140" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S139" s="18"/>
+    </row>
+    <row r="140" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K140" s="9"/>
       <c r="M140" s="16"/>
       <c r="N140" s="9"/>
       <c r="O140" s="17"/>
       <c r="Q140" s="18"/>
       <c r="R140" s="18"/>
-    </row>
-    <row r="141" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S140" s="18"/>
+    </row>
+    <row r="141" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K141" s="9"/>
       <c r="M141" s="16"/>
       <c r="N141" s="9"/>
       <c r="O141" s="17"/>
       <c r="Q141" s="18"/>
       <c r="R141" s="18"/>
-    </row>
-    <row r="142" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S141" s="18"/>
+    </row>
+    <row r="142" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K142" s="9"/>
       <c r="M142" s="16"/>
       <c r="N142" s="9"/>
       <c r="O142" s="17"/>
       <c r="Q142" s="18"/>
       <c r="R142" s="18"/>
-    </row>
-    <row r="143" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S142" s="18"/>
+    </row>
+    <row r="143" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K143" s="9"/>
       <c r="M143" s="16"/>
       <c r="N143" s="9"/>
       <c r="O143" s="17"/>
       <c r="Q143" s="18"/>
       <c r="R143" s="18"/>
-    </row>
-    <row r="144" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S143" s="18"/>
+    </row>
+    <row r="144" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K144" s="9"/>
       <c r="M144" s="16"/>
       <c r="N144" s="9"/>
       <c r="O144" s="17"/>
       <c r="Q144" s="18"/>
       <c r="R144" s="18"/>
-    </row>
-    <row r="145" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S144" s="18"/>
+    </row>
+    <row r="145" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K145" s="9"/>
       <c r="M145" s="16"/>
       <c r="N145" s="9"/>
       <c r="O145" s="17"/>
       <c r="Q145" s="18"/>
       <c r="R145" s="18"/>
-    </row>
-    <row r="146" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S145" s="18"/>
+    </row>
+    <row r="146" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K146" s="9"/>
       <c r="M146" s="16"/>
       <c r="N146" s="9"/>
       <c r="O146" s="17"/>
       <c r="Q146" s="18"/>
       <c r="R146" s="18"/>
-    </row>
-    <row r="147" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S146" s="18"/>
+    </row>
+    <row r="147" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K147" s="9"/>
       <c r="M147" s="16"/>
       <c r="N147" s="9"/>
       <c r="O147" s="17"/>
       <c r="Q147" s="18"/>
       <c r="R147" s="18"/>
-    </row>
-    <row r="148" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S147" s="18"/>
+    </row>
+    <row r="148" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K148" s="9"/>
       <c r="M148" s="16"/>
       <c r="N148" s="9"/>
       <c r="O148" s="17"/>
       <c r="Q148" s="18"/>
       <c r="R148" s="18"/>
-    </row>
-    <row r="149" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S148" s="18"/>
+    </row>
+    <row r="149" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K149" s="9"/>
       <c r="M149" s="16"/>
       <c r="N149" s="9"/>
       <c r="O149" s="17"/>
       <c r="Q149" s="18"/>
       <c r="R149" s="18"/>
-    </row>
-    <row r="150" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S149" s="18"/>
+    </row>
+    <row r="150" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K150" s="9"/>
       <c r="M150" s="16"/>
       <c r="N150" s="9"/>
       <c r="O150" s="17"/>
       <c r="Q150" s="18"/>
       <c r="R150" s="18"/>
-    </row>
-    <row r="151" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S150" s="18"/>
+    </row>
+    <row r="151" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K151" s="9"/>
       <c r="M151" s="16"/>
       <c r="N151" s="9"/>
       <c r="O151" s="17"/>
       <c r="Q151" s="18"/>
       <c r="R151" s="18"/>
-    </row>
-    <row r="152" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S151" s="18"/>
+    </row>
+    <row r="152" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K152" s="9"/>
       <c r="M152" s="16"/>
       <c r="N152" s="9"/>
       <c r="O152" s="17"/>
       <c r="Q152" s="18"/>
       <c r="R152" s="18"/>
-    </row>
-    <row r="153" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S152" s="18"/>
+    </row>
+    <row r="153" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K153" s="9"/>
       <c r="M153" s="16"/>
       <c r="N153" s="9"/>
       <c r="O153" s="17"/>
       <c r="Q153" s="18"/>
       <c r="R153" s="18"/>
-    </row>
-    <row r="154" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S153" s="18"/>
+    </row>
+    <row r="154" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K154" s="9"/>
       <c r="M154" s="16"/>
       <c r="N154" s="9"/>
       <c r="O154" s="17"/>
       <c r="Q154" s="18"/>
       <c r="R154" s="18"/>
-    </row>
-    <row r="155" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S154" s="18"/>
+    </row>
+    <row r="155" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K155" s="9"/>
       <c r="M155" s="16"/>
       <c r="N155" s="9"/>
       <c r="O155" s="17"/>
       <c r="Q155" s="18"/>
       <c r="R155" s="18"/>
-    </row>
-    <row r="156" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S155" s="18"/>
+    </row>
+    <row r="156" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K156" s="9"/>
       <c r="M156" s="16"/>
       <c r="N156" s="9"/>
       <c r="O156" s="17"/>
       <c r="Q156" s="18"/>
       <c r="R156" s="18"/>
-    </row>
-    <row r="157" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S156" s="18"/>
+    </row>
+    <row r="157" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K157" s="9"/>
       <c r="M157" s="16"/>
       <c r="N157" s="9"/>
       <c r="O157" s="17"/>
       <c r="Q157" s="18"/>
       <c r="R157" s="18"/>
-    </row>
-    <row r="158" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S157" s="18"/>
+    </row>
+    <row r="158" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K158" s="9"/>
       <c r="M158" s="16"/>
       <c r="N158" s="9"/>
       <c r="O158" s="17"/>
       <c r="Q158" s="18"/>
       <c r="R158" s="18"/>
-    </row>
-    <row r="159" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S158" s="18"/>
+    </row>
+    <row r="159" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K159" s="9"/>
       <c r="M159" s="16"/>
       <c r="N159" s="9"/>
       <c r="O159" s="17"/>
       <c r="Q159" s="18"/>
       <c r="R159" s="18"/>
-    </row>
-    <row r="160" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S159" s="18"/>
+    </row>
+    <row r="160" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K160" s="9"/>
       <c r="M160" s="16"/>
       <c r="N160" s="9"/>
       <c r="O160" s="17"/>
       <c r="Q160" s="18"/>
       <c r="R160" s="18"/>
-    </row>
-    <row r="161" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S160" s="18"/>
+    </row>
+    <row r="161" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K161" s="9"/>
       <c r="M161" s="16"/>
       <c r="N161" s="9"/>
       <c r="O161" s="17"/>
       <c r="Q161" s="18"/>
       <c r="R161" s="18"/>
-    </row>
-    <row r="162" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S161" s="18"/>
+    </row>
+    <row r="162" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K162" s="9"/>
       <c r="M162" s="16"/>
       <c r="N162" s="9"/>
       <c r="O162" s="17"/>
       <c r="Q162" s="18"/>
       <c r="R162" s="18"/>
-    </row>
-    <row r="163" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S162" s="18"/>
+    </row>
+    <row r="163" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K163" s="9"/>
       <c r="M163" s="16"/>
       <c r="N163" s="9"/>
       <c r="O163" s="17"/>
       <c r="Q163" s="18"/>
       <c r="R163" s="18"/>
-    </row>
-    <row r="164" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S163" s="18"/>
+    </row>
+    <row r="164" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q164" s="18"/>
       <c r="R164" s="18"/>
-    </row>
-    <row r="165" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S164" s="18"/>
+    </row>
+    <row r="165" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q165" s="18"/>
       <c r="R165" s="18"/>
-    </row>
-    <row r="166" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S165" s="18"/>
+    </row>
+    <row r="166" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q166" s="18"/>
       <c r="R166" s="18"/>
-    </row>
-    <row r="167" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S166" s="18"/>
+    </row>
+    <row r="167" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q167" s="18"/>
       <c r="R167" s="18"/>
-    </row>
-    <row r="168" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S167" s="18"/>
+    </row>
+    <row r="168" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q168" s="18"/>
       <c r="R168" s="18"/>
-    </row>
-    <row r="169" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S168" s="18"/>
+    </row>
+    <row r="169" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q169" s="18"/>
       <c r="R169" s="18"/>
-    </row>
-    <row r="170" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S169" s="18"/>
+    </row>
+    <row r="170" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q170" s="18"/>
       <c r="R170" s="18"/>
-    </row>
-    <row r="171" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S170" s="18"/>
+    </row>
+    <row r="171" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q171" s="18"/>
       <c r="R171" s="18"/>
-    </row>
-    <row r="172" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S171" s="18"/>
+    </row>
+    <row r="172" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q172" s="18"/>
       <c r="R172" s="18"/>
-    </row>
-    <row r="173" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S172" s="18"/>
+    </row>
+    <row r="173" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q173" s="18"/>
       <c r="R173" s="18"/>
-    </row>
-    <row r="174" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S173" s="18"/>
+    </row>
+    <row r="174" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q174" s="18"/>
       <c r="R174" s="18"/>
-    </row>
-    <row r="175" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S174" s="18"/>
+    </row>
+    <row r="175" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q175" s="18"/>
       <c r="R175" s="18"/>
-    </row>
-    <row r="176" spans="11:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S175" s="18"/>
+    </row>
+    <row r="176" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q176" s="18"/>
       <c r="R176" s="18"/>
-    </row>
-    <row r="177" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S176" s="18"/>
+    </row>
+    <row r="177" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q177" s="18"/>
       <c r="R177" s="18"/>
-    </row>
-    <row r="178" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S177" s="18"/>
+    </row>
+    <row r="178" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q178" s="18"/>
       <c r="R178" s="18"/>
-    </row>
-    <row r="179" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S178" s="18"/>
+    </row>
+    <row r="179" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q179" s="18"/>
       <c r="R179" s="18"/>
-    </row>
-    <row r="180" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S179" s="18"/>
+    </row>
+    <row r="180" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q180" s="18"/>
       <c r="R180" s="18"/>
-    </row>
-    <row r="181" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S180" s="18"/>
+    </row>
+    <row r="181" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q181" s="18"/>
       <c r="R181" s="18"/>
-    </row>
-    <row r="182" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S181" s="18"/>
+    </row>
+    <row r="182" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q182" s="18"/>
       <c r="R182" s="18"/>
-    </row>
-    <row r="183" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S182" s="18"/>
+    </row>
+    <row r="183" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q183" s="18"/>
       <c r="R183" s="18"/>
-    </row>
-    <row r="184" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S183" s="18"/>
+    </row>
+    <row r="184" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q184" s="18"/>
       <c r="R184" s="18"/>
-    </row>
-    <row r="185" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S184" s="18"/>
+    </row>
+    <row r="185" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q185" s="18"/>
       <c r="R185" s="18"/>
-    </row>
-    <row r="186" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S185" s="18"/>
+    </row>
+    <row r="186" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q186" s="18"/>
       <c r="R186" s="18"/>
-    </row>
-    <row r="187" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S186" s="18"/>
+    </row>
+    <row r="187" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q187" s="18"/>
       <c r="R187" s="18"/>
-    </row>
-    <row r="188" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S187" s="18"/>
+    </row>
+    <row r="188" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q188" s="18"/>
       <c r="R188" s="18"/>
-    </row>
-    <row r="189" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S188" s="18"/>
+    </row>
+    <row r="189" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q189" s="18"/>
       <c r="R189" s="18"/>
-    </row>
-    <row r="190" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S189" s="18"/>
+    </row>
+    <row r="190" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q190" s="18"/>
       <c r="R190" s="18"/>
-    </row>
-    <row r="191" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S190" s="18"/>
+    </row>
+    <row r="191" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q191" s="18"/>
       <c r="R191" s="18"/>
-    </row>
-    <row r="192" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S191" s="18"/>
+    </row>
+    <row r="192" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q192" s="18"/>
       <c r="R192" s="18"/>
-    </row>
-    <row r="193" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S192" s="18"/>
+    </row>
+    <row r="193" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q193" s="18"/>
       <c r="R193" s="18"/>
-    </row>
-    <row r="194" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S193" s="18"/>
+    </row>
+    <row r="194" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q194" s="18"/>
       <c r="R194" s="18"/>
-    </row>
-    <row r="195" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S194" s="18"/>
+    </row>
+    <row r="195" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q195" s="18"/>
       <c r="R195" s="18"/>
-    </row>
-    <row r="196" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S195" s="18"/>
+    </row>
+    <row r="196" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q196" s="18"/>
       <c r="R196" s="18"/>
-    </row>
-    <row r="197" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S196" s="18"/>
+    </row>
+    <row r="197" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q197" s="18"/>
       <c r="R197" s="18"/>
-    </row>
-    <row r="198" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S197" s="18"/>
+    </row>
+    <row r="198" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q198" s="18"/>
       <c r="R198" s="18"/>
-    </row>
-    <row r="199" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S198" s="18"/>
+    </row>
+    <row r="199" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q199" s="18"/>
       <c r="R199" s="18"/>
-    </row>
-    <row r="200" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S199" s="18"/>
+    </row>
+    <row r="200" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q200" s="18"/>
       <c r="R200" s="18"/>
-    </row>
-    <row r="201" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S200" s="18"/>
+    </row>
+    <row r="201" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q201" s="18"/>
       <c r="R201" s="18"/>
-    </row>
-    <row r="202" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S201" s="18"/>
+    </row>
+    <row r="202" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q202" s="18"/>
       <c r="R202" s="18"/>
-    </row>
-    <row r="203" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S202" s="18"/>
+    </row>
+    <row r="203" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q203" s="18"/>
       <c r="R203" s="18"/>
-    </row>
-    <row r="204" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S203" s="18"/>
+    </row>
+    <row r="204" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q204" s="18"/>
       <c r="R204" s="18"/>
-    </row>
-    <row r="205" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S204" s="18"/>
+    </row>
+    <row r="205" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q205" s="18"/>
       <c r="R205" s="18"/>
-    </row>
-    <row r="206" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S205" s="18"/>
+    </row>
+    <row r="206" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q206" s="18"/>
       <c r="R206" s="18"/>
-    </row>
-    <row r="207" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S206" s="18"/>
+    </row>
+    <row r="207" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q207" s="18"/>
       <c r="R207" s="18"/>
-    </row>
-    <row r="208" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S207" s="18"/>
+    </row>
+    <row r="208" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q208" s="18"/>
       <c r="R208" s="18"/>
-    </row>
-    <row r="209" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S208" s="18"/>
+    </row>
+    <row r="209" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q209" s="18"/>
       <c r="R209" s="18"/>
-    </row>
-    <row r="210" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S209" s="18"/>
+    </row>
+    <row r="210" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q210" s="18"/>
       <c r="R210" s="18"/>
-    </row>
-    <row r="211" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S210" s="18"/>
+    </row>
+    <row r="211" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q211" s="18"/>
       <c r="R211" s="18"/>
-    </row>
-    <row r="212" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S211" s="18"/>
+    </row>
+    <row r="212" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q212" s="18"/>
       <c r="R212" s="18"/>
-    </row>
-    <row r="213" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S212" s="18"/>
+    </row>
+    <row r="213" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q213" s="18"/>
       <c r="R213" s="18"/>
-    </row>
-    <row r="214" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S213" s="18"/>
+    </row>
+    <row r="214" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q214" s="18"/>
       <c r="R214" s="18"/>
-    </row>
-    <row r="215" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S214" s="18"/>
+    </row>
+    <row r="215" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q215" s="18"/>
       <c r="R215" s="18"/>
-    </row>
-    <row r="216" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S215" s="18"/>
+    </row>
+    <row r="216" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q216" s="18"/>
       <c r="R216" s="18"/>
-    </row>
-    <row r="217" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S216" s="18"/>
+    </row>
+    <row r="217" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q217" s="18"/>
       <c r="R217" s="18"/>
-    </row>
-    <row r="218" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S217" s="18"/>
+    </row>
+    <row r="218" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q218" s="18"/>
       <c r="R218" s="18"/>
-    </row>
-    <row r="219" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S218" s="18"/>
+    </row>
+    <row r="219" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q219" s="18"/>
       <c r="R219" s="18"/>
-    </row>
-    <row r="220" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S219" s="18"/>
+    </row>
+    <row r="220" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q220" s="18"/>
       <c r="R220" s="18"/>
-    </row>
-    <row r="221" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S220" s="18"/>
+    </row>
+    <row r="221" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q221" s="18"/>
       <c r="R221" s="18"/>
-    </row>
-    <row r="222" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S221" s="18"/>
+    </row>
+    <row r="222" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q222" s="18"/>
       <c r="R222" s="18"/>
-    </row>
-    <row r="223" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S222" s="18"/>
+    </row>
+    <row r="223" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q223" s="18"/>
       <c r="R223" s="18"/>
-    </row>
-    <row r="224" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S223" s="18"/>
+    </row>
+    <row r="224" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q224" s="18"/>
       <c r="R224" s="18"/>
-    </row>
-    <row r="225" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S224" s="18"/>
+    </row>
+    <row r="225" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q225" s="18"/>
       <c r="R225" s="18"/>
-    </row>
-    <row r="226" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S225" s="18"/>
+    </row>
+    <row r="226" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q226" s="18"/>
       <c r="R226" s="18"/>
-    </row>
-    <row r="227" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S226" s="18"/>
+    </row>
+    <row r="227" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q227" s="18"/>
       <c r="R227" s="18"/>
-    </row>
-    <row r="228" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S227" s="18"/>
+    </row>
+    <row r="228" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q228" s="18"/>
       <c r="R228" s="18"/>
-    </row>
-    <row r="229" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S228" s="18"/>
+    </row>
+    <row r="229" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q229" s="18"/>
       <c r="R229" s="18"/>
-    </row>
-    <row r="230" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S229" s="18"/>
+    </row>
+    <row r="230" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q230" s="18"/>
       <c r="R230" s="18"/>
-    </row>
-    <row r="231" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S230" s="18"/>
+    </row>
+    <row r="231" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q231" s="18"/>
       <c r="R231" s="18"/>
-    </row>
-    <row r="232" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S231" s="18"/>
+    </row>
+    <row r="232" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q232" s="18"/>
       <c r="R232" s="18"/>
-    </row>
-    <row r="233" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S232" s="18"/>
+    </row>
+    <row r="233" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q233" s="18"/>
       <c r="R233" s="18"/>
-    </row>
-    <row r="234" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S233" s="18"/>
+    </row>
+    <row r="234" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q234" s="18"/>
       <c r="R234" s="18"/>
-    </row>
-    <row r="235" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S234" s="18"/>
+    </row>
+    <row r="235" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q235" s="18"/>
       <c r="R235" s="18"/>
-    </row>
-    <row r="236" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S235" s="18"/>
+    </row>
+    <row r="236" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q236" s="18"/>
       <c r="R236" s="18"/>
-    </row>
-    <row r="237" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S236" s="18"/>
+    </row>
+    <row r="237" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q237" s="18"/>
       <c r="R237" s="18"/>
-    </row>
-    <row r="238" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S237" s="18"/>
+    </row>
+    <row r="238" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q238" s="18"/>
       <c r="R238" s="18"/>
-    </row>
-    <row r="239" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S238" s="18"/>
+    </row>
+    <row r="239" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q239" s="18"/>
       <c r="R239" s="18"/>
-    </row>
-    <row r="240" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S239" s="18"/>
+    </row>
+    <row r="240" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q240" s="18"/>
       <c r="R240" s="18"/>
-    </row>
-    <row r="241" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S240" s="18"/>
+    </row>
+    <row r="241" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q241" s="18"/>
       <c r="R241" s="18"/>
-    </row>
-    <row r="242" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S241" s="18"/>
+    </row>
+    <row r="242" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q242" s="18"/>
       <c r="R242" s="18"/>
-    </row>
-    <row r="243" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S242" s="18"/>
+    </row>
+    <row r="243" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q243" s="18"/>
       <c r="R243" s="18"/>
-    </row>
-    <row r="244" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S243" s="18"/>
+    </row>
+    <row r="244" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q244" s="18"/>
       <c r="R244" s="18"/>
-    </row>
-    <row r="245" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S244" s="18"/>
+    </row>
+    <row r="245" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q245" s="18"/>
       <c r="R245" s="18"/>
-    </row>
-    <row r="246" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S245" s="18"/>
+    </row>
+    <row r="246" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q246" s="18"/>
       <c r="R246" s="18"/>
-    </row>
-    <row r="247" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S246" s="18"/>
+    </row>
+    <row r="247" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q247" s="18"/>
       <c r="R247" s="18"/>
-    </row>
-    <row r="248" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S247" s="18"/>
+    </row>
+    <row r="248" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q248" s="18"/>
       <c r="R248" s="18"/>
-    </row>
-    <row r="249" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S248" s="18"/>
+    </row>
+    <row r="249" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q249" s="18"/>
       <c r="R249" s="18"/>
-    </row>
-    <row r="250" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S249" s="18"/>
+    </row>
+    <row r="250" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q250" s="18"/>
       <c r="R250" s="18"/>
-    </row>
-    <row r="251" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S250" s="18"/>
+    </row>
+    <row r="251" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q251" s="18"/>
       <c r="R251" s="18"/>
-    </row>
-    <row r="252" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S251" s="18"/>
+    </row>
+    <row r="252" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q252" s="18"/>
       <c r="R252" s="18"/>
-    </row>
-    <row r="253" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S252" s="18"/>
+    </row>
+    <row r="253" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q253" s="18"/>
       <c r="R253" s="18"/>
-    </row>
-    <row r="254" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S253" s="18"/>
+    </row>
+    <row r="254" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q254" s="18"/>
       <c r="R254" s="18"/>
-    </row>
-    <row r="255" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S254" s="18"/>
+    </row>
+    <row r="255" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q255" s="18"/>
       <c r="R255" s="18"/>
-    </row>
-    <row r="256" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S255" s="18"/>
+    </row>
+    <row r="256" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q256" s="18"/>
       <c r="R256" s="18"/>
-    </row>
-    <row r="257" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S256" s="18"/>
+    </row>
+    <row r="257" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q257" s="18"/>
       <c r="R257" s="18"/>
-    </row>
-    <row r="258" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S257" s="18"/>
+    </row>
+    <row r="258" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q258" s="18"/>
       <c r="R258" s="18"/>
-    </row>
-    <row r="259" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S258" s="18"/>
+    </row>
+    <row r="259" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q259" s="18"/>
       <c r="R259" s="18"/>
-    </row>
-    <row r="260" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S259" s="18"/>
+    </row>
+    <row r="260" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q260" s="18"/>
       <c r="R260" s="18"/>
-    </row>
-    <row r="261" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S260" s="18"/>
+    </row>
+    <row r="261" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q261" s="18"/>
       <c r="R261" s="18"/>
-    </row>
-    <row r="262" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S261" s="18"/>
+    </row>
+    <row r="262" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q262" s="18"/>
       <c r="R262" s="18"/>
-    </row>
-    <row r="263" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S262" s="18"/>
+    </row>
+    <row r="263" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q263" s="18"/>
       <c r="R263" s="18"/>
-    </row>
-    <row r="264" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S263" s="18"/>
+    </row>
+    <row r="264" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q264" s="18"/>
       <c r="R264" s="18"/>
-    </row>
-    <row r="265" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S264" s="18"/>
+    </row>
+    <row r="265" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q265" s="18"/>
       <c r="R265" s="18"/>
-    </row>
-    <row r="266" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S265" s="18"/>
+    </row>
+    <row r="266" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q266" s="18"/>
       <c r="R266" s="18"/>
-    </row>
-    <row r="267" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S266" s="18"/>
+    </row>
+    <row r="267" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q267" s="18"/>
       <c r="R267" s="18"/>
-    </row>
-    <row r="268" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S267" s="18"/>
+    </row>
+    <row r="268" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q268" s="18"/>
       <c r="R268" s="18"/>
-    </row>
-    <row r="269" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S268" s="18"/>
+    </row>
+    <row r="269" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q269" s="18"/>
       <c r="R269" s="18"/>
-    </row>
-    <row r="270" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S269" s="18"/>
+    </row>
+    <row r="270" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q270" s="18"/>
       <c r="R270" s="18"/>
-    </row>
-    <row r="271" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S270" s="18"/>
+    </row>
+    <row r="271" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q271" s="18"/>
       <c r="R271" s="18"/>
-    </row>
-    <row r="272" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S271" s="18"/>
+    </row>
+    <row r="272" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q272" s="18"/>
       <c r="R272" s="18"/>
-    </row>
-    <row r="273" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S272" s="18"/>
+    </row>
+    <row r="273" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q273" s="18"/>
       <c r="R273" s="18"/>
-    </row>
-    <row r="274" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S273" s="18"/>
+    </row>
+    <row r="274" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q274" s="18"/>
       <c r="R274" s="18"/>
-    </row>
-    <row r="275" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S274" s="18"/>
+    </row>
+    <row r="275" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q275" s="18"/>
       <c r="R275" s="18"/>
-    </row>
-    <row r="276" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S275" s="18"/>
+    </row>
+    <row r="276" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q276" s="18"/>
       <c r="R276" s="18"/>
-    </row>
-    <row r="277" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S276" s="18"/>
+    </row>
+    <row r="277" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q277" s="18"/>
       <c r="R277" s="18"/>
-    </row>
-    <row r="278" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S277" s="18"/>
+    </row>
+    <row r="278" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q278" s="18"/>
       <c r="R278" s="18"/>
-    </row>
-    <row r="279" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S278" s="18"/>
+    </row>
+    <row r="279" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q279" s="18"/>
       <c r="R279" s="18"/>
-    </row>
-    <row r="280" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S279" s="18"/>
+    </row>
+    <row r="280" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q280" s="18"/>
       <c r="R280" s="18"/>
-    </row>
-    <row r="281" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S280" s="18"/>
+    </row>
+    <row r="281" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q281" s="18"/>
       <c r="R281" s="18"/>
-    </row>
-    <row r="282" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S281" s="18"/>
+    </row>
+    <row r="282" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q282" s="18"/>
       <c r="R282" s="18"/>
-    </row>
-    <row r="283" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S282" s="18"/>
+    </row>
+    <row r="283" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q283" s="18"/>
       <c r="R283" s="18"/>
-    </row>
-    <row r="284" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S283" s="18"/>
+    </row>
+    <row r="284" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q284" s="18"/>
       <c r="R284" s="18"/>
-    </row>
-    <row r="285" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S284" s="18"/>
+    </row>
+    <row r="285" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q285" s="18"/>
       <c r="R285" s="18"/>
-    </row>
-    <row r="286" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S285" s="18"/>
+    </row>
+    <row r="286" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q286" s="18"/>
       <c r="R286" s="18"/>
-    </row>
-    <row r="287" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S286" s="18"/>
+    </row>
+    <row r="287" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q287" s="18"/>
       <c r="R287" s="18"/>
-    </row>
-    <row r="288" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S287" s="18"/>
+    </row>
+    <row r="288" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q288" s="18"/>
       <c r="R288" s="18"/>
-    </row>
-    <row r="289" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S288" s="18"/>
+    </row>
+    <row r="289" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q289" s="18"/>
       <c r="R289" s="18"/>
-    </row>
-    <row r="290" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S289" s="18"/>
+    </row>
+    <row r="290" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q290" s="18"/>
       <c r="R290" s="18"/>
-    </row>
-    <row r="291" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S290" s="18"/>
+    </row>
+    <row r="291" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q291" s="18"/>
       <c r="R291" s="18"/>
-    </row>
-    <row r="292" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S291" s="18"/>
+    </row>
+    <row r="292" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q292" s="18"/>
       <c r="R292" s="18"/>
-    </row>
-    <row r="293" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S292" s="18"/>
+    </row>
+    <row r="293" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q293" s="18"/>
       <c r="R293" s="18"/>
-    </row>
-    <row r="294" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S293" s="18"/>
+    </row>
+    <row r="294" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q294" s="18"/>
       <c r="R294" s="18"/>
-    </row>
-    <row r="295" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S294" s="18"/>
+    </row>
+    <row r="295" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q295" s="18"/>
       <c r="R295" s="18"/>
-    </row>
-    <row r="296" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S295" s="18"/>
+    </row>
+    <row r="296" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q296" s="18"/>
       <c r="R296" s="18"/>
-    </row>
-    <row r="297" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S296" s="18"/>
+    </row>
+    <row r="297" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q297" s="18"/>
       <c r="R297" s="18"/>
-    </row>
-    <row r="298" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S297" s="18"/>
+    </row>
+    <row r="298" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q298" s="18"/>
       <c r="R298" s="18"/>
-    </row>
-    <row r="299" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S298" s="18"/>
+    </row>
+    <row r="299" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q299" s="18"/>
       <c r="R299" s="18"/>
-    </row>
-    <row r="300" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S299" s="18"/>
+    </row>
+    <row r="300" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q300" s="18"/>
       <c r="R300" s="18"/>
-    </row>
-    <row r="301" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S300" s="18"/>
+    </row>
+    <row r="301" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q301" s="18"/>
       <c r="R301" s="18"/>
-    </row>
-    <row r="302" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S301" s="18"/>
+    </row>
+    <row r="302" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q302" s="18"/>
       <c r="R302" s="18"/>
-    </row>
-    <row r="303" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S302" s="18"/>
+    </row>
+    <row r="303" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q303" s="18"/>
       <c r="R303" s="18"/>
-    </row>
-    <row r="304" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S303" s="18"/>
+    </row>
+    <row r="304" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q304" s="18"/>
       <c r="R304" s="18"/>
-    </row>
-    <row r="305" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S304" s="18"/>
+    </row>
+    <row r="305" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q305" s="18"/>
       <c r="R305" s="18"/>
-    </row>
-    <row r="306" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S305" s="18"/>
+    </row>
+    <row r="306" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q306" s="18"/>
       <c r="R306" s="18"/>
-    </row>
-    <row r="307" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S306" s="18"/>
+    </row>
+    <row r="307" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q307" s="18"/>
       <c r="R307" s="18"/>
-    </row>
-    <row r="308" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S307" s="18"/>
+    </row>
+    <row r="308" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q308" s="18"/>
       <c r="R308" s="18"/>
-    </row>
-    <row r="309" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S308" s="18"/>
+    </row>
+    <row r="309" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q309" s="18"/>
       <c r="R309" s="18"/>
-    </row>
-    <row r="310" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S309" s="18"/>
+    </row>
+    <row r="310" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q310" s="18"/>
       <c r="R310" s="18"/>
-    </row>
-    <row r="311" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S310" s="18"/>
+    </row>
+    <row r="311" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q311" s="18"/>
       <c r="R311" s="18"/>
-    </row>
-    <row r="312" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S311" s="18"/>
+    </row>
+    <row r="312" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q312" s="18"/>
       <c r="R312" s="18"/>
-    </row>
-    <row r="313" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S312" s="18"/>
+    </row>
+    <row r="313" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q313" s="18"/>
       <c r="R313" s="18"/>
-    </row>
-    <row r="314" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S313" s="18"/>
+    </row>
+    <row r="314" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q314" s="18"/>
       <c r="R314" s="18"/>
-    </row>
-    <row r="315" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S314" s="18"/>
+    </row>
+    <row r="315" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q315" s="18"/>
       <c r="R315" s="18"/>
-    </row>
-    <row r="316" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S315" s="18"/>
+    </row>
+    <row r="316" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q316" s="18"/>
       <c r="R316" s="18"/>
-    </row>
-    <row r="317" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S316" s="18"/>
+    </row>
+    <row r="317" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q317" s="18"/>
       <c r="R317" s="18"/>
-    </row>
-    <row r="318" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S317" s="18"/>
+    </row>
+    <row r="318" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q318" s="18"/>
       <c r="R318" s="18"/>
-    </row>
-    <row r="319" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S318" s="18"/>
+    </row>
+    <row r="319" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q319" s="18"/>
       <c r="R319" s="18"/>
-    </row>
-    <row r="320" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S319" s="18"/>
+    </row>
+    <row r="320" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q320" s="18"/>
       <c r="R320" s="18"/>
-    </row>
-    <row r="321" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S320" s="18"/>
+    </row>
+    <row r="321" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q321" s="18"/>
       <c r="R321" s="18"/>
-    </row>
-    <row r="322" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S321" s="18"/>
+    </row>
+    <row r="322" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q322" s="18"/>
       <c r="R322" s="18"/>
-    </row>
-    <row r="323" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S322" s="18"/>
+    </row>
+    <row r="323" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q323" s="18"/>
       <c r="R323" s="18"/>
-    </row>
-    <row r="324" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S323" s="18"/>
+    </row>
+    <row r="324" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q324" s="18"/>
       <c r="R324" s="18"/>
-    </row>
-    <row r="325" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S324" s="18"/>
+    </row>
+    <row r="325" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q325" s="18"/>
       <c r="R325" s="18"/>
-    </row>
-    <row r="326" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S325" s="18"/>
+    </row>
+    <row r="326" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q326" s="18"/>
       <c r="R326" s="18"/>
-    </row>
-    <row r="327" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S326" s="18"/>
+    </row>
+    <row r="327" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q327" s="18"/>
       <c r="R327" s="18"/>
-    </row>
-    <row r="328" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S327" s="18"/>
+    </row>
+    <row r="328" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q328" s="18"/>
       <c r="R328" s="18"/>
-    </row>
-    <row r="329" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S328" s="18"/>
+    </row>
+    <row r="329" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q329" s="18"/>
       <c r="R329" s="18"/>
-    </row>
-    <row r="330" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S329" s="18"/>
+    </row>
+    <row r="330" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q330" s="18"/>
       <c r="R330" s="18"/>
-    </row>
-    <row r="331" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S330" s="18"/>
+    </row>
+    <row r="331" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q331" s="18"/>
       <c r="R331" s="18"/>
-    </row>
-    <row r="332" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S331" s="18"/>
+    </row>
+    <row r="332" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q332" s="18"/>
       <c r="R332" s="18"/>
-    </row>
-    <row r="333" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S332" s="18"/>
+    </row>
+    <row r="333" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q333" s="18"/>
       <c r="R333" s="18"/>
-    </row>
-    <row r="334" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S333" s="18"/>
+    </row>
+    <row r="334" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q334" s="18"/>
       <c r="R334" s="18"/>
-    </row>
-    <row r="335" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S334" s="18"/>
+    </row>
+    <row r="335" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q335" s="18"/>
       <c r="R335" s="18"/>
-    </row>
-    <row r="336" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S335" s="18"/>
+    </row>
+    <row r="336" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q336" s="18"/>
       <c r="R336" s="18"/>
-    </row>
-    <row r="337" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S336" s="18"/>
+    </row>
+    <row r="337" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q337" s="18"/>
       <c r="R337" s="18"/>
-    </row>
-    <row r="338" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S337" s="18"/>
+    </row>
+    <row r="338" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q338" s="18"/>
       <c r="R338" s="18"/>
-    </row>
-    <row r="339" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S338" s="18"/>
+    </row>
+    <row r="339" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q339" s="18"/>
       <c r="R339" s="18"/>
-    </row>
-    <row r="340" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S339" s="18"/>
+    </row>
+    <row r="340" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q340" s="18"/>
       <c r="R340" s="18"/>
-    </row>
-    <row r="341" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S340" s="18"/>
+    </row>
+    <row r="341" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q341" s="18"/>
       <c r="R341" s="18"/>
-    </row>
-    <row r="342" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S341" s="18"/>
+    </row>
+    <row r="342" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q342" s="18"/>
       <c r="R342" s="18"/>
-    </row>
-    <row r="343" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S342" s="18"/>
+    </row>
+    <row r="343" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q343" s="18"/>
       <c r="R343" s="18"/>
-    </row>
-    <row r="344" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S343" s="18"/>
+    </row>
+    <row r="344" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q344" s="18"/>
       <c r="R344" s="18"/>
-    </row>
-    <row r="345" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S344" s="18"/>
+    </row>
+    <row r="345" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q345" s="18"/>
       <c r="R345" s="18"/>
-    </row>
-    <row r="346" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S345" s="18"/>
+    </row>
+    <row r="346" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q346" s="18"/>
       <c r="R346" s="18"/>
-    </row>
-    <row r="347" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S346" s="18"/>
+    </row>
+    <row r="347" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q347" s="18"/>
       <c r="R347" s="18"/>
-    </row>
-    <row r="348" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S347" s="18"/>
+    </row>
+    <row r="348" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q348" s="18"/>
       <c r="R348" s="18"/>
-    </row>
-    <row r="349" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S348" s="18"/>
+    </row>
+    <row r="349" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q349" s="18"/>
       <c r="R349" s="18"/>
-    </row>
-    <row r="350" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S349" s="18"/>
+    </row>
+    <row r="350" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q350" s="18"/>
       <c r="R350" s="18"/>
-    </row>
-    <row r="351" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S350" s="18"/>
+    </row>
+    <row r="351" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q351" s="18"/>
       <c r="R351" s="18"/>
-    </row>
-    <row r="352" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S351" s="18"/>
+    </row>
+    <row r="352" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q352" s="18"/>
       <c r="R352" s="18"/>
-    </row>
-    <row r="353" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S352" s="18"/>
+    </row>
+    <row r="353" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q353" s="18"/>
       <c r="R353" s="18"/>
-    </row>
-    <row r="354" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S353" s="18"/>
+    </row>
+    <row r="354" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q354" s="18"/>
       <c r="R354" s="18"/>
-    </row>
-    <row r="355" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S354" s="18"/>
+    </row>
+    <row r="355" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q355" s="18"/>
       <c r="R355" s="18"/>
-    </row>
-    <row r="356" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S355" s="18"/>
+    </row>
+    <row r="356" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q356" s="18"/>
       <c r="R356" s="18"/>
-    </row>
-    <row r="357" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S356" s="18"/>
+    </row>
+    <row r="357" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q357" s="18"/>
       <c r="R357" s="18"/>
-    </row>
-    <row r="358" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S357" s="18"/>
+    </row>
+    <row r="358" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q358" s="18"/>
       <c r="R358" s="18"/>
-    </row>
-    <row r="359" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S358" s="18"/>
+    </row>
+    <row r="359" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q359" s="18"/>
       <c r="R359" s="18"/>
-    </row>
-    <row r="360" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S359" s="18"/>
+    </row>
+    <row r="360" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q360" s="18"/>
       <c r="R360" s="18"/>
-    </row>
-    <row r="361" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S360" s="18"/>
+    </row>
+    <row r="361" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q361" s="18"/>
       <c r="R361" s="18"/>
-    </row>
-    <row r="362" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S361" s="18"/>
+    </row>
+    <row r="362" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q362" s="18"/>
       <c r="R362" s="18"/>
-    </row>
-    <row r="363" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S362" s="18"/>
+    </row>
+    <row r="363" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q363" s="18"/>
       <c r="R363" s="18"/>
-    </row>
-    <row r="364" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S363" s="18"/>
+    </row>
+    <row r="364" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q364" s="18"/>
       <c r="R364" s="18"/>
-    </row>
-    <row r="365" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S364" s="18"/>
+    </row>
+    <row r="365" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q365" s="18"/>
       <c r="R365" s="18"/>
-    </row>
-    <row r="366" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S365" s="18"/>
+    </row>
+    <row r="366" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q366" s="18"/>
       <c r="R366" s="18"/>
-    </row>
-    <row r="367" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S366" s="18"/>
+    </row>
+    <row r="367" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q367" s="18"/>
       <c r="R367" s="18"/>
-    </row>
-    <row r="368" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S367" s="18"/>
+    </row>
+    <row r="368" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q368" s="18"/>
       <c r="R368" s="18"/>
-    </row>
-    <row r="369" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S368" s="18"/>
+    </row>
+    <row r="369" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q369" s="18"/>
       <c r="R369" s="18"/>
-    </row>
-    <row r="370" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S369" s="18"/>
+    </row>
+    <row r="370" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q370" s="18"/>
       <c r="R370" s="18"/>
-    </row>
-    <row r="371" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S370" s="18"/>
+    </row>
+    <row r="371" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q371" s="18"/>
       <c r="R371" s="18"/>
-    </row>
-    <row r="372" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S371" s="18"/>
+    </row>
+    <row r="372" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q372" s="18"/>
       <c r="R372" s="18"/>
-    </row>
-    <row r="373" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S372" s="18"/>
+    </row>
+    <row r="373" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q373" s="18"/>
       <c r="R373" s="18"/>
-    </row>
-    <row r="374" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S373" s="18"/>
+    </row>
+    <row r="374" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q374" s="18"/>
       <c r="R374" s="18"/>
-    </row>
-    <row r="375" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S374" s="18"/>
+    </row>
+    <row r="375" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q375" s="18"/>
       <c r="R375" s="18"/>
-    </row>
-    <row r="376" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S375" s="18"/>
+    </row>
+    <row r="376" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q376" s="18"/>
       <c r="R376" s="18"/>
-    </row>
-    <row r="377" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S376" s="18"/>
+    </row>
+    <row r="377" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q377" s="18"/>
       <c r="R377" s="18"/>
-    </row>
-    <row r="378" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S377" s="18"/>
+    </row>
+    <row r="378" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q378" s="18"/>
       <c r="R378" s="18"/>
-    </row>
-    <row r="379" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S378" s="18"/>
+    </row>
+    <row r="379" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q379" s="18"/>
       <c r="R379" s="18"/>
-    </row>
-    <row r="380" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S379" s="18"/>
+    </row>
+    <row r="380" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q380" s="18"/>
       <c r="R380" s="18"/>
-    </row>
-    <row r="381" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S380" s="18"/>
+    </row>
+    <row r="381" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q381" s="18"/>
       <c r="R381" s="18"/>
-    </row>
-    <row r="382" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S381" s="18"/>
+    </row>
+    <row r="382" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q382" s="18"/>
       <c r="R382" s="18"/>
-    </row>
-    <row r="383" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S382" s="18"/>
+    </row>
+    <row r="383" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q383" s="18"/>
       <c r="R383" s="18"/>
-    </row>
-    <row r="384" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S383" s="18"/>
+    </row>
+    <row r="384" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q384" s="18"/>
       <c r="R384" s="18"/>
-    </row>
-    <row r="385" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S384" s="18"/>
+    </row>
+    <row r="385" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q385" s="18"/>
       <c r="R385" s="18"/>
-    </row>
-    <row r="386" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S385" s="18"/>
+    </row>
+    <row r="386" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q386" s="18"/>
       <c r="R386" s="18"/>
-    </row>
-    <row r="387" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S386" s="18"/>
+    </row>
+    <row r="387" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q387" s="18"/>
       <c r="R387" s="18"/>
-    </row>
-    <row r="388" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S387" s="18"/>
+    </row>
+    <row r="388" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q388" s="18"/>
       <c r="R388" s="18"/>
-    </row>
-    <row r="389" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S388" s="18"/>
+    </row>
+    <row r="389" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q389" s="18"/>
       <c r="R389" s="18"/>
-    </row>
-    <row r="390" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S389" s="18"/>
+    </row>
+    <row r="390" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q390" s="18"/>
       <c r="R390" s="18"/>
-    </row>
-    <row r="391" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S390" s="18"/>
+    </row>
+    <row r="391" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q391" s="18"/>
       <c r="R391" s="18"/>
-    </row>
-    <row r="392" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S391" s="18"/>
+    </row>
+    <row r="392" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q392" s="18"/>
       <c r="R392" s="18"/>
-    </row>
-    <row r="393" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S392" s="18"/>
+    </row>
+    <row r="393" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q393" s="18"/>
       <c r="R393" s="18"/>
-    </row>
-    <row r="394" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S393" s="18"/>
+    </row>
+    <row r="394" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q394" s="18"/>
       <c r="R394" s="18"/>
-    </row>
-    <row r="395" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S394" s="18"/>
+    </row>
+    <row r="395" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q395" s="18"/>
       <c r="R395" s="18"/>
-    </row>
-    <row r="396" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S395" s="18"/>
+    </row>
+    <row r="396" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q396" s="18"/>
       <c r="R396" s="18"/>
-    </row>
-    <row r="397" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S396" s="18"/>
+    </row>
+    <row r="397" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q397" s="18"/>
       <c r="R397" s="18"/>
-    </row>
-    <row r="398" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S397" s="18"/>
+    </row>
+    <row r="398" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q398" s="18"/>
       <c r="R398" s="18"/>
-    </row>
-    <row r="399" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S398" s="18"/>
+    </row>
+    <row r="399" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q399" s="18"/>
       <c r="R399" s="18"/>
-    </row>
-    <row r="400" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S399" s="18"/>
+    </row>
+    <row r="400" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q400" s="18"/>
       <c r="R400" s="18"/>
-    </row>
-    <row r="401" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S400" s="18"/>
+    </row>
+    <row r="401" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q401" s="18"/>
       <c r="R401" s="18"/>
-    </row>
-    <row r="402" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S401" s="18"/>
+    </row>
+    <row r="402" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q402" s="18"/>
       <c r="R402" s="18"/>
-    </row>
-    <row r="403" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S402" s="18"/>
+    </row>
+    <row r="403" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q403" s="18"/>
       <c r="R403" s="18"/>
-    </row>
-    <row r="404" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S403" s="18"/>
+    </row>
+    <row r="404" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q404" s="18"/>
       <c r="R404" s="18"/>
-    </row>
-    <row r="405" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S404" s="18"/>
+    </row>
+    <row r="405" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q405" s="18"/>
       <c r="R405" s="18"/>
-    </row>
-    <row r="406" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S405" s="18"/>
+    </row>
+    <row r="406" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q406" s="18"/>
       <c r="R406" s="18"/>
-    </row>
-    <row r="407" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S406" s="18"/>
+    </row>
+    <row r="407" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q407" s="18"/>
       <c r="R407" s="18"/>
-    </row>
-    <row r="408" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S407" s="18"/>
+    </row>
+    <row r="408" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q408" s="18"/>
       <c r="R408" s="18"/>
-    </row>
-    <row r="409" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S408" s="18"/>
+    </row>
+    <row r="409" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q409" s="18"/>
       <c r="R409" s="18"/>
-    </row>
-    <row r="410" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S409" s="18"/>
+    </row>
+    <row r="410" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q410" s="18"/>
       <c r="R410" s="18"/>
-    </row>
-    <row r="411" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S410" s="18"/>
+    </row>
+    <row r="411" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q411" s="18"/>
       <c r="R411" s="18"/>
-    </row>
-    <row r="412" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S411" s="18"/>
+    </row>
+    <row r="412" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q412" s="18"/>
       <c r="R412" s="18"/>
-    </row>
-    <row r="413" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S412" s="18"/>
+    </row>
+    <row r="413" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q413" s="18"/>
       <c r="R413" s="18"/>
-    </row>
-    <row r="414" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S413" s="18"/>
+    </row>
+    <row r="414" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q414" s="18"/>
       <c r="R414" s="18"/>
-    </row>
-    <row r="415" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S414" s="18"/>
+    </row>
+    <row r="415" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q415" s="18"/>
       <c r="R415" s="18"/>
-    </row>
-    <row r="416" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S415" s="18"/>
+    </row>
+    <row r="416" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q416" s="18"/>
       <c r="R416" s="18"/>
-    </row>
-    <row r="417" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S416" s="18"/>
+    </row>
+    <row r="417" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q417" s="18"/>
       <c r="R417" s="18"/>
-    </row>
-    <row r="418" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S417" s="18"/>
+    </row>
+    <row r="418" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q418" s="18"/>
       <c r="R418" s="18"/>
-    </row>
-    <row r="419" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S418" s="18"/>
+    </row>
+    <row r="419" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q419" s="18"/>
       <c r="R419" s="18"/>
-    </row>
-    <row r="420" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S419" s="18"/>
+    </row>
+    <row r="420" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q420" s="18"/>
       <c r="R420" s="18"/>
-    </row>
-    <row r="421" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S420" s="18"/>
+    </row>
+    <row r="421" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q421" s="18"/>
       <c r="R421" s="18"/>
-    </row>
-    <row r="422" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S421" s="18"/>
+    </row>
+    <row r="422" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q422" s="18"/>
       <c r="R422" s="18"/>
-    </row>
-    <row r="423" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S422" s="18"/>
+    </row>
+    <row r="423" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q423" s="18"/>
       <c r="R423" s="18"/>
-    </row>
-    <row r="424" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S423" s="18"/>
+    </row>
+    <row r="424" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q424" s="18"/>
       <c r="R424" s="18"/>
-    </row>
-    <row r="425" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S424" s="18"/>
+    </row>
+    <row r="425" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q425" s="18"/>
       <c r="R425" s="18"/>
-    </row>
-    <row r="426" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S425" s="18"/>
+    </row>
+    <row r="426" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q426" s="18"/>
       <c r="R426" s="18"/>
-    </row>
-    <row r="427" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S426" s="18"/>
+    </row>
+    <row r="427" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q427" s="18"/>
       <c r="R427" s="18"/>
-    </row>
-    <row r="428" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S427" s="18"/>
+    </row>
+    <row r="428" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q428" s="18"/>
       <c r="R428" s="18"/>
-    </row>
-    <row r="429" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S428" s="18"/>
+    </row>
+    <row r="429" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q429" s="18"/>
       <c r="R429" s="18"/>
-    </row>
-    <row r="430" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S429" s="18"/>
+    </row>
+    <row r="430" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q430" s="18"/>
       <c r="R430" s="18"/>
-    </row>
-    <row r="431" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S430" s="18"/>
+    </row>
+    <row r="431" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q431" s="18"/>
       <c r="R431" s="18"/>
-    </row>
-    <row r="432" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S431" s="18"/>
+    </row>
+    <row r="432" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q432" s="18"/>
       <c r="R432" s="18"/>
-    </row>
-    <row r="433" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S432" s="18"/>
+    </row>
+    <row r="433" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q433" s="18"/>
       <c r="R433" s="18"/>
-    </row>
-    <row r="434" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S433" s="18"/>
+    </row>
+    <row r="434" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q434" s="18"/>
       <c r="R434" s="18"/>
-    </row>
-    <row r="435" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S434" s="18"/>
+    </row>
+    <row r="435" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q435" s="18"/>
       <c r="R435" s="18"/>
-    </row>
-    <row r="436" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S435" s="18"/>
+    </row>
+    <row r="436" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q436" s="18"/>
       <c r="R436" s="18"/>
-    </row>
-    <row r="437" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S436" s="18"/>
+    </row>
+    <row r="437" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q437" s="18"/>
       <c r="R437" s="18"/>
-    </row>
-    <row r="438" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S437" s="18"/>
+    </row>
+    <row r="438" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q438" s="18"/>
       <c r="R438" s="18"/>
-    </row>
-    <row r="439" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S438" s="18"/>
+    </row>
+    <row r="439" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q439" s="18"/>
       <c r="R439" s="18"/>
-    </row>
-    <row r="440" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S439" s="18"/>
+    </row>
+    <row r="440" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q440" s="18"/>
       <c r="R440" s="18"/>
-    </row>
-    <row r="441" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S440" s="18"/>
+    </row>
+    <row r="441" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q441" s="18"/>
       <c r="R441" s="18"/>
-    </row>
-    <row r="442" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S441" s="18"/>
+    </row>
+    <row r="442" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q442" s="18"/>
       <c r="R442" s="18"/>
-    </row>
-    <row r="443" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S442" s="18"/>
+    </row>
+    <row r="443" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q443" s="18"/>
       <c r="R443" s="18"/>
-    </row>
-    <row r="444" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S443" s="18"/>
+    </row>
+    <row r="444" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q444" s="18"/>
       <c r="R444" s="18"/>
-    </row>
-    <row r="445" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S444" s="18"/>
+    </row>
+    <row r="445" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q445" s="18"/>
       <c r="R445" s="18"/>
-    </row>
-    <row r="446" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S445" s="18"/>
+    </row>
+    <row r="446" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q446" s="18"/>
       <c r="R446" s="18"/>
-    </row>
-    <row r="447" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S446" s="18"/>
+    </row>
+    <row r="447" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q447" s="18"/>
       <c r="R447" s="18"/>
-    </row>
-    <row r="448" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S447" s="18"/>
+    </row>
+    <row r="448" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q448" s="18"/>
       <c r="R448" s="18"/>
-    </row>
-    <row r="449" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S448" s="18"/>
+    </row>
+    <row r="449" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q449" s="18"/>
       <c r="R449" s="18"/>
-    </row>
-    <row r="450" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S449" s="18"/>
+    </row>
+    <row r="450" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q450" s="18"/>
       <c r="R450" s="18"/>
-    </row>
-    <row r="451" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S450" s="18"/>
+    </row>
+    <row r="451" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q451" s="18"/>
       <c r="R451" s="18"/>
-    </row>
-    <row r="452" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S451" s="18"/>
+    </row>
+    <row r="452" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q452" s="18"/>
       <c r="R452" s="18"/>
-    </row>
-    <row r="453" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S452" s="18"/>
+    </row>
+    <row r="453" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q453" s="18"/>
       <c r="R453" s="18"/>
-    </row>
-    <row r="454" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S453" s="18"/>
+    </row>
+    <row r="454" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q454" s="18"/>
       <c r="R454" s="18"/>
-    </row>
-    <row r="455" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S454" s="18"/>
+    </row>
+    <row r="455" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q455" s="18"/>
       <c r="R455" s="18"/>
-    </row>
-    <row r="456" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S455" s="18"/>
+    </row>
+    <row r="456" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q456" s="18"/>
       <c r="R456" s="18"/>
-    </row>
-    <row r="457" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S456" s="18"/>
+    </row>
+    <row r="457" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q457" s="18"/>
       <c r="R457" s="18"/>
-    </row>
-    <row r="458" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S457" s="18"/>
+    </row>
+    <row r="458" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q458" s="18"/>
       <c r="R458" s="18"/>
-    </row>
-    <row r="459" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S458" s="18"/>
+    </row>
+    <row r="459" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q459" s="18"/>
       <c r="R459" s="18"/>
-    </row>
-    <row r="460" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S459" s="18"/>
+    </row>
+    <row r="460" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q460" s="18"/>
       <c r="R460" s="18"/>
-    </row>
-    <row r="461" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S460" s="18"/>
+    </row>
+    <row r="461" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q461" s="18"/>
       <c r="R461" s="18"/>
-    </row>
-    <row r="462" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S461" s="18"/>
+    </row>
+    <row r="462" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q462" s="18"/>
       <c r="R462" s="18"/>
-    </row>
-    <row r="463" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S462" s="18"/>
+    </row>
+    <row r="463" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q463" s="18"/>
       <c r="R463" s="18"/>
-    </row>
-    <row r="464" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S463" s="18"/>
+    </row>
+    <row r="464" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q464" s="18"/>
       <c r="R464" s="18"/>
-    </row>
-    <row r="465" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S464" s="18"/>
+    </row>
+    <row r="465" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q465" s="18"/>
       <c r="R465" s="18"/>
-    </row>
-    <row r="466" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S465" s="18"/>
+    </row>
+    <row r="466" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q466" s="18"/>
       <c r="R466" s="18"/>
-    </row>
-    <row r="467" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S466" s="18"/>
+    </row>
+    <row r="467" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q467" s="18"/>
       <c r="R467" s="18"/>
-    </row>
-    <row r="468" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S467" s="18"/>
+    </row>
+    <row r="468" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q468" s="18"/>
       <c r="R468" s="18"/>
-    </row>
-    <row r="469" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S468" s="18"/>
+    </row>
+    <row r="469" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q469" s="18"/>
       <c r="R469" s="18"/>
-    </row>
-    <row r="470" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S469" s="18"/>
+    </row>
+    <row r="470" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q470" s="18"/>
       <c r="R470" s="18"/>
-    </row>
-    <row r="471" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S470" s="18"/>
+    </row>
+    <row r="471" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q471" s="18"/>
       <c r="R471" s="18"/>
-    </row>
-    <row r="472" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S471" s="18"/>
+    </row>
+    <row r="472" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q472" s="18"/>
       <c r="R472" s="18"/>
-    </row>
-    <row r="473" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S472" s="18"/>
+    </row>
+    <row r="473" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q473" s="18"/>
       <c r="R473" s="18"/>
-    </row>
-    <row r="474" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S473" s="18"/>
+    </row>
+    <row r="474" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q474" s="18"/>
       <c r="R474" s="18"/>
-    </row>
-    <row r="475" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S474" s="18"/>
+    </row>
+    <row r="475" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q475" s="18"/>
       <c r="R475" s="18"/>
-    </row>
-    <row r="476" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S475" s="18"/>
+    </row>
+    <row r="476" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q476" s="18"/>
       <c r="R476" s="18"/>
-    </row>
-    <row r="477" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S476" s="18"/>
+    </row>
+    <row r="477" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q477" s="18"/>
       <c r="R477" s="18"/>
-    </row>
-    <row r="478" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S477" s="18"/>
+    </row>
+    <row r="478" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q478" s="18"/>
       <c r="R478" s="18"/>
-    </row>
-    <row r="479" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S478" s="18"/>
+    </row>
+    <row r="479" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q479" s="18"/>
       <c r="R479" s="18"/>
-    </row>
-    <row r="480" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S479" s="18"/>
+    </row>
+    <row r="480" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q480" s="18"/>
       <c r="R480" s="18"/>
-    </row>
-    <row r="481" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S480" s="18"/>
+    </row>
+    <row r="481" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q481" s="18"/>
       <c r="R481" s="18"/>
-    </row>
-    <row r="482" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S481" s="18"/>
+    </row>
+    <row r="482" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q482" s="18"/>
       <c r="R482" s="18"/>
-    </row>
-    <row r="483" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S482" s="18"/>
+    </row>
+    <row r="483" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q483" s="18"/>
       <c r="R483" s="18"/>
-    </row>
-    <row r="484" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S483" s="18"/>
+    </row>
+    <row r="484" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q484" s="18"/>
       <c r="R484" s="18"/>
-    </row>
-    <row r="485" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S484" s="18"/>
+    </row>
+    <row r="485" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q485" s="18"/>
       <c r="R485" s="18"/>
-    </row>
-    <row r="486" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S485" s="18"/>
+    </row>
+    <row r="486" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q486" s="18"/>
       <c r="R486" s="18"/>
-    </row>
-    <row r="487" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S486" s="18"/>
+    </row>
+    <row r="487" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q487" s="18"/>
       <c r="R487" s="18"/>
-    </row>
-    <row r="488" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S487" s="18"/>
+    </row>
+    <row r="488" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q488" s="18"/>
       <c r="R488" s="18"/>
-    </row>
-    <row r="489" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S488" s="18"/>
+    </row>
+    <row r="489" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q489" s="18"/>
       <c r="R489" s="18"/>
-    </row>
-    <row r="490" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S489" s="18"/>
+    </row>
+    <row r="490" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q490" s="18"/>
       <c r="R490" s="18"/>
-    </row>
-    <row r="491" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S490" s="18"/>
+    </row>
+    <row r="491" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q491" s="18"/>
       <c r="R491" s="18"/>
-    </row>
-    <row r="492" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S491" s="18"/>
+    </row>
+    <row r="492" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q492" s="18"/>
       <c r="R492" s="18"/>
-    </row>
-    <row r="493" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S492" s="18"/>
+    </row>
+    <row r="493" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q493" s="18"/>
       <c r="R493" s="18"/>
-    </row>
-    <row r="494" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S493" s="18"/>
+    </row>
+    <row r="494" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q494" s="18"/>
       <c r="R494" s="18"/>
-    </row>
-    <row r="495" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S494" s="18"/>
+    </row>
+    <row r="495" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q495" s="18"/>
       <c r="R495" s="18"/>
-    </row>
-    <row r="496" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S495" s="18"/>
+    </row>
+    <row r="496" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q496" s="18"/>
       <c r="R496" s="18"/>
-    </row>
-    <row r="497" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S496" s="18"/>
+    </row>
+    <row r="497" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q497" s="18"/>
       <c r="R497" s="18"/>
-    </row>
-    <row r="498" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S497" s="18"/>
+    </row>
+    <row r="498" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q498" s="18"/>
       <c r="R498" s="18"/>
-    </row>
-    <row r="499" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S498" s="18"/>
+    </row>
+    <row r="499" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q499" s="18"/>
       <c r="R499" s="18"/>
-    </row>
-    <row r="500" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S499" s="18"/>
+    </row>
+    <row r="500" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q500" s="18"/>
       <c r="R500" s="18"/>
-    </row>
-    <row r="501" spans="17:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S500" s="18"/>
+    </row>
+    <row r="501" spans="17:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q501" s="18"/>
       <c r="R501" s="18"/>
+      <c r="S501" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5231,10 +5880,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5250,13 +5899,13 @@
     <col min="14" max="14" width="50.6328125" style="5" customWidth="1"/>
     <col min="15" max="15" width="25.6328125" style="5" customWidth="1"/>
     <col min="16" max="16" width="21.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="25.6328125" style="28" customWidth="1"/>
-    <col min="19" max="19" width="25.6328125" style="29" customWidth="1"/>
-    <col min="20" max="20" width="28.453125" style="8" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="5"/>
+    <col min="17" max="19" width="25.6328125" style="28" customWidth="1"/>
+    <col min="20" max="20" width="25.6328125" style="29" customWidth="1"/>
+    <col min="21" max="21" width="28.453125" style="8" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5306,16 +5955,19 @@
         <v>17</v>
       </c>
       <c r="R1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
-    </row>
-    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y1"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -5334,11 +5986,12 @@
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
-      <c r="V2"/>
+      <c r="T2" s="25"/>
       <c r="W2"/>
       <c r="X2"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y2"/>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -5357,196 +6010,197 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
       <c r="S3" s="25"/>
-      <c r="V3"/>
+      <c r="T3" s="25"/>
       <c r="W3"/>
       <c r="X3"/>
-    </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V4"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W4"/>
       <c r="X4"/>
-    </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V5"/>
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W5"/>
       <c r="X5"/>
-    </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V6"/>
+      <c r="Y5"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W6"/>
       <c r="X6"/>
-    </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V7"/>
+      <c r="Y6"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W7"/>
       <c r="X7"/>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V8"/>
+      <c r="Y7"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W8"/>
       <c r="X8"/>
-    </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V9"/>
+      <c r="Y8"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W9"/>
       <c r="X9"/>
-    </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V10"/>
+      <c r="Y9"/>
+    </row>
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W10"/>
       <c r="X10"/>
-    </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V11"/>
+      <c r="Y10"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W11"/>
       <c r="X11"/>
-    </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V12"/>
+      <c r="Y11"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W12"/>
       <c r="X12"/>
-    </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V13"/>
+      <c r="Y12"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W13"/>
       <c r="X13"/>
-    </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V14"/>
+      <c r="Y13"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W14"/>
       <c r="X14"/>
-    </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V15"/>
+      <c r="Y14"/>
+    </row>
+    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W15"/>
       <c r="X15"/>
-    </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V16"/>
+      <c r="Y15"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W16"/>
       <c r="X16"/>
-    </row>
-    <row r="17" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V17"/>
+      <c r="Y16"/>
+    </row>
+    <row r="17" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W17"/>
       <c r="X17"/>
-    </row>
-    <row r="18" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V18"/>
+      <c r="Y17"/>
+    </row>
+    <row r="18" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W18"/>
       <c r="X18"/>
-    </row>
-    <row r="19" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V19"/>
+      <c r="Y18"/>
+    </row>
+    <row r="19" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W19"/>
       <c r="X19"/>
-    </row>
-    <row r="20" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V20"/>
+      <c r="Y19"/>
+    </row>
+    <row r="20" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W20"/>
       <c r="X20"/>
-    </row>
-    <row r="21" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V21"/>
+      <c r="Y20"/>
+    </row>
+    <row r="21" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W21"/>
       <c r="X21"/>
-    </row>
-    <row r="22" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V22"/>
+      <c r="Y21"/>
+    </row>
+    <row r="22" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W22"/>
       <c r="X22"/>
-    </row>
-    <row r="23" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V23"/>
+      <c r="Y22"/>
+    </row>
+    <row r="23" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W23"/>
       <c r="X23"/>
-    </row>
-    <row r="24" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V24"/>
+      <c r="Y23"/>
+    </row>
+    <row r="24" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W24"/>
       <c r="X24"/>
-    </row>
-    <row r="25" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V25"/>
+      <c r="Y24"/>
+    </row>
+    <row r="25" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W25"/>
       <c r="X25"/>
-    </row>
-    <row r="26" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V26"/>
+      <c r="Y25"/>
+    </row>
+    <row r="26" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W26"/>
       <c r="X26"/>
-    </row>
-    <row r="27" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V27"/>
+      <c r="Y26"/>
+    </row>
+    <row r="27" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W27"/>
       <c r="X27"/>
-    </row>
-    <row r="28" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V28"/>
+      <c r="Y27"/>
+    </row>
+    <row r="28" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W28"/>
       <c r="X28"/>
-    </row>
-    <row r="29" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V29"/>
+      <c r="Y28"/>
+    </row>
+    <row r="29" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W29"/>
       <c r="X29"/>
-    </row>
-    <row r="30" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V30"/>
+      <c r="Y29"/>
+    </row>
+    <row r="30" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W30"/>
       <c r="X30"/>
-    </row>
-    <row r="31" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V31"/>
+      <c r="Y30"/>
+    </row>
+    <row r="31" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W31"/>
       <c r="X31"/>
-    </row>
-    <row r="32" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V32"/>
+      <c r="Y31"/>
+    </row>
+    <row r="32" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W32"/>
       <c r="X32"/>
-    </row>
-    <row r="33" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V33"/>
+      <c r="Y32"/>
+    </row>
+    <row r="33" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W33"/>
       <c r="X33"/>
-    </row>
-    <row r="34" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V34"/>
+      <c r="Y33"/>
+    </row>
+    <row r="34" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W34"/>
       <c r="X34"/>
-    </row>
-    <row r="35" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V35"/>
+      <c r="Y34"/>
+    </row>
+    <row r="35" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W35"/>
       <c r="X35"/>
-    </row>
-    <row r="36" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V36"/>
+      <c r="Y35"/>
+    </row>
+    <row r="36" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W36"/>
       <c r="X36"/>
-    </row>
-    <row r="37" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V37"/>
+      <c r="Y36"/>
+    </row>
+    <row r="37" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W37"/>
       <c r="X37"/>
-    </row>
-    <row r="38" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V38"/>
+      <c r="Y37"/>
+    </row>
+    <row r="38" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W38"/>
       <c r="X38"/>
-    </row>
-    <row r="39" spans="22:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V39"/>
+      <c r="Y38"/>
+    </row>
+    <row r="39" spans="23:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W39"/>
       <c r="X39"/>
+      <c r="Y39"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Attitude Loose/Attitude Loose/Templates/Workload Template.xlsx
+++ b/Attitude Loose/Attitude Loose/Templates/Workload Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\Attitude Loose\Attitude Loose\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB2F7532-6293-4A96-A951-0C95B52AD5CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="825" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDA Validation " sheetId="2" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
   <si>
     <t>Trial ID</t>
   </si>
@@ -118,11 +119,14 @@
   <si>
     <t>Work Time</t>
   </si>
+  <si>
+    <t>Relative Trial Processing Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
@@ -274,86 +278,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="143">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -872,6 +796,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1296,6 +1240,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1824,6 +1778,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2260,6 +2244,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2493,218 +2497,218 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Trial ID" dataDxfId="140"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="139"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="138"/>
-    <tableColumn id="5" name="Lead Organization" dataDxfId="137"/>
-    <tableColumn id="6" name="Received Date" dataDxfId="136"/>
-    <tableColumn id="7" name="Accepted Date" dataDxfId="135"/>
-    <tableColumn id="8" name="Validator" dataDxfId="134"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trial ID" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Trial Type" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Submission#" dataDxfId="138"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lead Organization" dataDxfId="137"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Received Date" dataDxfId="136"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted Date" dataDxfId="135"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Validator" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:O3" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table36" displayName="Table36" ref="A1:O3" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Trial ID" dataDxfId="35"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="34"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="33"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="32"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="31"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="30"/>
-    <tableColumn id="11" name="On-Hold Reason" dataDxfId="29"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="28"/>
-    <tableColumn id="19" name="Additional Comments" dataDxfId="27"/>
-    <tableColumn id="13" name="Processing Status" dataDxfId="26"/>
-    <tableColumn id="14" name="QCer" dataDxfId="25"/>
-    <tableColumn id="15" name="Start Time" dataDxfId="24"/>
-    <tableColumn id="16" name="End Time" dataDxfId="23"/>
-    <tableColumn id="17" name="Comments" dataDxfId="22"/>
-    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Trial ID" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Trial Type" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Submission#" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Lead Oganization" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="On-Hold Date" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Off-Hold Date" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="On-Hold Reason" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="On-Hold Description" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0900-000013000000}" name="Additional Comments" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="Processing Status" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="QCer" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="Start Time" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="End Time" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="Comments" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="Processing Time (HH:MM:SS)" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9910" displayName="Table9910" ref="Q1:X3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="Q1:X3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table9910" displayName="Table9910" ref="Q1:X3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="Q1:X3" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="QCer" dataDxfId="17"/>
-    <tableColumn id="4" name="Original" dataDxfId="16"/>
-    <tableColumn id="2" name="Original Avg Time" dataDxfId="15"/>
-    <tableColumn id="3" name="Amendment" dataDxfId="14"/>
-    <tableColumn id="5" name="Amendment Avg Time" dataDxfId="13"/>
-    <tableColumn id="6" name="Abbreviated" dataDxfId="12"/>
-    <tableColumn id="7" name="Abbreviated Avg Time" dataDxfId="11"/>
-    <tableColumn id="8" name="Normalized Trial Processing Time" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="QCer" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Original" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Original Avg Time" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Amendment" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Amendment Avg Time" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Abbreviated" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Abbreviated Avg Time" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Normalized Trial Processing Time" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Team Member" dataDxfId="9"/>
-    <tableColumn id="2" name="Work Time" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Team Member" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Relative Trial Processing Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table991516" displayName="Table991516" ref="I1:M3" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132" tableBorderDxfId="131">
-  <autoFilter ref="I1:M3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table991516" displayName="Table991516" ref="I1:M3" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132" tableBorderDxfId="131">
+  <autoFilter ref="I1:M3" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Validator" dataDxfId="130"/>
-    <tableColumn id="4" name="Original" dataDxfId="129"/>
-    <tableColumn id="2" name="Amendment" dataDxfId="128"/>
-    <tableColumn id="3" name="Abbreviated" dataDxfId="127"/>
-    <tableColumn id="7" name="Normalized Trial Processing Time" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Validator" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Original" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Amendment" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Abbreviated" dataDxfId="127"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Normalized Trial Processing Time" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table37" displayName="Table37" ref="A1:P3" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table37" displayName="Table37" ref="A1:P3" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+  <autoFilter ref="A1:P3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Trial ID" dataDxfId="123"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="122"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="121"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="120"/>
-    <tableColumn id="4" name="Accepted Date" dataDxfId="119"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="118"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="117"/>
-    <tableColumn id="11" name="On-Hold Reason" dataDxfId="116"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="115"/>
-    <tableColumn id="19" name="Additional Comments" dataDxfId="114"/>
-    <tableColumn id="13" name="Processing Status" dataDxfId="113"/>
-    <tableColumn id="14" name="Abstractor" dataDxfId="112"/>
-    <tableColumn id="15" name="Start Time" dataDxfId="111"/>
-    <tableColumn id="16" name="End Time" dataDxfId="110"/>
-    <tableColumn id="17" name="Comments" dataDxfId="109"/>
-    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Trial ID" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Trial Type" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Submission#" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Lead Oganization" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Accepted Date" dataDxfId="117"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="On-Hold Date" dataDxfId="116"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Off-Hold Date" dataDxfId="115"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="On-Hold Reason" dataDxfId="114"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="On-Hold Description" dataDxfId="113"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Additional Comments" dataDxfId="112"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Processing Status" dataDxfId="111"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Abstractor" dataDxfId="110"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Start Time" dataDxfId="109"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="End Time" dataDxfId="108"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Comments" dataDxfId="107"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Processing Time (HH:MM:SS)" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table9915" displayName="Table9915" ref="R1:Y3" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
-  <autoFilter ref="R1:Y3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table9915" displayName="Table9915" ref="R1:Y3" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104" tableBorderDxfId="103">
+  <autoFilter ref="R1:Y3" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Abstractor" dataDxfId="104"/>
-    <tableColumn id="4" name="Original" dataDxfId="103"/>
-    <tableColumn id="8" name="Original Avg Time" dataDxfId="102"/>
-    <tableColumn id="2" name="Amendment" dataDxfId="101"/>
-    <tableColumn id="9" name="Amendment Avg Time" dataDxfId="100"/>
-    <tableColumn id="3" name="Abbreviated" dataDxfId="99"/>
-    <tableColumn id="10" name="Abbreviated Avg Time" dataDxfId="98"/>
-    <tableColumn id="7" name="Normalized Trial Processing Time" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Abstractor" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Original" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Original Avg Time" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Amendment" dataDxfId="99"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Amendment Avg Time" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Abbreviated" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Abbreviated Avg Time" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Normalized Trial Processing Time" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table378" displayName="Table378" ref="A1:P3" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table378" displayName="Table378" ref="A1:P3" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+  <autoFilter ref="A1:P3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Trial ID" dataDxfId="94"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="93"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="92"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="91"/>
-    <tableColumn id="4" name="Accepted Date" dataDxfId="90"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="89"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="88"/>
-    <tableColumn id="11" name="On-Hold Reason" dataDxfId="87"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="86"/>
-    <tableColumn id="19" name="Additional Comments" dataDxfId="85"/>
-    <tableColumn id="13" name="Processing Status" dataDxfId="84"/>
-    <tableColumn id="14" name="QCer" dataDxfId="83"/>
-    <tableColumn id="15" name="Start Time" dataDxfId="82"/>
-    <tableColumn id="16" name="End Time" dataDxfId="81"/>
-    <tableColumn id="17" name="Comments" dataDxfId="80"/>
-    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Trial ID" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Trial Type" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Submission#" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Lead Oganization" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Accepted Date" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="On-Hold Date" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Off-Hold Date" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="On-Hold Reason" dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="On-Hold Description" dataDxfId="81"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="Additional Comments" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Processing Status" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="QCer" dataDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Start Time" dataDxfId="77"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="End Time" dataDxfId="76"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="Comments" dataDxfId="75"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="Processing Time (HH:MM:SS)" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table991014" displayName="Table991014" ref="R1:Y3" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77" tableBorderDxfId="76">
-  <autoFilter ref="R1:Y3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table991014" displayName="Table991014" ref="R1:Y3" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" tableBorderDxfId="71">
+  <autoFilter ref="R1:Y3" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="QCer" dataDxfId="75"/>
-    <tableColumn id="4" name="Original" dataDxfId="74"/>
-    <tableColumn id="2" name="Original Avg Time" dataDxfId="73"/>
-    <tableColumn id="3" name="Amendment" dataDxfId="72"/>
-    <tableColumn id="5" name="Amendment Avg Time" dataDxfId="71"/>
-    <tableColumn id="6" name="Abbreviated" dataDxfId="70"/>
-    <tableColumn id="7" name="Abbreviated Avg Time" dataDxfId="69"/>
-    <tableColumn id="8" name="Normalized Trial Processing Time" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="QCer" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Original" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Original Avg Time" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Amendment" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Amendment Avg Time" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Abbreviated" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Abbreviated Avg Time" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Normalized Trial Processing Time" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1212" displayName="Table1212" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1212" displayName="Table1212" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Team Member" dataDxfId="67"/>
-    <tableColumn id="2" name="Work Time" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Team Member" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Work Time" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O3" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table3" displayName="Table3" ref="A1:O3" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Trial ID" dataDxfId="63"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="62"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="61"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="60"/>
-    <tableColumn id="9" name="On-Hold Date" dataDxfId="59"/>
-    <tableColumn id="10" name="Off-Hold Date" dataDxfId="58"/>
-    <tableColumn id="11" name="On-Hold Reason" dataDxfId="57"/>
-    <tableColumn id="12" name="On-Hold Description" dataDxfId="56"/>
-    <tableColumn id="19" name="Additional Comments" dataDxfId="55"/>
-    <tableColumn id="13" name="Processing Status" dataDxfId="54"/>
-    <tableColumn id="14" name="Abstractor" dataDxfId="53"/>
-    <tableColumn id="15" name="Start Time" dataDxfId="52"/>
-    <tableColumn id="16" name="End Time" dataDxfId="51"/>
-    <tableColumn id="17" name="Comments" dataDxfId="50"/>
-    <tableColumn id="18" name="Processing Time (HH:MM:SS)" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Trial ID" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Trial Type" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Submission#" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Lead Oganization" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="On-Hold Date" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Off-Hold Date" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="On-Hold Reason" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="On-Hold Description" dataDxfId="50"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0700-000013000000}" name="Additional Comments" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0700-00000D000000}" name="Processing Status" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="Abstractor" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0700-00000F000000}" name="Start Time" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="End Time" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0700-000011000000}" name="Comments" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0700-000012000000}" name="Processing Time (HH:MM:SS)" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table99" displayName="Table99" ref="Q1:X3" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="Q1:X3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table99" displayName="Table99" ref="Q1:X3" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+  <autoFilter ref="Q1:X3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Abstractor" dataDxfId="45"/>
-    <tableColumn id="4" name="Original" dataDxfId="44"/>
-    <tableColumn id="8" name="Original Avg Time" dataDxfId="43"/>
-    <tableColumn id="2" name="Amendment" dataDxfId="42"/>
-    <tableColumn id="9" name="Amendment Avg Time" dataDxfId="41"/>
-    <tableColumn id="3" name="Abbreviated" dataDxfId="40"/>
-    <tableColumn id="10" name="Abbreviated Avg Time" dataDxfId="39"/>
-    <tableColumn id="7" name="Normalized Trial Processing Time" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Abstractor" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Original" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Original Avg Time" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Amendment" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Amendment Avg Time" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Abbreviated" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Abbreviated Avg Time" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Normalized Trial Processing Time" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3006,11 +3010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -5687,7 +5691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Y501"/>
   <sheetViews>
@@ -9450,10 +9454,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
@@ -9465,7 +9469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y101"/>
   <sheetViews>
@@ -9767,11 +9771,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9783,7 +9787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9820,7 +9824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X501"/>
   <sheetViews>
@@ -14213,7 +14217,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -14225,7 +14229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X39"/>
   <sheetViews>
@@ -14520,10 +14524,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -14535,11 +14539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14552,7 +14556,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14565,8 +14569,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>